--- a/data/houseinfo.xlsx
+++ b/data/houseinfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban25/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A16487-6369-C748-A59F-36170A367738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D94A9DC-D03F-3A49-A750-259EB6ACDF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="-24700" windowWidth="42040" windowHeight="16380" xr2:uid="{3AB5D77B-1579-2648-A897-7F84A01250C3}"/>
+    <workbookView xWindow="2080" yWindow="-15840" windowWidth="40560" windowHeight="11420" activeTab="1" xr2:uid="{3AB5D77B-1579-2648-A897-7F84A01250C3}"/>
   </bookViews>
   <sheets>
     <sheet name="price" sheetId="1" r:id="rId1"/>
@@ -767,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD3E85E-DF5C-744F-9031-69DF85D73821}">
   <dimension ref="A1:AD58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -870,7 +870,7 @@
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -889,40 +889,46 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
+      <c r="S2" s="3">
+        <v>31.79126328217237</v>
+      </c>
       <c r="T2" s="3">
-        <v>32.963864205969465</v>
+        <v>34.217460555972956</v>
       </c>
       <c r="U2" s="3">
-        <v>35.56116829451539</v>
+        <v>37.852892561983474</v>
       </c>
       <c r="V2" s="3">
-        <v>37.144319179253351</v>
+        <v>40.757685950413226</v>
       </c>
       <c r="W2" s="3">
-        <v>37.907862376179594</v>
+        <v>39.661074380165289</v>
       </c>
       <c r="X2" s="3">
-        <v>36.704376572044559</v>
+        <v>40.364033057851245</v>
       </c>
       <c r="Y2" s="3">
-        <v>38.13992727272727</v>
+        <v>40.283884297520665</v>
       </c>
       <c r="Z2" s="3">
-        <v>37.643120280634989</v>
+        <v>40.169445100354196</v>
       </c>
       <c r="AA2" s="3">
-        <v>39.130766758494012</v>
-      </c>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
+        <v>40.291164108618659</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>40.705280321643954</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>41.951652892561981</v>
+      </c>
       <c r="AD2" s="3">
-        <v>35.904182445862489</v>
+        <v>39.198998864125969</v>
       </c>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -942,27 +948,39 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
+      <c r="T3" s="3">
+        <v>32.963864205969465</v>
+      </c>
+      <c r="U3" s="3">
+        <v>35.56116829451539</v>
+      </c>
+      <c r="V3" s="3">
+        <v>37.144319179253351</v>
+      </c>
+      <c r="W3" s="3">
+        <v>37.907862376179594</v>
+      </c>
+      <c r="X3" s="3">
+        <v>36.704376572044559</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>38.13992727272727</v>
+      </c>
       <c r="Z3" s="3">
-        <v>35.591321973948254</v>
+        <v>37.643120280634989</v>
       </c>
       <c r="AA3" s="3">
-        <v>39.354238488783942</v>
+        <v>39.130766758494012</v>
       </c>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
       <c r="AD3" s="3">
-        <v>35.696683636363652</v>
+        <v>35.904182445862489</v>
       </c>
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -981,32 +999,28 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="3">
-        <v>31.594159779614333</v>
-      </c>
-      <c r="T4" s="3">
-        <v>31.011900826446283</v>
-      </c>
-      <c r="U4" s="3">
-        <v>31.011900826446283</v>
-      </c>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-      <c r="X4" s="3">
-        <v>36.052561983471072</v>
-      </c>
+      <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
+      <c r="Z4" s="3">
+        <v>35.591321973948254</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>39.354238488783942</v>
+      </c>
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3">
-        <v>31.868650137741053</v>
+        <v>35.696683636363652</v>
       </c>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1025,38 +1039,32 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
+      <c r="S5" s="3">
+        <v>31.594159779614333</v>
+      </c>
+      <c r="T5" s="3">
+        <v>31.011900826446283</v>
+      </c>
+      <c r="U5" s="3">
+        <v>31.011900826446283</v>
+      </c>
       <c r="V5" s="3"/>
-      <c r="W5" s="3">
-        <v>37.073623841723027</v>
-      </c>
+      <c r="W5" s="3"/>
       <c r="X5" s="3">
-        <v>37.856376350921806</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>37.983561232156269</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>37.447625344352609</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>38.013145357316482</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>37.366508264462809</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>38.438898071625346</v>
-      </c>
+        <v>36.052561983471072</v>
+      </c>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
       <c r="AD5" s="3">
-        <v>37.466137219423906</v>
+        <v>31.868650137741053</v>
       </c>
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1079,26 +1087,34 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
+      <c r="W6" s="3">
+        <v>37.073623841723027</v>
+      </c>
+      <c r="X6" s="3">
+        <v>37.856376350921806</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>37.983561232156269</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>37.447625344352609</v>
+      </c>
       <c r="AA6" s="3">
-        <v>36.560126141800758</v>
+        <v>38.013145357316482</v>
       </c>
       <c r="AB6" s="3">
-        <v>37.315048835462058</v>
+        <v>37.366508264462809</v>
       </c>
       <c r="AC6" s="3">
-        <v>38.235911265767733</v>
+        <v>38.438898071625346</v>
       </c>
       <c r="AD6" s="3">
-        <v>37.028158630120686</v>
+        <v>37.466137219423906</v>
       </c>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1126,21 +1142,21 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3">
-        <v>39.586667994291261</v>
+        <v>36.560126141800758</v>
       </c>
       <c r="AB7" s="3">
-        <v>40.353774993335115</v>
+        <v>37.315048835462058</v>
       </c>
       <c r="AC7" s="3">
-        <v>39.928906729634008</v>
+        <v>38.235911265767733</v>
       </c>
       <c r="AD7" s="3">
-        <v>39.966782451997794</v>
+        <v>37.028158630120686</v>
       </c>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1159,42 +1175,30 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="3">
-        <v>29.532640120210367</v>
-      </c>
-      <c r="T8" s="3">
-        <v>31.247321341759847</v>
-      </c>
-      <c r="U8" s="3">
-        <v>33.100734618916448</v>
-      </c>
-      <c r="V8" s="3">
-        <v>34.760346320346329</v>
-      </c>
-      <c r="W8" s="3">
-        <v>35.506662866913658</v>
-      </c>
-      <c r="X8" s="3">
-        <v>35.525330578512403</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>36.127578818487905</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>35.044297520661154</v>
-      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
       <c r="AA8" s="3">
-        <v>35.901818181818186</v>
-      </c>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
+        <v>39.586667994291261</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>40.353774993335115</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>39.928906729634008</v>
+      </c>
       <c r="AD8" s="3">
-        <v>32.74410423452769</v>
+        <v>39.966782451997794</v>
       </c>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1213,30 +1217,42 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
+      <c r="S9" s="3">
+        <v>29.532640120210367</v>
+      </c>
+      <c r="T9" s="3">
+        <v>31.247321341759847</v>
+      </c>
+      <c r="U9" s="3">
+        <v>33.100734618916448</v>
+      </c>
+      <c r="V9" s="3">
+        <v>34.760346320346329</v>
+      </c>
+      <c r="W9" s="3">
+        <v>35.506662866913658</v>
+      </c>
+      <c r="X9" s="3">
+        <v>35.525330578512403</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>36.127578818487905</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>35.044297520661154</v>
+      </c>
       <c r="AA9" s="3">
-        <v>39.916861361314886</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>41.411693190355848</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>40.686350587211834</v>
-      </c>
+        <v>35.901818181818186</v>
+      </c>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
       <c r="AD9" s="3">
-        <v>40.992203069657613</v>
+        <v>32.74410423452769</v>
       </c>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1248,24 +1264,14 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3">
-        <v>21.945123966942148</v>
-      </c>
-      <c r="M10" s="3">
-        <v>21.738585858585861</v>
-      </c>
-      <c r="N10" s="3">
-        <v>22.297090909090912</v>
-      </c>
-      <c r="O10" s="3">
-        <v>22.216709241172051</v>
-      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="3">
-        <v>22.857752066115705</v>
-      </c>
+      <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
@@ -1273,16 +1279,22 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
+      <c r="AA10" s="3">
+        <v>39.916861361314886</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>41.411693190355848</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>40.686350587211834</v>
+      </c>
       <c r="AD10" s="3">
-        <v>22.265387205387199</v>
+        <v>40.992203069657613</v>
       </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1294,25 +1306,27 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="L11" s="3">
+        <v>21.945123966942148</v>
+      </c>
+      <c r="M11" s="3">
+        <v>21.738585858585861</v>
+      </c>
+      <c r="N11" s="3">
+        <v>22.297090909090912</v>
+      </c>
+      <c r="O11" s="3">
+        <v>22.216709241172051</v>
+      </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3">
-        <v>25.884691298006807</v>
-      </c>
-      <c r="T11" s="3">
-        <v>27.923336183148091</v>
-      </c>
-      <c r="U11" s="3">
-        <v>32.438264462809919</v>
-      </c>
-      <c r="V11" s="3">
-        <v>33.013623314484562</v>
-      </c>
+        <v>22.857752066115705</v>
+      </c>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
@@ -1321,12 +1335,12 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3">
-        <v>28.489045441172522</v>
+        <v>22.265387205387199</v>
       </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1346,16 +1360,16 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3">
-        <v>24.647804163615447</v>
+        <v>25.884691298006807</v>
       </c>
       <c r="T12" s="3">
-        <v>27.330371090584993</v>
+        <v>27.923336183148091</v>
       </c>
       <c r="U12" s="3">
-        <v>30.984545454545451</v>
+        <v>32.438264462809919</v>
       </c>
       <c r="V12" s="3">
-        <v>32.014876033057853</v>
+        <v>33.013623314484562</v>
       </c>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
@@ -1365,12 +1379,12 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3">
-        <v>26.688831467726732</v>
+        <v>28.489045441172522</v>
       </c>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1389,40 +1403,32 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
+      <c r="S13" s="3">
+        <v>24.647804163615447</v>
+      </c>
       <c r="T13" s="3">
-        <v>26.300127929355803</v>
+        <v>27.330371090584993</v>
       </c>
       <c r="U13" s="3">
-        <v>30.784335960023057</v>
+        <v>30.984545454545451</v>
       </c>
       <c r="V13" s="3">
-        <v>34.101230486685033</v>
-      </c>
-      <c r="W13" s="3">
-        <v>32.648801652892558</v>
-      </c>
-      <c r="X13" s="3">
-        <v>31.981720232629325</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>31.723565525383709</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>33.525747558226897</v>
-      </c>
-      <c r="AA13" s="3">
-        <v>36.823884297520664</v>
-      </c>
+        <v>32.014876033057853</v>
+      </c>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3">
-        <v>29.263330863493852</v>
+        <v>26.688831467726732</v>
       </c>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1432,47 +1438,49 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3">
-        <v>22.628099173553721</v>
-      </c>
-      <c r="K14" s="3">
-        <v>23.758692712246432</v>
-      </c>
-      <c r="L14" s="3">
-        <v>22.622100145843461</v>
-      </c>
-      <c r="M14" s="3">
-        <v>22.455909090909081</v>
-      </c>
-      <c r="N14" s="3">
-        <v>22.545075193063269</v>
-      </c>
-      <c r="O14" s="3">
-        <v>22.242122314049585</v>
-      </c>
-      <c r="P14" s="3">
-        <v>20.931487603305783</v>
-      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
+      <c r="T14" s="3">
+        <v>26.300127929355803</v>
+      </c>
+      <c r="U14" s="3">
+        <v>30.784335960023057</v>
+      </c>
+      <c r="V14" s="3">
+        <v>34.101230486685033</v>
+      </c>
+      <c r="W14" s="3">
+        <v>32.648801652892558</v>
+      </c>
+      <c r="X14" s="3">
+        <v>31.981720232629325</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>31.723565525383709</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>33.525747558226897</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>36.823884297520664</v>
+      </c>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3">
-        <v>22.457519404204508</v>
+        <v>29.263330863493852</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1483,36 +1491,30 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3">
-        <v>21.574469167196444</v>
+        <v>22.628099173553721</v>
       </c>
       <c r="K15" s="3">
-        <v>21.530798898071627</v>
+        <v>23.758692712246432</v>
       </c>
       <c r="L15" s="3">
-        <v>21.895182124273035</v>
+        <v>22.622100145843461</v>
       </c>
       <c r="M15" s="3">
-        <v>21.743198833252308</v>
+        <v>22.455909090909081</v>
       </c>
       <c r="N15" s="3">
-        <v>21.776788665879572</v>
+        <v>22.545075193063269</v>
       </c>
       <c r="O15" s="3">
-        <v>21.513071625344352</v>
+        <v>22.242122314049585</v>
       </c>
       <c r="P15" s="3">
-        <v>21.807091442282061</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>21.807122464312542</v>
-      </c>
-      <c r="R15" s="3">
-        <v>22.022644628099172</v>
-      </c>
+        <v>20.931487603305783</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
       <c r="S15" s="3"/>
-      <c r="T15" s="3">
-        <v>21.177107438016527</v>
-      </c>
+      <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
@@ -1523,12 +1525,12 @@
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3">
-        <v>21.695264027838189</v>
+        <v>22.457519404204508</v>
       </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1538,47 +1540,53 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3">
-        <v>31.338946871310501</v>
-      </c>
+      <c r="J16" s="3">
+        <v>21.574469167196444</v>
+      </c>
+      <c r="K16" s="3">
+        <v>21.530798898071627</v>
+      </c>
+      <c r="L16" s="3">
+        <v>21.895182124273035</v>
+      </c>
+      <c r="M16" s="3">
+        <v>21.743198833252308</v>
+      </c>
+      <c r="N16" s="3">
+        <v>21.776788665879572</v>
+      </c>
+      <c r="O16" s="3">
+        <v>21.513071625344352</v>
+      </c>
+      <c r="P16" s="3">
+        <v>21.807091442282061</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>21.807122464312542</v>
+      </c>
+      <c r="R16" s="3">
+        <v>22.022644628099172</v>
+      </c>
+      <c r="S16" s="3"/>
       <c r="T16" s="3">
-        <v>36.100203432930705</v>
-      </c>
-      <c r="U16" s="3">
-        <v>37.292654545454546</v>
-      </c>
-      <c r="V16" s="3">
-        <v>40.73115702479339</v>
-      </c>
+        <v>21.177107438016527</v>
+      </c>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-      <c r="Z16" s="3">
-        <v>41.043801652892569</v>
-      </c>
-      <c r="AA16" s="3">
-        <v>41.022975206611576</v>
-      </c>
-      <c r="AB16" s="3">
-        <v>40.266446280991737</v>
-      </c>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3">
-        <v>35.228405895884805</v>
+        <v>21.695264027838189</v>
       </c>
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1597,36 +1605,38 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
+      <c r="S17" s="3">
+        <v>31.338946871310501</v>
+      </c>
+      <c r="T17" s="3">
+        <v>36.100203432930705</v>
+      </c>
+      <c r="U17" s="3">
+        <v>37.292654545454546</v>
+      </c>
+      <c r="V17" s="3">
+        <v>40.73115702479339</v>
+      </c>
       <c r="W17" s="3"/>
-      <c r="X17" s="3">
-        <v>34.114528925619837</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>33.843129945489721</v>
-      </c>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
       <c r="Z17" s="3">
-        <v>34.862265435099665</v>
+        <v>41.043801652892569</v>
       </c>
       <c r="AA17" s="3">
-        <v>35.229044239183274</v>
+        <v>41.022975206611576</v>
       </c>
       <c r="AB17" s="3">
-        <v>35.440150262960181</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>35.208705234159787</v>
-      </c>
+        <v>40.266446280991737</v>
+      </c>
+      <c r="AC17" s="3"/>
       <c r="AD17" s="3">
-        <v>34.850789210789223</v>
+        <v>35.228405895884805</v>
       </c>
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1636,21 +1646,11 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3">
-        <v>23.17853443526171</v>
-      </c>
-      <c r="K18" s="3">
-        <v>22.877454545454551</v>
-      </c>
-      <c r="L18" s="3">
-        <v>22.265732231404957</v>
-      </c>
-      <c r="M18" s="3">
-        <v>22.29454545454546</v>
-      </c>
-      <c r="N18" s="3">
-        <v>21.197685950413224</v>
-      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -1660,19 +1660,31 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
+      <c r="X18" s="3">
+        <v>34.114528925619837</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>33.843129945489721</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>34.862265435099665</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>35.229044239183274</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>35.440150262960181</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>35.208705234159787</v>
+      </c>
       <c r="AD18" s="3">
-        <v>22.576262850231807</v>
+        <v>34.850789210789223</v>
       </c>
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1682,27 +1694,29 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="J19" s="3">
+        <v>23.17853443526171</v>
+      </c>
+      <c r="K19" s="3">
+        <v>22.877454545454551</v>
+      </c>
+      <c r="L19" s="3">
+        <v>22.265732231404957</v>
+      </c>
+      <c r="M19" s="3">
+        <v>22.29454545454546</v>
+      </c>
+      <c r="N19" s="3">
+        <v>21.197685950413224</v>
+      </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-      <c r="S19" s="3">
-        <v>29.33541004450095</v>
-      </c>
-      <c r="T19" s="3">
-        <v>31.274809917355377</v>
-      </c>
-      <c r="U19" s="3">
-        <v>32.991286894923256</v>
-      </c>
-      <c r="V19" s="3">
-        <v>30.459684447783626</v>
-      </c>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
@@ -1711,12 +1725,12 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3">
-        <v>31.125576081672339</v>
+        <v>22.576262850231807</v>
       </c>
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1735,30 +1749,32 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
+      <c r="S20" s="3">
+        <v>29.33541004450095</v>
+      </c>
+      <c r="T20" s="3">
+        <v>31.274809917355377</v>
+      </c>
+      <c r="U20" s="3">
+        <v>32.991286894923256</v>
+      </c>
+      <c r="V20" s="3">
+        <v>30.459684447783626</v>
+      </c>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
-      <c r="AA20" s="3">
-        <v>37.171900826446283</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>38.195930464519805</v>
-      </c>
-      <c r="AC20" s="3">
-        <v>37.307231404958678</v>
-      </c>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
       <c r="AD20" s="3">
-        <v>37.702936639118462</v>
+        <v>31.125576081672339</v>
       </c>
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1777,28 +1793,30 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
-      <c r="S21" s="3">
-        <v>25.963365214968885</v>
-      </c>
-      <c r="T21" s="3">
-        <v>27.572184179456897</v>
-      </c>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
+      <c r="AA21" s="3">
+        <v>37.171900826446283</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>38.195930464519805</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>37.307231404958678</v>
+      </c>
       <c r="AD21" s="3">
-        <v>26.534612528446516</v>
+        <v>37.702936639118462</v>
       </c>
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1818,17 +1836,13 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3">
-        <v>28.794953168044078</v>
+        <v>25.963365214968885</v>
       </c>
       <c r="T22" s="3">
-        <v>29.320779220779226</v>
-      </c>
-      <c r="U22" s="3">
-        <v>28.594876033057854</v>
-      </c>
-      <c r="V22" s="3">
-        <v>26.545454545454547</v>
-      </c>
+        <v>27.572184179456897</v>
+      </c>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
@@ -1837,12 +1851,12 @@
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3">
-        <v>28.903608815426999</v>
+        <v>26.534612528446516</v>
       </c>
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1861,40 +1875,32 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
+      <c r="S23" s="3">
+        <v>28.794953168044078</v>
+      </c>
+      <c r="T23" s="3">
+        <v>29.320779220779226</v>
+      </c>
+      <c r="U23" s="3">
+        <v>28.594876033057854</v>
+      </c>
       <c r="V23" s="3">
-        <v>37.991912632821723</v>
-      </c>
-      <c r="W23" s="3">
-        <v>38.424204357625847</v>
-      </c>
-      <c r="X23" s="3">
-        <v>38.713844942935843</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>38.854120425029521</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>39.801725619834713</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>39.308561983471087</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>38.132834224598938</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>36.717575757575759</v>
-      </c>
+        <v>26.545454545454547</v>
+      </c>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
       <c r="AD23" s="3">
-        <v>38.822184462809929</v>
+        <v>28.903608815426999</v>
       </c>
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1913,28 +1919,40 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
-      <c r="S24" s="3">
-        <v>27.048545454545451</v>
-      </c>
-      <c r="T24" s="3">
-        <v>26.970842975206608</v>
-      </c>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
       <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
+      <c r="V24" s="3">
+        <v>37.991912632821723</v>
+      </c>
+      <c r="W24" s="3">
+        <v>38.424204357625847</v>
+      </c>
+      <c r="X24" s="3">
+        <v>38.713844942935843</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>38.854120425029521</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>39.801725619834713</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>39.308561983471087</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>38.132834224598938</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>36.717575757575759</v>
+      </c>
       <c r="AD24" s="3">
-        <v>27.03300495867769</v>
+        <v>38.822184462809929</v>
       </c>
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1954,39 +1972,27 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3">
-        <v>27.681493725130082</v>
+        <v>27.048545454545451</v>
       </c>
       <c r="T25" s="3">
-        <v>30.160850933578192</v>
-      </c>
-      <c r="U25" s="3">
-        <v>32.562946460653976</v>
-      </c>
-      <c r="V25" s="3">
-        <v>33.057581879400068</v>
-      </c>
-      <c r="W25" s="3">
-        <v>34.095165289256194</v>
-      </c>
-      <c r="X25" s="3">
-        <v>33.853640713353634</v>
-      </c>
-      <c r="Y25" s="3">
-        <v>34.222909090909091</v>
-      </c>
-      <c r="Z25" s="3">
-        <v>33.774545454545461</v>
-      </c>
+        <v>26.970842975206608</v>
+      </c>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3">
-        <v>31.015537190082657</v>
+        <v>27.03300495867769</v>
       </c>
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2005,32 +2011,40 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
+      <c r="S26" s="3">
+        <v>27.681493725130082</v>
+      </c>
+      <c r="T26" s="3">
+        <v>30.160850933578192</v>
+      </c>
+      <c r="U26" s="3">
+        <v>32.562946460653976</v>
+      </c>
+      <c r="V26" s="3">
+        <v>33.057581879400068</v>
+      </c>
+      <c r="W26" s="3">
+        <v>34.095165289256194</v>
+      </c>
+      <c r="X26" s="3">
+        <v>33.853640713353634</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>34.222909090909091</v>
+      </c>
       <c r="Z26" s="3">
-        <v>34.2038406537283</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>34.771215714456822</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>35.718299881936261</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>35.428760330578513</v>
-      </c>
+        <v>33.774545454545461</v>
+      </c>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
       <c r="AD26" s="3">
-        <v>34.721159491797209</v>
+        <v>31.015537190082657</v>
       </c>
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2049,34 +2063,32 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
-      <c r="S27" s="3">
-        <v>24.717293388429749</v>
-      </c>
-      <c r="T27" s="3">
-        <v>25.919386068476982</v>
-      </c>
-      <c r="U27" s="3">
-        <v>30.453936494127891</v>
-      </c>
-      <c r="V27" s="3">
-        <v>30.983057851239671</v>
-      </c>
-      <c r="W27" s="3">
-        <v>32.044297520661154</v>
-      </c>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
+      <c r="Z27" s="3">
+        <v>34.2038406537283</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>34.771215714456822</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>35.718299881936261</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>35.428760330578513</v>
+      </c>
       <c r="AD27" s="3">
-        <v>26.994137741046831</v>
+        <v>34.721159491797209</v>
       </c>
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2086,28 +2098,30 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="3">
-        <v>24.074624879252983</v>
-      </c>
-      <c r="K28" s="3">
-        <v>23.76557162534435</v>
-      </c>
-      <c r="L28" s="3">
-        <v>24.459504132231405</v>
-      </c>
-      <c r="M28" s="3">
-        <v>23.957685950413218</v>
-      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
+      <c r="S28" s="3">
+        <v>24.717293388429749</v>
+      </c>
+      <c r="T28" s="3">
+        <v>25.919386068476982</v>
+      </c>
+      <c r="U28" s="3">
+        <v>30.453936494127891</v>
+      </c>
+      <c r="V28" s="3">
+        <v>30.983057851239671</v>
+      </c>
+      <c r="W28" s="3">
+        <v>32.044297520661154</v>
+      </c>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
@@ -2115,54 +2129,38 @@
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3">
-        <v>24.018188258022981</v>
+        <v>26.994137741046831</v>
       </c>
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="3">
-        <v>22.931167620258535</v>
-      </c>
-      <c r="G29" s="3">
-        <v>23.275538270404592</v>
-      </c>
-      <c r="H29" s="3">
-        <v>24.047128997484741</v>
-      </c>
-      <c r="I29" s="3">
-        <v>24.689064810787308</v>
-      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="3">
-        <v>24.810429116338216</v>
+        <v>24.074624879252983</v>
       </c>
       <c r="K29" s="3">
-        <v>25.226289691170081</v>
+        <v>23.76557162534435</v>
       </c>
       <c r="L29" s="3">
-        <v>25.588544735896516</v>
+        <v>24.459504132231405</v>
       </c>
       <c r="M29" s="3">
-        <v>25.453125911521639</v>
-      </c>
-      <c r="N29" s="3">
-        <v>24.982075298438936</v>
-      </c>
-      <c r="O29" s="3">
-        <v>24.662689706987226</v>
-      </c>
-      <c r="P29" s="3">
-        <v>24.991633820724733</v>
-      </c>
+        <v>23.957685950413218</v>
+      </c>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="3">
-        <v>25.62710743801653</v>
-      </c>
+      <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
@@ -2175,46 +2173,56 @@
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3">
-        <v>24.101257730830341</v>
+        <v>24.018188258022981</v>
       </c>
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="F30" s="3">
+        <v>22.931167620258535</v>
+      </c>
+      <c r="G30" s="3">
+        <v>23.275538270404592</v>
+      </c>
       <c r="H30" s="3">
-        <v>28.090656295576078</v>
+        <v>24.047128997484741</v>
       </c>
       <c r="I30" s="3">
-        <v>27.118989898989895</v>
+        <v>24.689064810787308</v>
       </c>
       <c r="J30" s="3">
-        <v>27.157494949494946</v>
+        <v>24.810429116338216</v>
       </c>
       <c r="K30" s="3">
-        <v>27.491435950413219</v>
+        <v>25.226289691170081</v>
       </c>
       <c r="L30" s="3">
-        <v>27.301454545454543</v>
-      </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
+        <v>25.588544735896516</v>
+      </c>
+      <c r="M30" s="3">
+        <v>25.453125911521639</v>
+      </c>
+      <c r="N30" s="3">
+        <v>24.982075298438936</v>
+      </c>
+      <c r="O30" s="3">
+        <v>24.662689706987226</v>
+      </c>
+      <c r="P30" s="3">
+        <v>24.991633820724733</v>
+      </c>
       <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3">
-        <v>24.611932310114124</v>
-      </c>
-      <c r="T30" s="3">
-        <v>25.664649658641757</v>
-      </c>
+      <c r="R30" s="3">
+        <v>25.62710743801653</v>
+      </c>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
@@ -2225,12 +2233,12 @@
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
       <c r="AD30" s="3">
-        <v>26.82194778362134</v>
+        <v>24.101257730830341</v>
       </c>
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2238,59 +2246,49 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+      <c r="H31" s="3">
+        <v>28.090656295576078</v>
+      </c>
+      <c r="I31" s="3">
+        <v>27.118989898989895</v>
+      </c>
+      <c r="J31" s="3">
+        <v>27.157494949494946</v>
+      </c>
+      <c r="K31" s="3">
+        <v>27.491435950413219</v>
+      </c>
+      <c r="L31" s="3">
+        <v>27.301454545454543</v>
+      </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="3">
-        <v>33.113719008264461</v>
-      </c>
+      <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3">
-        <v>32.502076194315656</v>
+        <v>24.611932310114124</v>
       </c>
       <c r="T31" s="3">
-        <v>34.689026629935711</v>
-      </c>
-      <c r="U31" s="3">
-        <v>38.960851875397346</v>
-      </c>
-      <c r="V31" s="3">
-        <v>41.404132231404958</v>
-      </c>
-      <c r="W31" s="3">
-        <v>41.165516528925615</v>
-      </c>
-      <c r="X31" s="3">
-        <v>41.567537190082646</v>
-      </c>
-      <c r="Y31" s="3">
-        <v>41.530807374443739</v>
-      </c>
-      <c r="Z31" s="3">
-        <v>41.720962989579576</v>
-      </c>
-      <c r="AA31" s="3">
-        <v>42.113657505285424</v>
-      </c>
-      <c r="AB31" s="3">
-        <v>43.634311294765837</v>
-      </c>
-      <c r="AC31" s="3">
-        <v>45.871460055096428</v>
-      </c>
+        <v>25.664649658641757</v>
+      </c>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
       <c r="AD31" s="3">
-        <v>39.157040661157033</v>
+        <v>26.82194778362134</v>
       </c>
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2305,45 +2303,47 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
+      <c r="O32" s="3">
+        <v>33.113719008264461</v>
+      </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3">
-        <v>31.79126328217237</v>
+        <v>32.502076194315656</v>
       </c>
       <c r="T32" s="3">
-        <v>34.217460555972956</v>
+        <v>34.689026629935711</v>
       </c>
       <c r="U32" s="3">
-        <v>37.852892561983474</v>
+        <v>38.960851875397346</v>
       </c>
       <c r="V32" s="3">
-        <v>40.757685950413226</v>
+        <v>41.404132231404958</v>
       </c>
       <c r="W32" s="3">
-        <v>39.661074380165289</v>
+        <v>41.165516528925615</v>
       </c>
       <c r="X32" s="3">
-        <v>40.364033057851245</v>
+        <v>41.567537190082646</v>
       </c>
       <c r="Y32" s="3">
-        <v>40.283884297520665</v>
+        <v>41.530807374443739</v>
       </c>
       <c r="Z32" s="3">
-        <v>40.169445100354196</v>
+        <v>41.720962989579576</v>
       </c>
       <c r="AA32" s="3">
-        <v>40.291164108618659</v>
+        <v>42.113657505285424</v>
       </c>
       <c r="AB32" s="3">
-        <v>40.705280321643954</v>
+        <v>43.634311294765837</v>
       </c>
       <c r="AC32" s="3">
-        <v>41.951652892561981</v>
+        <v>45.871460055096428</v>
       </c>
       <c r="AD32" s="3">
-        <v>39.198998864125969</v>
+        <v>39.157040661157033</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -3577,8 +3577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A291CE-127F-CA4C-9089-A163ECEBC382}">
   <dimension ref="A1:AD58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3699,40 +3699,46 @@
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
+      <c r="S2" s="6">
+        <v>14</v>
+      </c>
       <c r="T2" s="6">
-        <v>399</v>
+        <v>22</v>
       </c>
       <c r="U2" s="6">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="V2" s="6">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="W2" s="6">
-        <v>141</v>
+        <v>4</v>
       </c>
       <c r="X2" s="6">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="Y2" s="6">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="Z2" s="6">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="AA2" s="6">
-        <v>72</v>
-      </c>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>74</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>16</v>
+      </c>
       <c r="AD2" s="6">
-        <v>1264</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3752,27 +3758,39 @@
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
+      <c r="T3" s="6">
+        <v>399</v>
+      </c>
+      <c r="U3" s="6">
+        <v>176</v>
+      </c>
+      <c r="V3" s="6">
+        <v>145</v>
+      </c>
+      <c r="W3" s="6">
+        <v>141</v>
+      </c>
+      <c r="X3" s="6">
+        <v>92</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>100</v>
+      </c>
       <c r="Z3" s="6">
-        <v>243</v>
+        <v>139</v>
       </c>
       <c r="AA3" s="6">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6">
-        <v>250</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -3791,32 +3809,28 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="6">
-        <v>9</v>
-      </c>
-      <c r="T4" s="6">
-        <v>1</v>
-      </c>
-      <c r="U4" s="6">
-        <v>1</v>
-      </c>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
-      <c r="X4" s="6">
-        <v>1</v>
-      </c>
+      <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
+      <c r="Z4" s="6">
+        <v>243</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>7</v>
+      </c>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6">
-        <v>12</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -3835,38 +3849,32 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
+      <c r="S5" s="6">
+        <v>9</v>
+      </c>
+      <c r="T5" s="6">
+        <v>1</v>
+      </c>
+      <c r="U5" s="6">
+        <v>1</v>
+      </c>
       <c r="V5" s="6"/>
-      <c r="W5" s="6">
-        <v>66</v>
-      </c>
+      <c r="W5" s="6"/>
       <c r="X5" s="6">
-        <v>26</v>
-      </c>
-      <c r="Y5" s="6">
-        <v>11</v>
-      </c>
-      <c r="Z5" s="6">
-        <v>30</v>
-      </c>
-      <c r="AA5" s="6">
-        <v>17</v>
-      </c>
-      <c r="AB5" s="6">
-        <v>16</v>
-      </c>
-      <c r="AC5" s="6">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
       <c r="AD5" s="6">
-        <v>169</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -3889,26 +3897,34 @@
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
+      <c r="W6" s="6">
+        <v>66</v>
+      </c>
+      <c r="X6" s="6">
+        <v>26</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>11</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>30</v>
+      </c>
       <c r="AA6" s="6">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="AB6" s="6">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="AC6" s="6">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="AD6" s="6">
-        <v>139</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -3936,21 +3952,21 @@
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="AB7" s="6">
-        <v>248</v>
+        <v>44</v>
       </c>
       <c r="AC7" s="6">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="AD7" s="6">
-        <v>532</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -3969,42 +3985,30 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
-      <c r="S8" s="6">
-        <v>55</v>
-      </c>
-      <c r="T8" s="6">
-        <v>102</v>
-      </c>
-      <c r="U8" s="6">
-        <v>36</v>
-      </c>
-      <c r="V8" s="6">
-        <v>21</v>
-      </c>
-      <c r="W8" s="6">
-        <v>29</v>
-      </c>
-      <c r="X8" s="6">
-        <v>24</v>
-      </c>
-      <c r="Y8" s="6">
-        <v>27</v>
-      </c>
-      <c r="Z8" s="6">
-        <v>6</v>
-      </c>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
       <c r="AA8" s="6">
-        <v>7</v>
-      </c>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
+        <v>249</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>248</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>35</v>
+      </c>
       <c r="AD8" s="6">
-        <v>307</v>
+        <v>532</v>
       </c>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -4023,30 +4027,42 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
+      <c r="S9" s="6">
+        <v>55</v>
+      </c>
+      <c r="T9" s="6">
+        <v>102</v>
+      </c>
+      <c r="U9" s="6">
+        <v>36</v>
+      </c>
+      <c r="V9" s="6">
+        <v>21</v>
+      </c>
+      <c r="W9" s="6">
+        <v>29</v>
+      </c>
+      <c r="X9" s="6">
+        <v>24</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>27</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>6</v>
+      </c>
       <c r="AA9" s="6">
-        <v>89</v>
-      </c>
-      <c r="AB9" s="6">
-        <v>242</v>
-      </c>
-      <c r="AC9" s="6">
-        <v>19</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
       <c r="AD9" s="6">
-        <v>350</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -4058,24 +4074,14 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="6">
-        <v>4</v>
-      </c>
-      <c r="M10" s="6">
-        <v>9</v>
-      </c>
-      <c r="N10" s="6">
-        <v>20</v>
-      </c>
-      <c r="O10" s="6">
-        <v>11</v>
-      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="6">
-        <v>10</v>
-      </c>
+      <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
@@ -4083,16 +4089,22 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
+      <c r="AA10" s="6">
+        <v>89</v>
+      </c>
+      <c r="AB10" s="6">
+        <v>242</v>
+      </c>
+      <c r="AC10" s="6">
+        <v>19</v>
+      </c>
       <c r="AD10" s="6">
-        <v>54</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -4104,25 +4116,27 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
+      <c r="L11" s="6">
+        <v>4</v>
+      </c>
+      <c r="M11" s="6">
+        <v>9</v>
+      </c>
+      <c r="N11" s="6">
+        <v>20</v>
+      </c>
+      <c r="O11" s="6">
+        <v>11</v>
+      </c>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6">
-        <v>68</v>
-      </c>
-      <c r="T11" s="6">
-        <v>174</v>
-      </c>
-      <c r="U11" s="6">
-        <v>48</v>
-      </c>
-      <c r="V11" s="6">
-        <v>19</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
@@ -4131,12 +4145,12 @@
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
       <c r="AD11" s="6">
-        <v>309</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -4156,16 +4170,16 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="T12" s="6">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="U12" s="6">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="V12" s="6">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
@@ -4175,12 +4189,12 @@
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="6">
-        <v>158</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -4199,40 +4213,32 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
+      <c r="S13" s="6">
+        <v>79</v>
+      </c>
       <c r="T13" s="6">
-        <v>292</v>
+        <v>51</v>
       </c>
       <c r="U13" s="6">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="V13" s="6">
-        <v>27</v>
-      </c>
-      <c r="W13" s="6">
-        <v>72</v>
-      </c>
-      <c r="X13" s="6">
-        <v>27</v>
-      </c>
-      <c r="Y13" s="6">
-        <v>28</v>
-      </c>
-      <c r="Z13" s="6">
-        <v>44</v>
-      </c>
-      <c r="AA13" s="6">
-        <v>4</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
       <c r="AD13" s="6">
-        <v>580</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -4242,47 +4248,49 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="6">
-        <v>2</v>
-      </c>
-      <c r="K14" s="6">
-        <v>22</v>
-      </c>
-      <c r="L14" s="6">
-        <v>34</v>
-      </c>
-      <c r="M14" s="6">
-        <v>32</v>
-      </c>
-      <c r="N14" s="6">
-        <v>61</v>
-      </c>
-      <c r="O14" s="6">
-        <v>100</v>
-      </c>
-      <c r="P14" s="6">
-        <v>12</v>
-      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
+      <c r="T14" s="6">
+        <v>292</v>
+      </c>
+      <c r="U14" s="6">
+        <v>86</v>
+      </c>
+      <c r="V14" s="6">
+        <v>27</v>
+      </c>
+      <c r="W14" s="6">
+        <v>72</v>
+      </c>
+      <c r="X14" s="6">
+        <v>27</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>28</v>
+      </c>
+      <c r="Z14" s="6">
+        <v>44</v>
+      </c>
+      <c r="AA14" s="6">
+        <v>4</v>
+      </c>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
       <c r="AD14" s="6">
-        <v>263</v>
+        <v>580</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -4293,36 +4301,30 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="K15" s="6">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="L15" s="6">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M15" s="6">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N15" s="6">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="O15" s="6">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="P15" s="6">
-        <v>31</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>22</v>
-      </c>
-      <c r="R15" s="6">
-        <v>2</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
       <c r="S15" s="6"/>
-      <c r="T15" s="6">
-        <v>4</v>
-      </c>
+      <c r="T15" s="6"/>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
@@ -4333,12 +4335,12 @@
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="6">
-        <v>190</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -4348,47 +4350,53 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6">
-        <v>35</v>
-      </c>
+      <c r="J16" s="6">
+        <v>13</v>
+      </c>
+      <c r="K16" s="6">
+        <v>36</v>
+      </c>
+      <c r="L16" s="6">
+        <v>27</v>
+      </c>
+      <c r="M16" s="6">
+        <v>17</v>
+      </c>
+      <c r="N16" s="6">
+        <v>14</v>
+      </c>
+      <c r="O16" s="6">
+        <v>24</v>
+      </c>
+      <c r="P16" s="6">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>22</v>
+      </c>
+      <c r="R16" s="6">
+        <v>2</v>
+      </c>
+      <c r="S16" s="6"/>
       <c r="T16" s="6">
-        <v>26</v>
-      </c>
-      <c r="U16" s="6">
-        <v>25</v>
-      </c>
-      <c r="V16" s="6">
         <v>4</v>
       </c>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
-      <c r="Z16" s="6">
-        <v>2</v>
-      </c>
-      <c r="AA16" s="6">
-        <v>4</v>
-      </c>
-      <c r="AB16" s="6">
-        <v>1</v>
-      </c>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6">
-        <v>97</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -4407,36 +4415,38 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
+      <c r="S17" s="6">
+        <v>35</v>
+      </c>
+      <c r="T17" s="6">
+        <v>26</v>
+      </c>
+      <c r="U17" s="6">
+        <v>25</v>
+      </c>
+      <c r="V17" s="6">
+        <v>4</v>
+      </c>
       <c r="W17" s="6"/>
-      <c r="X17" s="6">
-        <v>20</v>
-      </c>
-      <c r="Y17" s="6">
-        <v>47</v>
-      </c>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
       <c r="Z17" s="6">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="AA17" s="6">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="AB17" s="6">
-        <v>44</v>
-      </c>
-      <c r="AC17" s="6">
-        <v>9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AC17" s="6"/>
       <c r="AD17" s="6">
-        <v>273</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -4446,21 +4456,11 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="6">
-        <v>15</v>
-      </c>
-      <c r="K18" s="6">
-        <v>20</v>
-      </c>
-      <c r="L18" s="6">
-        <v>25</v>
-      </c>
-      <c r="M18" s="6">
-        <v>21</v>
-      </c>
-      <c r="N18" s="6">
-        <v>1</v>
-      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
@@ -4470,19 +4470,31 @@
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
+      <c r="X18" s="6">
+        <v>20</v>
+      </c>
+      <c r="Y18" s="6">
+        <v>47</v>
+      </c>
+      <c r="Z18" s="6">
+        <v>68</v>
+      </c>
+      <c r="AA18" s="6">
+        <v>85</v>
+      </c>
+      <c r="AB18" s="6">
+        <v>44</v>
+      </c>
+      <c r="AC18" s="6">
+        <v>9</v>
+      </c>
       <c r="AD18" s="6">
-        <v>82</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -4492,27 +4504,29 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
+      <c r="J19" s="6">
+        <v>15</v>
+      </c>
+      <c r="K19" s="6">
+        <v>20</v>
+      </c>
+      <c r="L19" s="6">
+        <v>25</v>
+      </c>
+      <c r="M19" s="6">
+        <v>21</v>
+      </c>
+      <c r="N19" s="6">
+        <v>1</v>
+      </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
-      <c r="S19" s="6">
-        <v>13</v>
-      </c>
-      <c r="T19" s="6">
-        <v>30</v>
-      </c>
-      <c r="U19" s="6">
-        <v>14</v>
-      </c>
-      <c r="V19" s="6">
-        <v>11</v>
-      </c>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
@@ -4521,12 +4535,12 @@
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
       <c r="AD19" s="6">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -4545,30 +4559,32 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
+      <c r="S20" s="6">
+        <v>13</v>
+      </c>
+      <c r="T20" s="6">
+        <v>30</v>
+      </c>
+      <c r="U20" s="6">
+        <v>14</v>
+      </c>
+      <c r="V20" s="6">
+        <v>11</v>
+      </c>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
-      <c r="AA20" s="6">
-        <v>15</v>
-      </c>
-      <c r="AB20" s="6">
-        <v>29</v>
-      </c>
-      <c r="AC20" s="6">
-        <v>16</v>
-      </c>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
       <c r="AD20" s="6">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -4587,28 +4603,30 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
-      <c r="S21" s="6">
-        <v>89</v>
-      </c>
-      <c r="T21" s="6">
-        <v>49</v>
-      </c>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
+      <c r="AA21" s="6">
+        <v>15</v>
+      </c>
+      <c r="AB21" s="6">
+        <v>29</v>
+      </c>
+      <c r="AC21" s="6">
+        <v>16</v>
+      </c>
       <c r="AD21" s="6">
-        <v>138</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -4628,17 +4646,13 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="T22" s="6">
-        <v>14</v>
-      </c>
-      <c r="U22" s="6">
-        <v>6</v>
-      </c>
-      <c r="V22" s="6">
-        <v>1</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
@@ -4647,12 +4661,12 @@
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
       <c r="AD22" s="6">
-        <v>36</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -4671,40 +4685,32 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
+      <c r="S23" s="6">
+        <v>15</v>
+      </c>
+      <c r="T23" s="6">
+        <v>14</v>
+      </c>
+      <c r="U23" s="6">
+        <v>6</v>
+      </c>
       <c r="V23" s="6">
-        <v>28</v>
-      </c>
-      <c r="W23" s="6">
-        <v>55</v>
-      </c>
-      <c r="X23" s="6">
-        <v>21</v>
-      </c>
-      <c r="Y23" s="6">
-        <v>28</v>
-      </c>
-      <c r="Z23" s="6">
-        <v>50</v>
-      </c>
-      <c r="AA23" s="6">
-        <v>45</v>
-      </c>
-      <c r="AB23" s="6">
-        <v>17</v>
-      </c>
-      <c r="AC23" s="6">
-        <v>6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
       <c r="AD23" s="6">
-        <v>250</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -4723,28 +4729,40 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
-      <c r="S24" s="6">
-        <v>20</v>
-      </c>
-      <c r="T24" s="6">
-        <v>5</v>
-      </c>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
       <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="6"/>
+      <c r="V24" s="6">
+        <v>28</v>
+      </c>
+      <c r="W24" s="6">
+        <v>55</v>
+      </c>
+      <c r="X24" s="6">
+        <v>21</v>
+      </c>
+      <c r="Y24" s="6">
+        <v>28</v>
+      </c>
+      <c r="Z24" s="6">
+        <v>50</v>
+      </c>
+      <c r="AA24" s="6">
+        <v>45</v>
+      </c>
+      <c r="AB24" s="6">
+        <v>17</v>
+      </c>
+      <c r="AC24" s="6">
+        <v>6</v>
+      </c>
       <c r="AD24" s="6">
-        <v>25</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -4764,39 +4782,27 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="T25" s="6">
-        <v>54</v>
-      </c>
-      <c r="U25" s="6">
-        <v>23</v>
-      </c>
-      <c r="V25" s="6">
-        <v>27</v>
-      </c>
-      <c r="W25" s="6">
-        <v>8</v>
-      </c>
-      <c r="X25" s="6">
-        <v>19</v>
-      </c>
-      <c r="Y25" s="6">
-        <v>10</v>
-      </c>
-      <c r="Z25" s="6">
-        <v>9</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
       <c r="AD25" s="6">
-        <v>204</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -4815,32 +4821,40 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
+      <c r="S26" s="6">
+        <v>54</v>
+      </c>
+      <c r="T26" s="6">
+        <v>54</v>
+      </c>
+      <c r="U26" s="6">
+        <v>23</v>
+      </c>
+      <c r="V26" s="6">
+        <v>27</v>
+      </c>
+      <c r="W26" s="6">
+        <v>8</v>
+      </c>
+      <c r="X26" s="6">
+        <v>19</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>10</v>
+      </c>
       <c r="Z26" s="6">
-        <v>89</v>
-      </c>
-      <c r="AA26" s="6">
-        <v>69</v>
-      </c>
-      <c r="AB26" s="6">
-        <v>42</v>
-      </c>
-      <c r="AC26" s="6">
-        <v>1</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
       <c r="AD26" s="6">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -4859,34 +4873,32 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
-      <c r="S27" s="6">
-        <v>32</v>
-      </c>
-      <c r="T27" s="6">
-        <v>77</v>
-      </c>
-      <c r="U27" s="6">
-        <v>19</v>
-      </c>
-      <c r="V27" s="6">
-        <v>20</v>
-      </c>
-      <c r="W27" s="6">
-        <v>2</v>
-      </c>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="6"/>
+      <c r="Z27" s="6">
+        <v>89</v>
+      </c>
+      <c r="AA27" s="6">
+        <v>69</v>
+      </c>
+      <c r="AB27" s="6">
+        <v>42</v>
+      </c>
+      <c r="AC27" s="6">
+        <v>1</v>
+      </c>
       <c r="AD27" s="6">
-        <v>150</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -4896,28 +4908,30 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="6">
-        <v>77</v>
-      </c>
-      <c r="K28" s="6">
-        <v>48</v>
-      </c>
-      <c r="L28" s="6">
-        <v>19</v>
-      </c>
-      <c r="M28" s="6">
-        <v>10</v>
-      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
+      <c r="S28" s="6">
+        <v>32</v>
+      </c>
+      <c r="T28" s="6">
+        <v>77</v>
+      </c>
+      <c r="U28" s="6">
+        <v>19</v>
+      </c>
+      <c r="V28" s="6">
+        <v>20</v>
+      </c>
+      <c r="W28" s="6">
+        <v>2</v>
+      </c>
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
@@ -4925,54 +4939,38 @@
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
       <c r="AD28" s="6">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="6">
-        <v>156</v>
-      </c>
-      <c r="G29" s="6">
-        <v>153</v>
-      </c>
-      <c r="H29" s="6">
-        <v>92</v>
-      </c>
-      <c r="I29" s="6">
-        <v>95</v>
-      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
       <c r="J29" s="6">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="K29" s="6">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L29" s="6">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="M29" s="6">
-        <v>17</v>
-      </c>
-      <c r="N29" s="6">
-        <v>9</v>
-      </c>
-      <c r="O29" s="6">
-        <v>11</v>
-      </c>
-      <c r="P29" s="6">
-        <v>13</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
-      <c r="R29" s="6">
-        <v>2</v>
-      </c>
+      <c r="R29" s="6"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
@@ -4985,46 +4983,56 @@
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
       <c r="AD29" s="6">
-        <v>755</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="F30" s="6">
+        <v>156</v>
+      </c>
+      <c r="G30" s="6">
+        <v>153</v>
+      </c>
       <c r="H30" s="6">
+        <v>92</v>
+      </c>
+      <c r="I30" s="6">
+        <v>95</v>
+      </c>
+      <c r="J30" s="6">
+        <v>104</v>
+      </c>
+      <c r="K30" s="6">
+        <v>57</v>
+      </c>
+      <c r="L30" s="6">
+        <v>46</v>
+      </c>
+      <c r="M30" s="6">
         <v>17</v>
       </c>
-      <c r="I30" s="6">
-        <v>18</v>
-      </c>
-      <c r="J30" s="6">
-        <v>45</v>
-      </c>
-      <c r="K30" s="6">
-        <v>32</v>
-      </c>
-      <c r="L30" s="6">
-        <v>20</v>
-      </c>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
+      <c r="N30" s="6">
+        <v>9</v>
+      </c>
+      <c r="O30" s="6">
+        <v>11</v>
+      </c>
+      <c r="P30" s="6">
+        <v>13</v>
+      </c>
       <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6">
-        <v>21</v>
-      </c>
-      <c r="T30" s="6">
-        <v>23</v>
-      </c>
+      <c r="R30" s="6">
+        <v>2</v>
+      </c>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
@@ -5035,12 +5043,12 @@
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
       <c r="AD30" s="6">
-        <v>176</v>
+        <v>755</v>
       </c>
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -5048,59 +5056,49 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
+      <c r="H31" s="6">
+        <v>17</v>
+      </c>
+      <c r="I31" s="6">
+        <v>18</v>
+      </c>
+      <c r="J31" s="6">
+        <v>45</v>
+      </c>
+      <c r="K31" s="6">
+        <v>32</v>
+      </c>
+      <c r="L31" s="6">
+        <v>20</v>
+      </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
-      <c r="O31" s="6">
-        <v>1</v>
-      </c>
+      <c r="O31" s="6"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="T31" s="6">
-        <v>36</v>
-      </c>
-      <c r="U31" s="6">
-        <v>26</v>
-      </c>
-      <c r="V31" s="6">
-        <v>16</v>
-      </c>
-      <c r="W31" s="6">
-        <v>16</v>
-      </c>
-      <c r="X31" s="6">
-        <v>5</v>
-      </c>
-      <c r="Y31" s="6">
-        <v>13</v>
-      </c>
-      <c r="Z31" s="6">
         <v>23</v>
       </c>
-      <c r="AA31" s="6">
-        <v>43</v>
-      </c>
-      <c r="AB31" s="6">
-        <v>24</v>
-      </c>
-      <c r="AC31" s="6">
-        <v>6</v>
-      </c>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
       <c r="AD31" s="6">
-        <v>250</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -5115,45 +5113,47 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
+      <c r="O32" s="6">
+        <v>1</v>
+      </c>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="T32" s="6">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="U32" s="6">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="V32" s="6">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="W32" s="6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="X32" s="6">
         <v>5</v>
       </c>
       <c r="Y32" s="6">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Z32" s="6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA32" s="6">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AB32" s="6">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="AC32" s="6">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AD32" s="6">
-        <v>211</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:30">

--- a/data/houseinfo.xlsx
+++ b/data/houseinfo.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban25/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D94A9DC-D03F-3A49-A750-259EB6ACDF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDF0D25-A5C2-1842-AEC3-E771F01AAD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="-15840" windowWidth="40560" windowHeight="11420" activeTab="1" xr2:uid="{3AB5D77B-1579-2648-A897-7F84A01250C3}"/>
+    <workbookView xWindow="3960" yWindow="-23300" windowWidth="40560" windowHeight="11420" xr2:uid="{3AB5D77B-1579-2648-A897-7F84A01250C3}"/>
   </bookViews>
   <sheets>
     <sheet name="price" sheetId="1" r:id="rId1"/>
     <sheet name="quantity" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>大亮泊</t>
   </si>
@@ -338,6 +338,18 @@
   </si>
   <si>
     <t>豐邑Green iN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y113Q2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>富宇富御</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>溫沙堡</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -765,10 +777,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD3E85E-DF5C-744F-9031-69DF85D73821}">
-  <dimension ref="A1:AD58"/>
+  <dimension ref="A1:AE60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D31" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AE37" sqref="AE37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -776,7 +791,7 @@
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>86</v>
       </c>
@@ -865,12 +880,15 @@
         <v>83</v>
       </c>
       <c r="AD1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE1" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:31">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -889,46 +907,41 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
-      <c r="S2" s="3">
-        <v>31.79126328217237</v>
-      </c>
+      <c r="S2" s="3"/>
       <c r="T2" s="3">
-        <v>34.217460555972956</v>
+        <v>32.963864205969465</v>
       </c>
       <c r="U2" s="3">
-        <v>37.852892561983474</v>
+        <v>35.56116829451539</v>
       </c>
       <c r="V2" s="3">
-        <v>40.757685950413226</v>
+        <v>37.144319179253351</v>
       </c>
       <c r="W2" s="3">
-        <v>39.661074380165289</v>
+        <v>37.907862376179594</v>
       </c>
       <c r="X2" s="3">
-        <v>40.364033057851245</v>
+        <v>36.704376572044559</v>
       </c>
       <c r="Y2" s="3">
-        <v>40.283884297520665</v>
+        <v>38.13992727272727</v>
       </c>
       <c r="Z2" s="3">
-        <v>40.169445100354196</v>
+        <v>37.643120280634989</v>
       </c>
       <c r="AA2" s="3">
-        <v>40.291164108618659</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>40.705280321643954</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>41.951652892561981</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>39.198998864125969</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39.130766758494012</v>
+      </c>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3">
+        <v>35.904182445862489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -948,39 +961,28 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
-      <c r="T3" s="3">
-        <v>32.963864205969465</v>
-      </c>
-      <c r="U3" s="3">
-        <v>35.56116829451539</v>
-      </c>
-      <c r="V3" s="3">
-        <v>37.144319179253351</v>
-      </c>
-      <c r="W3" s="3">
-        <v>37.907862376179594</v>
-      </c>
-      <c r="X3" s="3">
-        <v>36.704376572044559</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>38.13992727272727</v>
-      </c>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
       <c r="Z3" s="3">
-        <v>37.643120280634989</v>
+        <v>35.591321973948254</v>
       </c>
       <c r="AA3" s="3">
-        <v>39.130766758494012</v>
+        <v>39.354238488783942</v>
       </c>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
-      <c r="AD3" s="3">
-        <v>35.904182445862489</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3">
+        <v>35.696683636363652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -999,28 +1001,33 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
+      <c r="S4" s="3">
+        <v>31.594159779614333</v>
+      </c>
+      <c r="T4" s="3">
+        <v>31.011900826446283</v>
+      </c>
+      <c r="U4" s="3">
+        <v>31.011900826446283</v>
+      </c>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
+      <c r="X4" s="3">
+        <v>36.052561983471072</v>
+      </c>
       <c r="Y4" s="3"/>
-      <c r="Z4" s="3">
-        <v>35.591321973948254</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>39.354238488783942</v>
-      </c>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
-      <c r="AD4" s="3">
-        <v>35.696683636363652</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3">
+        <v>31.868650137741053</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1039,32 +1046,39 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
-      <c r="S5" s="3">
-        <v>31.594159779614333</v>
-      </c>
-      <c r="T5" s="3">
-        <v>31.011900826446283</v>
-      </c>
-      <c r="U5" s="3">
-        <v>31.011900826446283</v>
-      </c>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
       <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
+      <c r="W5" s="3">
+        <v>37.073623841723027</v>
+      </c>
       <c r="X5" s="3">
-        <v>36.052561983471072</v>
-      </c>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3">
-        <v>31.868650137741053</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>37.856376350921806</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>37.983561232156269</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>37.447625344352609</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>38.013145357316482</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>37.366508264462809</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>39.4</v>
+      </c>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3">
+        <v>37.466137219423906</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1087,34 +1101,29 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-      <c r="W6" s="3">
-        <v>37.073623841723027</v>
-      </c>
-      <c r="X6" s="3">
-        <v>37.856376350921806</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>37.983561232156269</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>37.447625344352609</v>
-      </c>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
       <c r="AA6" s="3">
-        <v>38.013145357316482</v>
+        <v>36.560126141800758</v>
       </c>
       <c r="AB6" s="3">
-        <v>37.366508264462809</v>
+        <v>37.315048835462058</v>
       </c>
       <c r="AC6" s="3">
-        <v>38.438898071625346</v>
+        <v>39</v>
       </c>
       <c r="AD6" s="3">
-        <v>37.466137219423906</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>41.6</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>37.028158630120686</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1142,21 +1151,22 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3">
-        <v>36.560126141800758</v>
+        <v>39.586667994291261</v>
       </c>
       <c r="AB7" s="3">
-        <v>37.315048835462058</v>
+        <v>40.353774993335115</v>
       </c>
       <c r="AC7" s="3">
-        <v>38.235911265767733</v>
-      </c>
-      <c r="AD7" s="3">
-        <v>37.028158630120686</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>39.928906729634008</v>
+      </c>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3">
+        <v>39.966782451997794</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1175,30 +1185,46 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
+      <c r="S8" s="3">
+        <v>29.532640120210367</v>
+      </c>
+      <c r="T8" s="3">
+        <v>31.247321341759847</v>
+      </c>
+      <c r="U8" s="3">
+        <v>33.100734618916448</v>
+      </c>
+      <c r="V8" s="3">
+        <v>34.760346320346329</v>
+      </c>
+      <c r="W8" s="3">
+        <v>35.506662866913658</v>
+      </c>
+      <c r="X8" s="3">
+        <v>35.525330578512403</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>36.127578818487905</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>35.044297520661154</v>
+      </c>
       <c r="AA8" s="3">
-        <v>39.586667994291261</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>40.353774993335115</v>
+        <v>35.901818181818186</v>
       </c>
       <c r="AC8" s="3">
-        <v>39.928906729634008</v>
+        <v>37.9</v>
       </c>
       <c r="AD8" s="3">
-        <v>39.966782451997794</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>39</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>32.74410423452769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1217,42 +1243,33 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="3">
-        <v>29.532640120210367</v>
-      </c>
-      <c r="T9" s="3">
-        <v>31.247321341759847</v>
-      </c>
-      <c r="U9" s="3">
-        <v>33.100734618916448</v>
-      </c>
-      <c r="V9" s="3">
-        <v>34.760346320346329</v>
-      </c>
-      <c r="W9" s="3">
-        <v>35.506662866913658</v>
-      </c>
-      <c r="X9" s="3">
-        <v>35.525330578512403</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>36.127578818487905</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>35.044297520661154</v>
-      </c>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
       <c r="AA9" s="3">
-        <v>35.901818181818186</v>
-      </c>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
+        <v>39.916861361314886</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>41.411693190355848</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>41.6</v>
+      </c>
       <c r="AD9" s="3">
-        <v>32.74410423452769</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>48.2</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>40.992203069657613</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1264,14 +1281,24 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="L10" s="3">
+        <v>21.945123966942148</v>
+      </c>
+      <c r="M10" s="3">
+        <v>21.738585858585861</v>
+      </c>
+      <c r="N10" s="3">
+        <v>22.297090909090912</v>
+      </c>
+      <c r="O10" s="3">
+        <v>22.216709241172051</v>
+      </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
+      <c r="S10" s="3">
+        <v>22.857752066115705</v>
+      </c>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
@@ -1279,22 +1306,17 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
-      <c r="AA10" s="3">
-        <v>39.916861361314886</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>41.411693190355848</v>
-      </c>
-      <c r="AC10" s="3">
-        <v>40.686350587211834</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>40.992203069657613</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3">
+        <v>22.265387205387199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1306,27 +1328,25 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3">
-        <v>21.945123966942148</v>
-      </c>
-      <c r="M11" s="3">
-        <v>21.738585858585861</v>
-      </c>
-      <c r="N11" s="3">
-        <v>22.297090909090912</v>
-      </c>
-      <c r="O11" s="3">
-        <v>22.216709241172051</v>
-      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3">
-        <v>22.857752066115705</v>
-      </c>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
+        <v>25.884691298006807</v>
+      </c>
+      <c r="T11" s="3">
+        <v>27.923336183148091</v>
+      </c>
+      <c r="U11" s="3">
+        <v>32.438264462809919</v>
+      </c>
+      <c r="V11" s="3">
+        <v>33.013623314484562</v>
+      </c>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
@@ -1334,13 +1354,14 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-      <c r="AD11" s="3">
-        <v>22.265387205387199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3">
+        <v>28.489045441172522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1360,16 +1381,16 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3">
-        <v>25.884691298006807</v>
+        <v>24.647804163615447</v>
       </c>
       <c r="T12" s="3">
-        <v>27.923336183148091</v>
+        <v>27.330371090584993</v>
       </c>
       <c r="U12" s="3">
-        <v>32.438264462809919</v>
+        <v>30.984545454545451</v>
       </c>
       <c r="V12" s="3">
-        <v>33.013623314484562</v>
+        <v>32.014876033057853</v>
       </c>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
@@ -1378,13 +1399,14 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
-      <c r="AD12" s="3">
-        <v>28.489045441172522</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3">
+        <v>26.688831467726732</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1403,32 +1425,41 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
-      <c r="S13" s="3">
-        <v>24.647804163615447</v>
-      </c>
+      <c r="S13" s="3"/>
       <c r="T13" s="3">
-        <v>27.330371090584993</v>
+        <v>26.300127929355803</v>
       </c>
       <c r="U13" s="3">
-        <v>30.984545454545451</v>
+        <v>30.784335960023057</v>
       </c>
       <c r="V13" s="3">
-        <v>32.014876033057853</v>
-      </c>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
+        <v>34.101230486685033</v>
+      </c>
+      <c r="W13" s="3">
+        <v>32.648801652892558</v>
+      </c>
+      <c r="X13" s="3">
+        <v>31.981720232629325</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>31.723565525383709</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>33.525747558226897</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>36.823884297520664</v>
+      </c>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
-      <c r="AD13" s="3">
-        <v>26.688831467726732</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3">
+        <v>29.263330863493852</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1438,49 +1469,48 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
+      <c r="J14" s="3">
+        <v>22.628099173553721</v>
+      </c>
+      <c r="K14" s="3">
+        <v>23.758692712246432</v>
+      </c>
+      <c r="L14" s="3">
+        <v>22.622100145843461</v>
+      </c>
+      <c r="M14" s="3">
+        <v>22.455909090909081</v>
+      </c>
+      <c r="N14" s="3">
+        <v>22.545075193063269</v>
+      </c>
+      <c r="O14" s="3">
+        <v>22.242122314049585</v>
+      </c>
+      <c r="P14" s="3">
+        <v>20.931487603305783</v>
+      </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="3">
-        <v>26.300127929355803</v>
-      </c>
-      <c r="U14" s="3">
-        <v>30.784335960023057</v>
-      </c>
-      <c r="V14" s="3">
-        <v>34.101230486685033</v>
-      </c>
-      <c r="W14" s="3">
-        <v>32.648801652892558</v>
-      </c>
-      <c r="X14" s="3">
-        <v>31.981720232629325</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>31.723565525383709</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>33.525747558226897</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>36.823884297520664</v>
-      </c>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
-      <c r="AD14" s="3">
-        <v>29.263330863493852</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3">
+        <v>22.457519404204508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1491,30 +1521,36 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3">
-        <v>22.628099173553721</v>
+        <v>21.574469167196444</v>
       </c>
       <c r="K15" s="3">
-        <v>23.758692712246432</v>
+        <v>21.530798898071627</v>
       </c>
       <c r="L15" s="3">
-        <v>22.622100145843461</v>
+        <v>21.895182124273035</v>
       </c>
       <c r="M15" s="3">
-        <v>22.455909090909081</v>
+        <v>21.743198833252308</v>
       </c>
       <c r="N15" s="3">
-        <v>22.545075193063269</v>
+        <v>21.776788665879572</v>
       </c>
       <c r="O15" s="3">
-        <v>22.242122314049585</v>
+        <v>21.513071625344352</v>
       </c>
       <c r="P15" s="3">
-        <v>20.931487603305783</v>
-      </c>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+        <v>21.807091442282061</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>21.807122464312542</v>
+      </c>
+      <c r="R15" s="3">
+        <v>22.022644628099172</v>
+      </c>
       <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
+      <c r="T15" s="3">
+        <v>21.177107438016527</v>
+      </c>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
@@ -1524,13 +1560,14 @@
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
-      <c r="AD15" s="3">
-        <v>22.457519404204508</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3">
+        <v>21.695264027838189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1540,53 +1577,52 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3">
-        <v>21.574469167196444</v>
-      </c>
-      <c r="K16" s="3">
-        <v>21.530798898071627</v>
-      </c>
-      <c r="L16" s="3">
-        <v>21.895182124273035</v>
-      </c>
-      <c r="M16" s="3">
-        <v>21.743198833252308</v>
-      </c>
-      <c r="N16" s="3">
-        <v>21.776788665879572</v>
-      </c>
-      <c r="O16" s="3">
-        <v>21.513071625344352</v>
-      </c>
-      <c r="P16" s="3">
-        <v>21.807091442282061</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>21.807122464312542</v>
-      </c>
-      <c r="R16" s="3">
-        <v>22.022644628099172</v>
-      </c>
-      <c r="S16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3">
+        <v>31.338946871310501</v>
+      </c>
       <c r="T16" s="3">
-        <v>21.177107438016527</v>
-      </c>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
+        <v>36.100203432930705</v>
+      </c>
+      <c r="U16" s="3">
+        <v>37.292654545454546</v>
+      </c>
+      <c r="V16" s="3">
+        <v>40.73115702479339</v>
+      </c>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
+      <c r="Z16" s="3">
+        <v>41.043801652892569</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>41.022975206611576</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>40.266446280991737</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>45.3</v>
+      </c>
       <c r="AD16" s="3">
-        <v>21.695264027838189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30">
+        <v>44.4</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>35.228405895884805</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1605,38 +1641,37 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
-      <c r="S17" s="3">
-        <v>31.338946871310501</v>
-      </c>
-      <c r="T17" s="3">
-        <v>36.100203432930705</v>
-      </c>
-      <c r="U17" s="3">
-        <v>37.292654545454546</v>
-      </c>
-      <c r="V17" s="3">
-        <v>40.73115702479339</v>
-      </c>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
+      <c r="X17" s="3">
+        <v>34.114528925619837</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>33.843129945489721</v>
+      </c>
       <c r="Z17" s="3">
-        <v>41.043801652892569</v>
+        <v>34.862265435099665</v>
       </c>
       <c r="AA17" s="3">
-        <v>41.022975206611576</v>
+        <v>35.229044239183274</v>
       </c>
       <c r="AB17" s="3">
-        <v>40.266446280991737</v>
-      </c>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3">
-        <v>35.228405895884805</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30">
+        <v>35.440150262960181</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3">
+        <v>34.850789210789223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1646,11 +1681,21 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="J18" s="3">
+        <v>23.17853443526171</v>
+      </c>
+      <c r="K18" s="3">
+        <v>22.877454545454551</v>
+      </c>
+      <c r="L18" s="3">
+        <v>22.265732231404957</v>
+      </c>
+      <c r="M18" s="3">
+        <v>22.29454545454546</v>
+      </c>
+      <c r="N18" s="3">
+        <v>21.197685950413224</v>
+      </c>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -1660,31 +1705,20 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
-      <c r="X18" s="3">
-        <v>34.114528925619837</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>33.843129945489721</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>34.862265435099665</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>35.229044239183274</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>35.440150262960181</v>
-      </c>
-      <c r="AC18" s="3">
-        <v>35.208705234159787</v>
-      </c>
-      <c r="AD18" s="3">
-        <v>34.850789210789223</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30">
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3">
+        <v>22.576262850231807</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1694,29 +1728,27 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="3">
-        <v>23.17853443526171</v>
-      </c>
-      <c r="K19" s="3">
-        <v>22.877454545454551</v>
-      </c>
-      <c r="L19" s="3">
-        <v>22.265732231404957</v>
-      </c>
-      <c r="M19" s="3">
-        <v>22.29454545454546</v>
-      </c>
-      <c r="N19" s="3">
-        <v>21.197685950413224</v>
-      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
+      <c r="S19" s="3">
+        <v>29.33541004450095</v>
+      </c>
+      <c r="T19" s="3">
+        <v>31.274809917355377</v>
+      </c>
+      <c r="U19" s="3">
+        <v>32.991286894923256</v>
+      </c>
+      <c r="V19" s="3">
+        <v>30.459684447783626</v>
+      </c>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
@@ -1724,13 +1756,14 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-      <c r="AD19" s="3">
-        <v>22.576262850231807</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3">
+        <v>31.125576081672339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1749,32 +1782,33 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
-      <c r="S20" s="3">
-        <v>29.33541004450095</v>
-      </c>
-      <c r="T20" s="3">
-        <v>31.274809917355377</v>
-      </c>
-      <c r="U20" s="3">
-        <v>32.991286894923256</v>
-      </c>
-      <c r="V20" s="3">
-        <v>30.459684447783626</v>
-      </c>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
+      <c r="AA20" s="3">
+        <v>37.171900826446283</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>38.195930464519805</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>37.9</v>
+      </c>
       <c r="AD20" s="3">
-        <v>31.125576081672339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>37.702936639118462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1793,30 +1827,29 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
+      <c r="S21" s="3">
+        <v>25.963365214968885</v>
+      </c>
+      <c r="T21" s="3">
+        <v>27.572184179456897</v>
+      </c>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
-      <c r="AA21" s="3">
-        <v>37.171900826446283</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>38.195930464519805</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>37.307231404958678</v>
-      </c>
-      <c r="AD21" s="3">
-        <v>37.702936639118462</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30">
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3">
+        <v>26.534612528446516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1836,13 +1869,17 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3">
-        <v>25.963365214968885</v>
+        <v>28.794953168044078</v>
       </c>
       <c r="T22" s="3">
-        <v>27.572184179456897</v>
-      </c>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
+        <v>29.320779220779226</v>
+      </c>
+      <c r="U22" s="3">
+        <v>28.594876033057854</v>
+      </c>
+      <c r="V22" s="3">
+        <v>26.545454545454547</v>
+      </c>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
@@ -1850,13 +1887,14 @@
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
-      <c r="AD22" s="3">
-        <v>26.534612528446516</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30">
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3">
+        <v>28.903608815426999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1875,32 +1913,43 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
-      <c r="S23" s="3">
-        <v>28.794953168044078</v>
-      </c>
-      <c r="T23" s="3">
-        <v>29.320779220779226</v>
-      </c>
-      <c r="U23" s="3">
-        <v>28.594876033057854</v>
-      </c>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
       <c r="V23" s="3">
-        <v>26.545454545454547</v>
-      </c>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
+        <v>37.991912632821723</v>
+      </c>
+      <c r="W23" s="3">
+        <v>38.424204357625847</v>
+      </c>
+      <c r="X23" s="3">
+        <v>38.713844942935843</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>38.854120425029521</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>39.801725619834713</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>39.308561983471087</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>38.132834224598938</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>37.1</v>
+      </c>
       <c r="AD23" s="3">
-        <v>28.903608815426999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30">
+        <v>37.5</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>38.822184462809929</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1919,40 +1968,29 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
+      <c r="S24" s="3">
+        <v>27.048545454545451</v>
+      </c>
+      <c r="T24" s="3">
+        <v>26.970842975206608</v>
+      </c>
       <c r="U24" s="3"/>
-      <c r="V24" s="3">
-        <v>37.991912632821723</v>
-      </c>
-      <c r="W24" s="3">
-        <v>38.424204357625847</v>
-      </c>
-      <c r="X24" s="3">
-        <v>38.713844942935843</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>38.854120425029521</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>39.801725619834713</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>39.308561983471087</v>
-      </c>
-      <c r="AB24" s="3">
-        <v>38.132834224598938</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>36.717575757575759</v>
-      </c>
-      <c r="AD24" s="3">
-        <v>38.822184462809929</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30">
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3">
+        <v>27.03300495867769</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1972,27 +2010,40 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3">
-        <v>27.048545454545451</v>
+        <v>27.681493725130082</v>
       </c>
       <c r="T25" s="3">
-        <v>26.970842975206608</v>
-      </c>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
+        <v>30.160850933578192</v>
+      </c>
+      <c r="U25" s="3">
+        <v>32.562946460653976</v>
+      </c>
+      <c r="V25" s="3">
+        <v>33.057581879400068</v>
+      </c>
+      <c r="W25" s="3">
+        <v>34.095165289256194</v>
+      </c>
+      <c r="X25" s="3">
+        <v>33.853640713353634</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>34.222909090909091</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>33.774545454545461</v>
+      </c>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
-      <c r="AD25" s="3">
-        <v>27.03300495867769</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30">
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3">
+        <v>31.015537190082657</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2011,40 +2062,33 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
-      <c r="S26" s="3">
-        <v>27.681493725130082</v>
-      </c>
-      <c r="T26" s="3">
-        <v>30.160850933578192</v>
-      </c>
-      <c r="U26" s="3">
-        <v>32.562946460653976</v>
-      </c>
-      <c r="V26" s="3">
-        <v>33.057581879400068</v>
-      </c>
-      <c r="W26" s="3">
-        <v>34.095165289256194</v>
-      </c>
-      <c r="X26" s="3">
-        <v>33.853640713353634</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>34.222909090909091</v>
-      </c>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
       <c r="Z26" s="3">
-        <v>33.774545454545461</v>
-      </c>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3">
-        <v>31.015537190082657</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30">
+        <v>34.2038406537283</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>34.771215714456822</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>35.718299881936261</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3">
+        <v>34.721159491797209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2063,32 +2107,35 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
+      <c r="S27" s="3">
+        <v>24.717293388429749</v>
+      </c>
+      <c r="T27" s="3">
+        <v>25.919386068476982</v>
+      </c>
+      <c r="U27" s="3">
+        <v>30.453936494127891</v>
+      </c>
+      <c r="V27" s="3">
+        <v>30.983057851239671</v>
+      </c>
+      <c r="W27" s="3">
+        <v>32.044297520661154</v>
+      </c>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
-      <c r="Z27" s="3">
-        <v>34.2038406537283</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>34.771215714456822</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>35.718299881936261</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>35.428760330578513</v>
-      </c>
-      <c r="AD27" s="3">
-        <v>34.721159491797209</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30">
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3">
+        <v>26.994137741046831</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2098,69 +2145,84 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+      <c r="J28" s="3">
+        <v>24.074624879252983</v>
+      </c>
+      <c r="K28" s="3">
+        <v>23.76557162534435</v>
+      </c>
+      <c r="L28" s="3">
+        <v>24.459504132231405</v>
+      </c>
+      <c r="M28" s="3">
+        <v>23.957685950413218</v>
+      </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
-      <c r="S28" s="3">
-        <v>24.717293388429749</v>
-      </c>
-      <c r="T28" s="3">
-        <v>25.919386068476982</v>
-      </c>
-      <c r="U28" s="3">
-        <v>30.453936494127891</v>
-      </c>
-      <c r="V28" s="3">
-        <v>30.983057851239671</v>
-      </c>
-      <c r="W28" s="3">
-        <v>32.044297520661154</v>
-      </c>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
-      <c r="AD28" s="3">
-        <v>26.994137741046831</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30">
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3">
+        <v>24.018188258022981</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="F29" s="3">
+        <v>22.931167620258535</v>
+      </c>
+      <c r="G29" s="3">
+        <v>23.275538270404592</v>
+      </c>
+      <c r="H29" s="3">
+        <v>24.047128997484741</v>
+      </c>
+      <c r="I29" s="3">
+        <v>24.689064810787308</v>
+      </c>
       <c r="J29" s="3">
-        <v>24.074624879252983</v>
+        <v>24.810429116338216</v>
       </c>
       <c r="K29" s="3">
-        <v>23.76557162534435</v>
+        <v>25.226289691170081</v>
       </c>
       <c r="L29" s="3">
-        <v>24.459504132231405</v>
+        <v>25.588544735896516</v>
       </c>
       <c r="M29" s="3">
-        <v>23.957685950413218</v>
-      </c>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
+        <v>25.453125911521639</v>
+      </c>
+      <c r="N29" s="3">
+        <v>24.982075298438936</v>
+      </c>
+      <c r="O29" s="3">
+        <v>24.662689706987226</v>
+      </c>
+      <c r="P29" s="3">
+        <v>24.991633820724733</v>
+      </c>
       <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
+      <c r="R29" s="3">
+        <v>25.62710743801653</v>
+      </c>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
@@ -2172,57 +2234,48 @@
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
-      <c r="AD29" s="3">
-        <v>24.018188258022981</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30">
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3">
+        <v>24.101257730830341</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="3">
-        <v>22.931167620258535</v>
-      </c>
-      <c r="G30" s="3">
-        <v>23.275538270404592</v>
-      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
       <c r="H30" s="3">
-        <v>24.047128997484741</v>
+        <v>28.090656295576078</v>
       </c>
       <c r="I30" s="3">
-        <v>24.689064810787308</v>
+        <v>27.118989898989895</v>
       </c>
       <c r="J30" s="3">
-        <v>24.810429116338216</v>
+        <v>27.157494949494946</v>
       </c>
       <c r="K30" s="3">
-        <v>25.226289691170081</v>
+        <v>27.491435950413219</v>
       </c>
       <c r="L30" s="3">
-        <v>25.588544735896516</v>
-      </c>
-      <c r="M30" s="3">
-        <v>25.453125911521639</v>
-      </c>
-      <c r="N30" s="3">
-        <v>24.982075298438936</v>
-      </c>
-      <c r="O30" s="3">
-        <v>24.662689706987226</v>
-      </c>
-      <c r="P30" s="3">
-        <v>24.991633820724733</v>
-      </c>
+        <v>27.301454545454543</v>
+      </c>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
-      <c r="R30" s="3">
-        <v>25.62710743801653</v>
-      </c>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3">
+        <v>24.611932310114124</v>
+      </c>
+      <c r="T30" s="3">
+        <v>25.664649658641757</v>
+      </c>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
@@ -2232,13 +2285,14 @@
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
-      <c r="AD30" s="3">
-        <v>24.101257730830341</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30">
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3">
+        <v>26.82194778362134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2246,49 +2300,62 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="3">
-        <v>28.090656295576078</v>
-      </c>
-      <c r="I31" s="3">
-        <v>27.118989898989895</v>
-      </c>
-      <c r="J31" s="3">
-        <v>27.157494949494946</v>
-      </c>
-      <c r="K31" s="3">
-        <v>27.491435950413219</v>
-      </c>
-      <c r="L31" s="3">
-        <v>27.301454545454543</v>
-      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
+      <c r="O31" s="3">
+        <v>33.113719008264461</v>
+      </c>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3">
-        <v>24.611932310114124</v>
+        <v>32.502076194315656</v>
       </c>
       <c r="T31" s="3">
-        <v>25.664649658641757</v>
-      </c>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3"/>
+        <v>34.689026629935711</v>
+      </c>
+      <c r="U31" s="3">
+        <v>38.960851875397346</v>
+      </c>
+      <c r="V31" s="3">
+        <v>41.404132231404958</v>
+      </c>
+      <c r="W31" s="3">
+        <v>41.165516528925615</v>
+      </c>
+      <c r="X31" s="3">
+        <v>41.567537190082646</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>41.530807374443739</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>41.720962989579576</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>42.113657505285424</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>43.634311294765837</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>46.6</v>
+      </c>
       <c r="AD31" s="3">
-        <v>26.82194778362134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30">
+        <v>48.7</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>39.157040661157033</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
       <c r="A32" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2303,50 +2370,51 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="3">
-        <v>33.113719008264461</v>
-      </c>
+      <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3">
-        <v>32.502076194315656</v>
+        <v>31.79126328217237</v>
       </c>
       <c r="T32" s="3">
-        <v>34.689026629935711</v>
+        <v>34.217460555972956</v>
       </c>
       <c r="U32" s="3">
-        <v>38.960851875397346</v>
+        <v>37.852892561983474</v>
       </c>
       <c r="V32" s="3">
-        <v>41.404132231404958</v>
+        <v>40.757685950413226</v>
       </c>
       <c r="W32" s="3">
-        <v>41.165516528925615</v>
+        <v>39.661074380165289</v>
       </c>
       <c r="X32" s="3">
-        <v>41.567537190082646</v>
+        <v>40.364033057851245</v>
       </c>
       <c r="Y32" s="3">
-        <v>41.530807374443739</v>
+        <v>40.283884297520665</v>
       </c>
       <c r="Z32" s="3">
-        <v>41.720962989579576</v>
+        <v>40.169445100354196</v>
       </c>
       <c r="AA32" s="3">
-        <v>42.113657505285424</v>
+        <v>40.291164108618659</v>
       </c>
       <c r="AB32" s="3">
-        <v>43.634311294765837</v>
+        <v>40.705280321643954</v>
       </c>
       <c r="AC32" s="3">
-        <v>45.871460055096428</v>
+        <v>43</v>
       </c>
       <c r="AD32" s="3">
-        <v>39.157040661157033</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30">
+        <v>44.7</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>39.198998864125969</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -2382,13 +2450,16 @@
         <v>45.232303970973604</v>
       </c>
       <c r="AC33" s="3">
-        <v>44.951157024793389</v>
+        <v>44.7</v>
       </c>
       <c r="AD33" s="3">
+        <v>46.3</v>
+      </c>
+      <c r="AE33" s="3">
         <v>45.217067508589487</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:31">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -2432,11 +2503,12 @@
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
-      <c r="AD34" s="3">
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3">
         <v>32.845619834710746</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:31">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -2488,13 +2560,14 @@
         <v>45.787582644628102</v>
       </c>
       <c r="AC35" s="3">
-        <v>46.566391184573</v>
-      </c>
-      <c r="AD35" s="3">
+        <v>46.5</v>
+      </c>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3">
         <v>41.867984861357861</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:31">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -2532,13 +2605,14 @@
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
-      <c r="AD36" s="3">
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3">
         <v>25.631087603305783</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:31">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2563,28 +2637,24 @@
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
-      <c r="Y37" s="3">
-        <v>36.834214876033059</v>
-      </c>
-      <c r="Z37" s="3">
-        <v>37.243801652892564</v>
-      </c>
-      <c r="AA37" s="3">
-        <v>37.855305785123974</v>
-      </c>
-      <c r="AB37" s="3">
-        <v>37.721057851239671</v>
-      </c>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
       <c r="AC37" s="3">
-        <v>37.225371900826445</v>
+        <v>46.3</v>
       </c>
       <c r="AD37" s="3">
-        <v>37.506535093129379</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30">
+        <v>46.9</v>
+      </c>
+      <c r="AE37" s="3">
+        <f>AVERAGE(AC37:AD37)</f>
+        <v>46.599999999999994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31">
       <c r="A38" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2610,27 +2680,30 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3">
-        <v>43.387423643550143</v>
+        <v>36.834214876033059</v>
       </c>
       <c r="Z38" s="3">
-        <v>43.809247498912562</v>
+        <v>37.243801652892564</v>
       </c>
       <c r="AA38" s="3">
-        <v>41.649076741440375</v>
+        <v>37.855305785123974</v>
       </c>
       <c r="AB38" s="3">
-        <v>41.423471074380167</v>
+        <v>37.721057851239671</v>
       </c>
       <c r="AC38" s="3">
-        <v>41.049380165289257</v>
+        <v>37.6</v>
       </c>
       <c r="AD38" s="3">
-        <v>42.759530482692526</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="AE38" s="3">
+        <v>37.506535093129379</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2653,34 +2726,33 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-      <c r="W39" s="3">
-        <v>34.736859504132234</v>
-      </c>
-      <c r="X39" s="3">
-        <v>34.037045454545456</v>
-      </c>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
       <c r="Y39" s="3">
-        <v>34.425454545454549</v>
+        <v>43.387423643550143</v>
       </c>
       <c r="Z39" s="3">
-        <v>35.669106650924839</v>
+        <v>43.809247498912562</v>
       </c>
       <c r="AA39" s="3">
-        <v>35.770456075910616</v>
+        <v>41.649076741440375</v>
       </c>
       <c r="AB39" s="3">
-        <v>36.507785993910396</v>
+        <v>41.423471074380167</v>
       </c>
       <c r="AC39" s="3">
-        <v>39.057719008264471</v>
+        <v>40.4</v>
       </c>
       <c r="AD39" s="3">
-        <v>35.579191919191913</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30">
+        <v>39.5</v>
+      </c>
+      <c r="AE39" s="3">
+        <v>42.759530482692526</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2689,34 +2761,18 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="3">
-        <v>30.862148760330577</v>
-      </c>
-      <c r="J40" s="3">
-        <v>32.144793388429754</v>
-      </c>
-      <c r="K40" s="3">
-        <v>33.03500056605909</v>
-      </c>
-      <c r="L40" s="3">
-        <v>34.135147779801088</v>
-      </c>
-      <c r="M40" s="3">
-        <v>32.31922464312548</v>
-      </c>
-      <c r="N40" s="3">
-        <v>28.653730027548207</v>
-      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-      <c r="S40" s="3">
-        <v>21.190082644628099</v>
-      </c>
-      <c r="T40" s="3">
-        <v>22.257851239669421</v>
-      </c>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
@@ -2725,74 +2781,73 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-      <c r="AC40" s="3"/>
+      <c r="AC40" s="3">
+        <v>45.4</v>
+      </c>
       <c r="AD40" s="3">
-        <v>32.98059824842727</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30">
+        <v>45.7</v>
+      </c>
+      <c r="AE40" s="3">
+        <f>AVERAGE(AC40:AD40)</f>
+        <v>45.55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B41" s="3"/>
-      <c r="C41" s="3">
-        <v>23.241652892561984</v>
-      </c>
+      <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="3">
-        <v>25.000624082799099</v>
-      </c>
-      <c r="I41" s="3">
-        <v>25.242714558169112</v>
-      </c>
-      <c r="J41" s="3">
-        <v>25.155096418732782</v>
-      </c>
-      <c r="K41" s="3">
-        <v>24.828044077134987</v>
-      </c>
-      <c r="L41" s="3">
-        <v>25.219310344827583</v>
-      </c>
-      <c r="M41" s="3">
-        <v>24.881339712918663</v>
-      </c>
-      <c r="N41" s="3">
-        <v>25.389930069930067</v>
-      </c>
-      <c r="O41" s="3">
-        <v>25.619037433155075</v>
-      </c>
-      <c r="P41" s="3">
-        <v>26.312780165289254</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>25.922975206611568</v>
-      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
-      <c r="S41" s="3">
-        <v>28.12136363636364</v>
-      </c>
+      <c r="S41" s="3"/>
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AC41" s="3"/>
+      <c r="W41" s="3">
+        <v>34.736859504132234</v>
+      </c>
+      <c r="X41" s="3">
+        <v>34.037045454545456</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>34.425454545454549</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>35.669106650924839</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>35.770456075910616</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>36.507785993910396</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>38.9</v>
+      </c>
       <c r="AD41" s="3">
-        <v>25.297991064194271</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30">
+        <v>36.9</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>35.579191919191913</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
       <c r="A42" s="2" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2802,33 +2857,33 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3">
-        <v>24.170106257378983</v>
+        <v>30.862148760330577</v>
       </c>
       <c r="J42" s="3">
-        <v>24.060140495867767</v>
+        <v>32.144793388429754</v>
       </c>
       <c r="K42" s="3">
-        <v>24.032684153790875</v>
+        <v>33.03500056605909</v>
       </c>
       <c r="L42" s="3">
-        <v>24.350582185491273</v>
+        <v>34.135147779801088</v>
       </c>
       <c r="M42" s="3">
-        <v>24.168639118457303</v>
+        <v>32.31922464312548</v>
       </c>
       <c r="N42" s="3">
-        <v>24.160153482880759</v>
-      </c>
-      <c r="O42" s="3">
-        <v>25.021397445529676</v>
-      </c>
-      <c r="P42" s="3">
-        <v>25.395319704219229</v>
-      </c>
+        <v>28.653730027548207</v>
+      </c>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
+      <c r="S42" s="3">
+        <v>21.190082644628099</v>
+      </c>
+      <c r="T42" s="3">
+        <v>22.257851239669421</v>
+      </c>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
@@ -2838,63 +2893,75 @@
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
-      <c r="AD42" s="3">
-        <v>24.378142092008638</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30">
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3">
+        <v>32.98059824842727</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31">
       <c r="A43" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+      <c r="C43" s="3">
+        <v>23.241652892561984</v>
+      </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
+      <c r="H43" s="3">
+        <v>25.000624082799099</v>
+      </c>
+      <c r="I43" s="3">
+        <v>25.242714558169112</v>
+      </c>
+      <c r="J43" s="3">
+        <v>25.155096418732782</v>
+      </c>
+      <c r="K43" s="3">
+        <v>24.828044077134987</v>
+      </c>
+      <c r="L43" s="3">
+        <v>25.219310344827583</v>
+      </c>
+      <c r="M43" s="3">
+        <v>24.881339712918663</v>
+      </c>
+      <c r="N43" s="3">
+        <v>25.389930069930067</v>
+      </c>
+      <c r="O43" s="3">
+        <v>25.619037433155075</v>
+      </c>
+      <c r="P43" s="3">
+        <v>26.312780165289254</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>25.922975206611568</v>
+      </c>
       <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
+      <c r="S43" s="3">
+        <v>28.12136363636364</v>
+      </c>
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
-      <c r="W43" s="3">
-        <v>38.307193542187186</v>
-      </c>
-      <c r="X43" s="3">
-        <v>39.026623905267066</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>38.824910063198821</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>39.891727132651638</v>
-      </c>
-      <c r="AA43" s="3">
-        <v>41.99315289256198</v>
-      </c>
-      <c r="AB43" s="3">
-        <v>42.620132639526574</v>
-      </c>
-      <c r="AC43" s="3">
-        <v>44.211103240194149</v>
-      </c>
-      <c r="AD43" s="3">
-        <v>40.418343254068866</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30">
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3">
+        <v>25.297991064194271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31">
       <c r="A44" s="2" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2903,112 +2970,104 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
+      <c r="I44" s="3">
+        <v>24.170106257378983</v>
+      </c>
+      <c r="J44" s="3">
+        <v>24.060140495867767</v>
+      </c>
+      <c r="K44" s="3">
+        <v>24.032684153790875</v>
+      </c>
+      <c r="L44" s="3">
+        <v>24.350582185491273</v>
+      </c>
+      <c r="M44" s="3">
+        <v>24.168639118457303</v>
+      </c>
+      <c r="N44" s="3">
+        <v>24.160153482880759</v>
+      </c>
+      <c r="O44" s="3">
+        <v>25.021397445529676</v>
+      </c>
+      <c r="P44" s="3">
+        <v>25.395319704219229</v>
+      </c>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
-      <c r="S44" s="3">
-        <v>30.763801652892564</v>
-      </c>
-      <c r="T44" s="3">
-        <v>31.255658726300446</v>
-      </c>
-      <c r="U44" s="3">
-        <v>33.107190082644635</v>
-      </c>
-      <c r="V44" s="3">
-        <v>35.445685950413221</v>
-      </c>
-      <c r="W44" s="3">
-        <v>35.633608815427003</v>
-      </c>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
       <c r="X44" s="3"/>
-      <c r="Y44" s="3">
-        <v>35.685289256198345</v>
-      </c>
-      <c r="Z44" s="3">
-        <v>34.921239669421489</v>
-      </c>
-      <c r="AA44" s="3">
-        <v>36.14413223140496</v>
-      </c>
-      <c r="AB44" s="3">
-        <v>35.08793388429752</v>
-      </c>
-      <c r="AC44" s="3">
-        <v>35.703933884297527</v>
-      </c>
-      <c r="AD44" s="3">
-        <v>32.887618219101476</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30">
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3">
+        <v>24.378142092008638</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31">
       <c r="A45" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="3">
-        <v>29.909403687221864</v>
-      </c>
-      <c r="C45" s="3">
-        <v>29.884488636363624</v>
-      </c>
-      <c r="D45" s="3">
-        <v>30.378404827495743</v>
-      </c>
-      <c r="E45" s="3">
-        <v>30.697321639399558</v>
-      </c>
-      <c r="F45" s="3">
-        <v>30.795757996340942</v>
-      </c>
-      <c r="G45" s="3">
-        <v>30.669269362978131</v>
-      </c>
-      <c r="H45" s="3">
-        <v>31.475724815724831</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
-      <c r="M45" s="3">
-        <v>31.673719008264463</v>
-      </c>
-      <c r="N45" s="3">
-        <v>32.688264462809919</v>
-      </c>
-      <c r="O45" s="3">
-        <v>31.390082644628098</v>
-      </c>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
       <c r="P45" s="3"/>
-      <c r="Q45" s="3">
-        <v>33.913719008264465</v>
-      </c>
+      <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
-      <c r="AA45" s="3"/>
-      <c r="AB45" s="3"/>
-      <c r="AC45" s="3"/>
+      <c r="W45" s="3">
+        <v>38.307193542187186</v>
+      </c>
+      <c r="X45" s="3">
+        <v>39.026623905267066</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>38.824910063198821</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>39.891727132651638</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>41.99315289256198</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>42.620132639526574</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>43.2</v>
+      </c>
       <c r="AD45" s="3">
-        <v>30.482829242218632</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30">
+        <v>41.7</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>40.418343254068866</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31">
       <c r="A46" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3028,46 +3087,85 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3">
-        <v>30.089404807036168</v>
-      </c>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
+        <v>30.763801652892564</v>
+      </c>
+      <c r="T46" s="3">
+        <v>31.255658726300446</v>
+      </c>
+      <c r="U46" s="3">
+        <v>33.107190082644635</v>
+      </c>
+      <c r="V46" s="3">
+        <v>35.445685950413221</v>
+      </c>
+      <c r="W46" s="3">
+        <v>35.633608815427003</v>
+      </c>
       <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-      <c r="AA46" s="3"/>
-      <c r="AB46" s="3"/>
-      <c r="AC46" s="3"/>
-      <c r="AD46" s="3">
-        <v>30.089404807036168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30">
+      <c r="Y46" s="3">
+        <v>35.685289256198345</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>34.921239669421489</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>36.14413223140496</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>35.08793388429752</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>35.703933884297527</v>
+      </c>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3">
+        <v>32.887618219101476</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31">
       <c r="A47" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="B47" s="3">
+        <v>29.909403687221864</v>
+      </c>
+      <c r="C47" s="3">
+        <v>29.884488636363624</v>
+      </c>
+      <c r="D47" s="3">
+        <v>30.378404827495743</v>
+      </c>
+      <c r="E47" s="3">
+        <v>30.697321639399558</v>
+      </c>
+      <c r="F47" s="3">
+        <v>30.795757996340942</v>
+      </c>
+      <c r="G47" s="3">
+        <v>30.669269362978131</v>
+      </c>
+      <c r="H47" s="3">
+        <v>31.475724815724831</v>
+      </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
+      <c r="M47" s="3">
+        <v>31.673719008264463</v>
+      </c>
+      <c r="N47" s="3">
+        <v>32.688264462809919</v>
+      </c>
+      <c r="O47" s="3">
+        <v>31.390082644628098</v>
+      </c>
       <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
+      <c r="Q47" s="3">
+        <v>33.913719008264465</v>
+      </c>
       <c r="R47" s="3"/>
-      <c r="S47" s="3">
-        <v>23.109902329075883</v>
-      </c>
+      <c r="S47" s="3"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
@@ -3078,13 +3176,14 @@
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
       <c r="AC47" s="3"/>
-      <c r="AD47" s="3">
-        <v>23.109902329075883</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30">
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3">
+        <v>30.482829242218632</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31">
       <c r="A48" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3103,7 +3202,9 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
+      <c r="S48" s="3">
+        <v>30.089404807036168</v>
+      </c>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
@@ -3113,16 +3214,15 @@
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
-      <c r="AC48" s="3">
-        <v>45.284638270820096</v>
-      </c>
-      <c r="AD48" s="3">
-        <v>45.284638270820096</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30">
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3">
+        <v>30.089404807036168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31">
       <c r="A49" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -3141,32 +3241,27 @@
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3">
-        <v>32.760914934468651</v>
-      </c>
-      <c r="U49" s="3">
-        <v>36.494198347107435</v>
-      </c>
-      <c r="V49" s="3">
-        <v>35.372966023875122</v>
-      </c>
-      <c r="W49" s="3">
-        <v>35.519669421487606</v>
-      </c>
+      <c r="S49" s="3">
+        <v>23.109902329075883</v>
+      </c>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
-      <c r="AD49" s="3">
-        <v>33.543340380549672</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30">
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3">
+        <v>23.109902329075883</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31">
       <c r="A50" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -3186,9 +3281,7 @@
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
-      <c r="T50" s="3">
-        <v>27.261487603305788</v>
-      </c>
+      <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
@@ -3197,14 +3290,19 @@
       <c r="Z50" s="3"/>
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
-      <c r="AC50" s="3"/>
+      <c r="AC50" s="3">
+        <v>45.5</v>
+      </c>
       <c r="AD50" s="3">
-        <v>27.261487603305788</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30">
-      <c r="A51" s="4" t="s">
-        <v>53</v>
+        <v>47.2</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>45.284638270820096</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31">
+      <c r="A51" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -3224,37 +3322,32 @@
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
-      <c r="V51" s="3"/>
+      <c r="T51" s="3">
+        <v>32.760914934468651</v>
+      </c>
+      <c r="U51" s="3">
+        <v>36.494198347107435</v>
+      </c>
+      <c r="V51" s="3">
+        <v>35.372966023875122</v>
+      </c>
       <c r="W51" s="3">
-        <v>35.994380165289257</v>
-      </c>
-      <c r="X51" s="3">
-        <v>35.451176702085796</v>
-      </c>
-      <c r="Y51" s="3">
-        <v>34.811504132231406</v>
-      </c>
-      <c r="Z51" s="3">
-        <v>35.429340679522497</v>
-      </c>
-      <c r="AA51" s="3">
-        <v>35.691587646802958</v>
-      </c>
-      <c r="AB51" s="3">
-        <v>36.311148591668086</v>
-      </c>
-      <c r="AC51" s="3">
-        <v>36.274071625344355</v>
-      </c>
-      <c r="AD51" s="3">
-        <v>35.731784151677246</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30">
+        <v>35.519669421487606</v>
+      </c>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="3"/>
+      <c r="AC51" s="3"/>
+      <c r="AD51" s="3"/>
+      <c r="AE51" s="3">
+        <v>33.543340380549672</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31">
       <c r="A52" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -3273,15 +3366,11 @@
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
-      <c r="S52" s="3">
-        <v>26.823779614325083</v>
-      </c>
+      <c r="S52" s="3"/>
       <c r="T52" s="3">
-        <v>28.416122786304605</v>
-      </c>
-      <c r="U52" s="3">
-        <v>30.210702479338845</v>
-      </c>
+        <v>27.261487603305788</v>
+      </c>
+      <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
@@ -3290,13 +3379,14 @@
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
       <c r="AC52" s="3"/>
-      <c r="AD52" s="3">
-        <v>27.958401449111292</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30">
-      <c r="A53" s="2" t="s">
-        <v>47</v>
+      <c r="AD52" s="3"/>
+      <c r="AE52" s="3">
+        <v>27.261487603305788</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31">
+      <c r="A53" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -3319,26 +3409,35 @@
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
+      <c r="W53" s="3">
+        <v>35.994380165289257</v>
+      </c>
+      <c r="X53" s="3">
+        <v>35.451176702085796</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>34.811504132231406</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>35.429340679522497</v>
+      </c>
       <c r="AA53" s="3">
-        <v>37.465867768595039</v>
+        <v>35.691587646802958</v>
       </c>
       <c r="AB53" s="3">
-        <v>37.898291309154104</v>
+        <v>36.311148591668086</v>
       </c>
       <c r="AC53" s="3">
-        <v>40.772026761117672</v>
-      </c>
-      <c r="AD53" s="3">
-        <v>38.220372354917821</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="3">
+        <v>35.731784151677246</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31">
       <c r="A54" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -3358,12 +3457,14 @@
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
       <c r="S54" s="3">
-        <v>24.98822096563724</v>
+        <v>26.823779614325083</v>
       </c>
       <c r="T54" s="3">
-        <v>24.832066115702478</v>
-      </c>
-      <c r="U54" s="3"/>
+        <v>28.416122786304605</v>
+      </c>
+      <c r="U54" s="3">
+        <v>30.210702479338845</v>
+      </c>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
@@ -3372,13 +3473,14 @@
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
       <c r="AC54" s="3"/>
-      <c r="AD54" s="3">
-        <v>24.98421699512609</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30">
+      <c r="AD54" s="3"/>
+      <c r="AE54" s="3">
+        <v>27.958401449111292</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31">
       <c r="A55" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -3405,20 +3507,23 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-      <c r="AA55" s="3"/>
+      <c r="AA55" s="3">
+        <v>37.465867768595039</v>
+      </c>
       <c r="AB55" s="3">
-        <v>41.468146399055492</v>
+        <v>37.898291309154104</v>
       </c>
       <c r="AC55" s="3">
-        <v>40.914842975206611</v>
-      </c>
-      <c r="AD55" s="3">
-        <v>41.237603305785122</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30">
+        <v>40.9</v>
+      </c>
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3">
+        <v>38.220372354917821</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31">
       <c r="A56" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -3437,42 +3542,29 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3">
-        <v>36.777245179063364</v>
-      </c>
-      <c r="V56" s="3">
-        <v>36.737736808645906</v>
-      </c>
-      <c r="W56" s="3">
-        <v>36.893013774104688</v>
-      </c>
-      <c r="X56" s="3">
-        <v>36.994159779614328</v>
-      </c>
-      <c r="Y56" s="3">
-        <v>38.187702479338846</v>
-      </c>
-      <c r="Z56" s="3">
-        <v>38.845744918472192</v>
-      </c>
-      <c r="AA56" s="3">
-        <v>42.129158969372874</v>
-      </c>
-      <c r="AB56" s="3">
-        <v>43.242337662337668</v>
-      </c>
-      <c r="AC56" s="3">
-        <v>42.721487603305789</v>
-      </c>
-      <c r="AD56" s="3">
-        <v>39.020940646130732</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30">
+      <c r="S56" s="3">
+        <v>24.98822096563724</v>
+      </c>
+      <c r="T56" s="3">
+        <v>24.832066115702478</v>
+      </c>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3">
+        <v>24.98421699512609</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31">
       <c r="A57" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -3481,33 +3573,15 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="3">
-        <v>21.958567493112948</v>
-      </c>
-      <c r="J57" s="3">
-        <v>21.839810223446587</v>
-      </c>
-      <c r="K57" s="3">
-        <v>22.307367893814174</v>
-      </c>
-      <c r="L57" s="3">
-        <v>22.671949440933393</v>
-      </c>
-      <c r="M57" s="3">
-        <v>22.233929376408717</v>
-      </c>
-      <c r="N57" s="3">
-        <v>22.456318557475583</v>
-      </c>
-      <c r="O57" s="3">
-        <v>22.133401831583647</v>
-      </c>
-      <c r="P57" s="3">
-        <v>22.864005085823269</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>23.216363636363639</v>
-      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
@@ -3518,15 +3592,22 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
       <c r="AA57" s="3"/>
-      <c r="AB57" s="3"/>
-      <c r="AC57" s="3"/>
+      <c r="AB57" s="3">
+        <v>41.468146399055492</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>42.2</v>
+      </c>
       <c r="AD57" s="3">
-        <v>22.195732838589976</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30">
+        <v>44.2</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>41.237603305785122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31">
       <c r="A58" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -3542,27 +3623,138 @@
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
-      <c r="P58" s="3">
-        <v>26.072443919716651</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>26.074939605848691</v>
-      </c>
-      <c r="R58" s="3">
-        <v>26.476716253443524</v>
-      </c>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
-      <c r="W58" s="3"/>
-      <c r="X58" s="3"/>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="3"/>
-      <c r="AA58" s="3"/>
-      <c r="AB58" s="3"/>
-      <c r="AC58" s="3"/>
-      <c r="AD58" s="3">
+      <c r="U58" s="3">
+        <v>36.777245179063364</v>
+      </c>
+      <c r="V58" s="3">
+        <v>36.737736808645906</v>
+      </c>
+      <c r="W58" s="3">
+        <v>36.893013774104688</v>
+      </c>
+      <c r="X58" s="3">
+        <v>36.994159779614328</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>38.187702479338846</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>38.845744918472192</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>42.129158969372874</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>43.242337662337668</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>42.721487603305789</v>
+      </c>
+      <c r="AD58" s="3"/>
+      <c r="AE58" s="3">
+        <v>39.020940646130732</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31">
+      <c r="A59" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3">
+        <v>21.958567493112948</v>
+      </c>
+      <c r="J59" s="3">
+        <v>21.839810223446587</v>
+      </c>
+      <c r="K59" s="3">
+        <v>22.307367893814174</v>
+      </c>
+      <c r="L59" s="3">
+        <v>22.671949440933393</v>
+      </c>
+      <c r="M59" s="3">
+        <v>22.233929376408717</v>
+      </c>
+      <c r="N59" s="3">
+        <v>22.456318557475583</v>
+      </c>
+      <c r="O59" s="3">
+        <v>22.133401831583647</v>
+      </c>
+      <c r="P59" s="3">
+        <v>22.864005085823269</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>23.216363636363639</v>
+      </c>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+      <c r="AB59" s="3"/>
+      <c r="AC59" s="3"/>
+      <c r="AD59" s="3"/>
+      <c r="AE59" s="3">
+        <v>22.195732838589976</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31">
+      <c r="A60" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3">
+        <v>26.072443919716651</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>26.074939605848691</v>
+      </c>
+      <c r="R60" s="3">
+        <v>26.476716253443524</v>
+      </c>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="3"/>
+      <c r="AB60" s="3"/>
+      <c r="AC60" s="3"/>
+      <c r="AD60" s="3"/>
+      <c r="AE60" s="3">
         <v>26.131376350921819</v>
       </c>
     </row>
@@ -3575,10 +3767,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A291CE-127F-CA4C-9089-A163ECEBC382}">
-  <dimension ref="A1:AD58"/>
+  <dimension ref="A1:AE60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AG42" sqref="AG42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3586,7 +3781,7 @@
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>86</v>
       </c>
@@ -3675,12 +3870,15 @@
         <v>83</v>
       </c>
       <c r="AD1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE1" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:31">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3699,46 +3897,41 @@
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
-      <c r="S2" s="6">
-        <v>14</v>
-      </c>
+      <c r="S2" s="6"/>
       <c r="T2" s="6">
-        <v>22</v>
+        <v>399</v>
       </c>
       <c r="U2" s="6">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="V2" s="6">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="W2" s="6">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="X2" s="6">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="Y2" s="6">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="Z2" s="6">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="AA2" s="6">
-        <v>35</v>
-      </c>
-      <c r="AB2" s="6">
-        <v>74</v>
-      </c>
-      <c r="AC2" s="6">
-        <v>16</v>
-      </c>
-      <c r="AD2" s="6">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>72</v>
+      </c>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3758,39 +3951,28 @@
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
-      <c r="T3" s="6">
-        <v>399</v>
-      </c>
-      <c r="U3" s="6">
-        <v>176</v>
-      </c>
-      <c r="V3" s="6">
-        <v>145</v>
-      </c>
-      <c r="W3" s="6">
-        <v>141</v>
-      </c>
-      <c r="X3" s="6">
-        <v>92</v>
-      </c>
-      <c r="Y3" s="6">
-        <v>100</v>
-      </c>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
       <c r="Z3" s="6">
-        <v>139</v>
+        <v>243</v>
       </c>
       <c r="AA3" s="6">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
-      <c r="AD3" s="6">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -3809,28 +3991,33 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
+      <c r="S4" s="6">
+        <v>9</v>
+      </c>
+      <c r="T4" s="6">
+        <v>1</v>
+      </c>
+      <c r="U4" s="6">
+        <v>1</v>
+      </c>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
+      <c r="X4" s="6">
+        <v>1</v>
+      </c>
       <c r="Y4" s="6"/>
-      <c r="Z4" s="6">
-        <v>243</v>
-      </c>
-      <c r="AA4" s="6">
-        <v>7</v>
-      </c>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
-      <c r="AD4" s="6">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -3849,32 +4036,39 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="6">
-        <v>9</v>
-      </c>
-      <c r="T5" s="6">
-        <v>1</v>
-      </c>
-      <c r="U5" s="6">
-        <v>1</v>
-      </c>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
       <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
+      <c r="W5" s="6">
+        <v>66</v>
+      </c>
       <c r="X5" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>26</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>11</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>30</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>17</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>16</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>4</v>
+      </c>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -3897,34 +4091,29 @@
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
-      <c r="W6" s="6">
-        <v>66</v>
-      </c>
-      <c r="X6" s="6">
-        <v>26</v>
-      </c>
-      <c r="Y6" s="6">
-        <v>11</v>
-      </c>
-      <c r="Z6" s="6">
-        <v>30</v>
-      </c>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
       <c r="AA6" s="6">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="AB6" s="6">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="AC6" s="6">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="AD6" s="6">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>9</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -3952,21 +4141,22 @@
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="AB7" s="6">
-        <v>44</v>
+        <v>248</v>
       </c>
       <c r="AC7" s="6">
-        <v>19</v>
-      </c>
-      <c r="AD7" s="6">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>35</v>
+      </c>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -3985,30 +4175,46 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
+      <c r="S8" s="6">
+        <v>55</v>
+      </c>
+      <c r="T8" s="6">
+        <v>102</v>
+      </c>
+      <c r="U8" s="6">
+        <v>36</v>
+      </c>
+      <c r="V8" s="6">
+        <v>21</v>
+      </c>
+      <c r="W8" s="6">
+        <v>29</v>
+      </c>
+      <c r="X8" s="6">
+        <v>24</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>27</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>6</v>
+      </c>
       <c r="AA8" s="6">
-        <v>249</v>
-      </c>
-      <c r="AB8" s="6">
-        <v>248</v>
+        <v>7</v>
       </c>
       <c r="AC8" s="6">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="AD8" s="6">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>14</v>
+      </c>
+      <c r="AE8" s="6">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -4027,42 +4233,33 @@
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="6">
-        <v>55</v>
-      </c>
-      <c r="T9" s="6">
-        <v>102</v>
-      </c>
-      <c r="U9" s="6">
-        <v>36</v>
-      </c>
-      <c r="V9" s="6">
-        <v>21</v>
-      </c>
-      <c r="W9" s="6">
-        <v>29</v>
-      </c>
-      <c r="X9" s="6">
-        <v>24</v>
-      </c>
-      <c r="Y9" s="6">
-        <v>27</v>
-      </c>
-      <c r="Z9" s="6">
-        <v>6</v>
-      </c>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
       <c r="AA9" s="6">
-        <v>7</v>
-      </c>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
+        <v>89</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>242</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>46</v>
+      </c>
       <c r="AD9" s="6">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -4074,14 +4271,24 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
+      <c r="L10" s="6">
+        <v>4</v>
+      </c>
+      <c r="M10" s="6">
+        <v>9</v>
+      </c>
+      <c r="N10" s="6">
+        <v>20</v>
+      </c>
+      <c r="O10" s="6">
+        <v>11</v>
+      </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
+      <c r="S10" s="6">
+        <v>10</v>
+      </c>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
@@ -4089,22 +4296,17 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
-      <c r="AA10" s="6">
-        <v>89</v>
-      </c>
-      <c r="AB10" s="6">
-        <v>242</v>
-      </c>
-      <c r="AC10" s="6">
-        <v>19</v>
-      </c>
-      <c r="AD10" s="6">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -4116,27 +4318,25 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="6">
-        <v>4</v>
-      </c>
-      <c r="M11" s="6">
-        <v>9</v>
-      </c>
-      <c r="N11" s="6">
-        <v>20</v>
-      </c>
-      <c r="O11" s="6">
-        <v>11</v>
-      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6">
-        <v>10</v>
-      </c>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="T11" s="6">
+        <v>174</v>
+      </c>
+      <c r="U11" s="6">
+        <v>48</v>
+      </c>
+      <c r="V11" s="6">
+        <v>19</v>
+      </c>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
@@ -4144,13 +4344,14 @@
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
-      <c r="AD11" s="6">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -4170,16 +4371,16 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="T12" s="6">
-        <v>174</v>
+        <v>51</v>
       </c>
       <c r="U12" s="6">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="V12" s="6">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
@@ -4188,13 +4389,14 @@
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
-      <c r="AD12" s="6">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -4213,32 +4415,41 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="6">
-        <v>79</v>
-      </c>
+      <c r="S13" s="6"/>
       <c r="T13" s="6">
-        <v>51</v>
+        <v>292</v>
       </c>
       <c r="U13" s="6">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="V13" s="6">
-        <v>8</v>
-      </c>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="W13" s="6">
+        <v>72</v>
+      </c>
+      <c r="X13" s="6">
+        <v>27</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>28</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>44</v>
+      </c>
+      <c r="AA13" s="6">
+        <v>4</v>
+      </c>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
-      <c r="AD13" s="6">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -4248,49 +4459,48 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
+      <c r="J14" s="6">
+        <v>2</v>
+      </c>
+      <c r="K14" s="6">
+        <v>22</v>
+      </c>
+      <c r="L14" s="6">
+        <v>34</v>
+      </c>
+      <c r="M14" s="6">
+        <v>32</v>
+      </c>
+      <c r="N14" s="6">
+        <v>61</v>
+      </c>
+      <c r="O14" s="6">
+        <v>100</v>
+      </c>
+      <c r="P14" s="6">
+        <v>12</v>
+      </c>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
-      <c r="T14" s="6">
-        <v>292</v>
-      </c>
-      <c r="U14" s="6">
-        <v>86</v>
-      </c>
-      <c r="V14" s="6">
-        <v>27</v>
-      </c>
-      <c r="W14" s="6">
-        <v>72</v>
-      </c>
-      <c r="X14" s="6">
-        <v>27</v>
-      </c>
-      <c r="Y14" s="6">
-        <v>28</v>
-      </c>
-      <c r="Z14" s="6">
-        <v>44</v>
-      </c>
-      <c r="AA14" s="6">
-        <v>4</v>
-      </c>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
-      <c r="AD14" s="6">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -4301,30 +4511,36 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6">
+        <v>13</v>
+      </c>
+      <c r="K15" s="6">
+        <v>36</v>
+      </c>
+      <c r="L15" s="6">
+        <v>27</v>
+      </c>
+      <c r="M15" s="6">
+        <v>17</v>
+      </c>
+      <c r="N15" s="6">
+        <v>14</v>
+      </c>
+      <c r="O15" s="6">
+        <v>24</v>
+      </c>
+      <c r="P15" s="6">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>22</v>
+      </c>
+      <c r="R15" s="6">
         <v>2</v>
       </c>
-      <c r="K15" s="6">
-        <v>22</v>
-      </c>
-      <c r="L15" s="6">
-        <v>34</v>
-      </c>
-      <c r="M15" s="6">
-        <v>32</v>
-      </c>
-      <c r="N15" s="6">
-        <v>61</v>
-      </c>
-      <c r="O15" s="6">
-        <v>100</v>
-      </c>
-      <c r="P15" s="6">
-        <v>12</v>
-      </c>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
       <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
+      <c r="T15" s="6">
+        <v>4</v>
+      </c>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
@@ -4334,13 +4550,14 @@
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
-      <c r="AD15" s="6">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -4350,53 +4567,52 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="6">
-        <v>13</v>
-      </c>
-      <c r="K16" s="6">
-        <v>36</v>
-      </c>
-      <c r="L16" s="6">
-        <v>27</v>
-      </c>
-      <c r="M16" s="6">
-        <v>17</v>
-      </c>
-      <c r="N16" s="6">
-        <v>14</v>
-      </c>
-      <c r="O16" s="6">
-        <v>24</v>
-      </c>
-      <c r="P16" s="6">
-        <v>31</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>22</v>
-      </c>
-      <c r="R16" s="6">
-        <v>2</v>
-      </c>
-      <c r="S16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6">
+        <v>35</v>
+      </c>
       <c r="T16" s="6">
+        <v>26</v>
+      </c>
+      <c r="U16" s="6">
+        <v>25</v>
+      </c>
+      <c r="V16" s="6">
         <v>4</v>
       </c>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
+      <c r="Z16" s="6">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="6">
+        <v>4</v>
+      </c>
+      <c r="AB16" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="6">
+        <v>1</v>
+      </c>
       <c r="AD16" s="6">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30">
+        <v>4</v>
+      </c>
+      <c r="AE16" s="6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -4415,38 +4631,37 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="6">
-        <v>35</v>
-      </c>
-      <c r="T17" s="6">
-        <v>26</v>
-      </c>
-      <c r="U17" s="6">
-        <v>25</v>
-      </c>
-      <c r="V17" s="6">
-        <v>4</v>
-      </c>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
       <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
+      <c r="X17" s="6">
+        <v>20</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>47</v>
+      </c>
       <c r="Z17" s="6">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="AA17" s="6">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="AB17" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30">
+        <v>44</v>
+      </c>
+      <c r="AC17" s="6">
+        <v>27</v>
+      </c>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -4456,11 +4671,21 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
+      <c r="J18" s="6">
+        <v>15</v>
+      </c>
+      <c r="K18" s="6">
+        <v>20</v>
+      </c>
+      <c r="L18" s="6">
+        <v>25</v>
+      </c>
+      <c r="M18" s="6">
+        <v>21</v>
+      </c>
+      <c r="N18" s="6">
+        <v>1</v>
+      </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
@@ -4470,31 +4695,20 @@
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
-      <c r="X18" s="6">
-        <v>20</v>
-      </c>
-      <c r="Y18" s="6">
-        <v>47</v>
-      </c>
-      <c r="Z18" s="6">
-        <v>68</v>
-      </c>
-      <c r="AA18" s="6">
-        <v>85</v>
-      </c>
-      <c r="AB18" s="6">
-        <v>44</v>
-      </c>
-      <c r="AC18" s="6">
-        <v>9</v>
-      </c>
-      <c r="AD18" s="6">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30">
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -4504,29 +4718,27 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="6">
-        <v>15</v>
-      </c>
-      <c r="K19" s="6">
-        <v>20</v>
-      </c>
-      <c r="L19" s="6">
-        <v>25</v>
-      </c>
-      <c r="M19" s="6">
-        <v>21</v>
-      </c>
-      <c r="N19" s="6">
-        <v>1</v>
-      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
+      <c r="S19" s="6">
+        <v>13</v>
+      </c>
+      <c r="T19" s="6">
+        <v>30</v>
+      </c>
+      <c r="U19" s="6">
+        <v>14</v>
+      </c>
+      <c r="V19" s="6">
+        <v>11</v>
+      </c>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
@@ -4534,13 +4746,14 @@
       <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
-      <c r="AD19" s="6">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30">
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -4559,32 +4772,33 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
-      <c r="S20" s="6">
-        <v>13</v>
-      </c>
-      <c r="T20" s="6">
-        <v>30</v>
-      </c>
-      <c r="U20" s="6">
-        <v>14</v>
-      </c>
-      <c r="V20" s="6">
-        <v>11</v>
-      </c>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
+      <c r="AA20" s="6">
+        <v>15</v>
+      </c>
+      <c r="AB20" s="6">
+        <v>29</v>
+      </c>
+      <c r="AC20" s="6">
+        <v>34</v>
+      </c>
       <c r="AD20" s="6">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30">
+        <v>10</v>
+      </c>
+      <c r="AE20" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -4603,30 +4817,29 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
+      <c r="S21" s="6">
+        <v>89</v>
+      </c>
+      <c r="T21" s="6">
+        <v>49</v>
+      </c>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
-      <c r="AA21" s="6">
-        <v>15</v>
-      </c>
-      <c r="AB21" s="6">
-        <v>29</v>
-      </c>
-      <c r="AC21" s="6">
-        <v>16</v>
-      </c>
-      <c r="AD21" s="6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30">
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -4646,13 +4859,17 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="T22" s="6">
-        <v>49</v>
-      </c>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="U22" s="6">
+        <v>6</v>
+      </c>
+      <c r="V22" s="6">
+        <v>1</v>
+      </c>
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
@@ -4660,13 +4877,14 @@
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
-      <c r="AD22" s="6">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30">
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -4685,32 +4903,43 @@
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
-      <c r="S23" s="6">
-        <v>15</v>
-      </c>
-      <c r="T23" s="6">
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6">
+        <v>28</v>
+      </c>
+      <c r="W23" s="6">
+        <v>55</v>
+      </c>
+      <c r="X23" s="6">
+        <v>21</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>28</v>
+      </c>
+      <c r="Z23" s="6">
+        <v>50</v>
+      </c>
+      <c r="AA23" s="6">
+        <v>45</v>
+      </c>
+      <c r="AB23" s="6">
+        <v>17</v>
+      </c>
+      <c r="AC23" s="6">
         <v>14</v>
       </c>
-      <c r="U23" s="6">
-        <v>6</v>
-      </c>
-      <c r="V23" s="6">
-        <v>1</v>
-      </c>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
       <c r="AD23" s="6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30">
+        <v>24</v>
+      </c>
+      <c r="AE23" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -4729,40 +4958,29 @@
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
+      <c r="S24" s="6">
+        <v>20</v>
+      </c>
+      <c r="T24" s="6">
+        <v>5</v>
+      </c>
       <c r="U24" s="6"/>
-      <c r="V24" s="6">
-        <v>28</v>
-      </c>
-      <c r="W24" s="6">
-        <v>55</v>
-      </c>
-      <c r="X24" s="6">
-        <v>21</v>
-      </c>
-      <c r="Y24" s="6">
-        <v>28</v>
-      </c>
-      <c r="Z24" s="6">
-        <v>50</v>
-      </c>
-      <c r="AA24" s="6">
-        <v>45</v>
-      </c>
-      <c r="AB24" s="6">
-        <v>17</v>
-      </c>
-      <c r="AC24" s="6">
-        <v>6</v>
-      </c>
-      <c r="AD24" s="6">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30">
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -4782,27 +5000,40 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="T25" s="6">
-        <v>5</v>
-      </c>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="U25" s="6">
+        <v>23</v>
+      </c>
+      <c r="V25" s="6">
+        <v>27</v>
+      </c>
+      <c r="W25" s="6">
+        <v>8</v>
+      </c>
+      <c r="X25" s="6">
+        <v>19</v>
+      </c>
+      <c r="Y25" s="6">
+        <v>10</v>
+      </c>
+      <c r="Z25" s="6">
+        <v>9</v>
+      </c>
       <c r="AA25" s="6"/>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
-      <c r="AD25" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30">
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -4821,40 +5052,33 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
-      <c r="S26" s="6">
-        <v>54</v>
-      </c>
-      <c r="T26" s="6">
-        <v>54</v>
-      </c>
-      <c r="U26" s="6">
-        <v>23</v>
-      </c>
-      <c r="V26" s="6">
-        <v>27</v>
-      </c>
-      <c r="W26" s="6">
-        <v>8</v>
-      </c>
-      <c r="X26" s="6">
-        <v>19</v>
-      </c>
-      <c r="Y26" s="6">
-        <v>10</v>
-      </c>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
       <c r="Z26" s="6">
-        <v>9</v>
-      </c>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6"/>
-      <c r="AD26" s="6">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30">
+        <v>89</v>
+      </c>
+      <c r="AA26" s="6">
+        <v>69</v>
+      </c>
+      <c r="AB26" s="6">
+        <v>42</v>
+      </c>
+      <c r="AC26" s="6">
+        <v>3</v>
+      </c>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -4873,32 +5097,35 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
+      <c r="S27" s="6">
+        <v>32</v>
+      </c>
+      <c r="T27" s="6">
+        <v>77</v>
+      </c>
+      <c r="U27" s="6">
+        <v>19</v>
+      </c>
+      <c r="V27" s="6">
+        <v>20</v>
+      </c>
+      <c r="W27" s="6">
+        <v>2</v>
+      </c>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
-      <c r="Z27" s="6">
-        <v>89</v>
-      </c>
-      <c r="AA27" s="6">
-        <v>69</v>
-      </c>
-      <c r="AB27" s="6">
-        <v>42</v>
-      </c>
-      <c r="AC27" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="6">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30">
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -4908,69 +5135,84 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
+      <c r="J28" s="6">
+        <v>77</v>
+      </c>
+      <c r="K28" s="6">
+        <v>48</v>
+      </c>
+      <c r="L28" s="6">
+        <v>19</v>
+      </c>
+      <c r="M28" s="6">
+        <v>10</v>
+      </c>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
-      <c r="S28" s="6">
-        <v>32</v>
-      </c>
-      <c r="T28" s="6">
-        <v>77</v>
-      </c>
-      <c r="U28" s="6">
-        <v>19</v>
-      </c>
-      <c r="V28" s="6">
-        <v>20</v>
-      </c>
-      <c r="W28" s="6">
-        <v>2</v>
-      </c>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="6"/>
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
-      <c r="AD28" s="6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30">
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="F29" s="6">
+        <v>156</v>
+      </c>
+      <c r="G29" s="6">
+        <v>153</v>
+      </c>
+      <c r="H29" s="6">
+        <v>92</v>
+      </c>
+      <c r="I29" s="6">
+        <v>95</v>
+      </c>
       <c r="J29" s="6">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="K29" s="6">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L29" s="6">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="M29" s="6">
-        <v>10</v>
-      </c>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="N29" s="6">
+        <v>9</v>
+      </c>
+      <c r="O29" s="6">
+        <v>11</v>
+      </c>
+      <c r="P29" s="6">
+        <v>13</v>
+      </c>
       <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
+      <c r="R29" s="6">
+        <v>2</v>
+      </c>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
@@ -4982,57 +5224,48 @@
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
-      <c r="AD29" s="6">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30">
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="6">
-        <v>156</v>
-      </c>
-      <c r="G30" s="6">
-        <v>153</v>
-      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
       <c r="H30" s="6">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="I30" s="6">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="J30" s="6">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="K30" s="6">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="L30" s="6">
-        <v>46</v>
-      </c>
-      <c r="M30" s="6">
-        <v>17</v>
-      </c>
-      <c r="N30" s="6">
-        <v>9</v>
-      </c>
-      <c r="O30" s="6">
-        <v>11</v>
-      </c>
-      <c r="P30" s="6">
-        <v>13</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
-      <c r="R30" s="6">
-        <v>2</v>
-      </c>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6">
+        <v>21</v>
+      </c>
+      <c r="T30" s="6">
+        <v>23</v>
+      </c>
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
@@ -5042,13 +5275,14 @@
       <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
-      <c r="AD30" s="6">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30">
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -5056,49 +5290,62 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="6">
-        <v>17</v>
-      </c>
-      <c r="I31" s="6">
-        <v>18</v>
-      </c>
-      <c r="J31" s="6">
-        <v>45</v>
-      </c>
-      <c r="K31" s="6">
-        <v>32</v>
-      </c>
-      <c r="L31" s="6">
-        <v>20</v>
-      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
+      <c r="O31" s="6">
+        <v>1</v>
+      </c>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="T31" s="6">
+        <v>36</v>
+      </c>
+      <c r="U31" s="6">
+        <v>26</v>
+      </c>
+      <c r="V31" s="6">
+        <v>16</v>
+      </c>
+      <c r="W31" s="6">
+        <v>16</v>
+      </c>
+      <c r="X31" s="6">
+        <v>5</v>
+      </c>
+      <c r="Y31" s="6">
+        <v>13</v>
+      </c>
+      <c r="Z31" s="6">
         <v>23</v>
       </c>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
-      <c r="AB31" s="6"/>
-      <c r="AC31" s="6"/>
+      <c r="AA31" s="6">
+        <v>43</v>
+      </c>
+      <c r="AB31" s="6">
+        <v>24</v>
+      </c>
+      <c r="AC31" s="6">
+        <v>19</v>
+      </c>
       <c r="AD31" s="6">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30">
+        <v>2</v>
+      </c>
+      <c r="AE31" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
       <c r="A32" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -5113,50 +5360,51 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
-      <c r="O32" s="6">
-        <v>1</v>
-      </c>
+      <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="T32" s="6">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="U32" s="6">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="V32" s="6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="W32" s="6">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="X32" s="6">
         <v>5</v>
       </c>
       <c r="Y32" s="6">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="Z32" s="6">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA32" s="6">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AB32" s="6">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="AC32" s="6">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="AD32" s="6">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30">
+        <v>9</v>
+      </c>
+      <c r="AE32" s="6">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -5192,13 +5440,16 @@
         <v>82</v>
       </c>
       <c r="AC33" s="6">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="AD33" s="6">
+        <v>11</v>
+      </c>
+      <c r="AE33" s="6">
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:31">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -5242,11 +5493,12 @@
       <c r="AA34" s="6"/>
       <c r="AB34" s="6"/>
       <c r="AC34" s="6"/>
-      <c r="AD34" s="6">
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6">
         <v>183</v>
       </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:31">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -5298,13 +5550,14 @@
         <v>16</v>
       </c>
       <c r="AC35" s="6">
-        <v>6</v>
-      </c>
-      <c r="AD35" s="6">
+        <v>9</v>
+      </c>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6">
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:31">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -5342,13 +5595,14 @@
       <c r="AA36" s="6"/>
       <c r="AB36" s="6"/>
       <c r="AC36" s="6"/>
-      <c r="AD36" s="6">
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:31">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -5373,28 +5627,24 @@
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
-      <c r="Y37" s="6">
-        <v>4</v>
-      </c>
-      <c r="Z37" s="6">
-        <v>20</v>
-      </c>
-      <c r="AA37" s="6">
-        <v>20</v>
-      </c>
-      <c r="AB37" s="6">
-        <v>15</v>
-      </c>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
       <c r="AC37" s="6">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="AD37" s="6">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30">
+        <v>44</v>
+      </c>
+      <c r="AE37" s="6">
+        <f>SUM(AC37:AD37)</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31">
       <c r="A38" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -5420,27 +5670,30 @@
       <c r="W38" s="6"/>
       <c r="X38" s="6"/>
       <c r="Y38" s="6">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="Z38" s="6">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="AA38" s="6">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AB38" s="6">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="AC38" s="6">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="AD38" s="6">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30">
+        <v>10</v>
+      </c>
+      <c r="AE38" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -5463,34 +5716,33 @@
       <c r="T39" s="6"/>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
-      <c r="W39" s="6">
-        <v>1</v>
-      </c>
-      <c r="X39" s="6">
-        <v>16</v>
-      </c>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
       <c r="Y39" s="6">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Z39" s="6">
+        <v>76</v>
+      </c>
+      <c r="AA39" s="6">
+        <v>35</v>
+      </c>
+      <c r="AB39" s="6">
         <v>42</v>
       </c>
-      <c r="AA39" s="6">
-        <v>27</v>
-      </c>
-      <c r="AB39" s="6">
-        <v>19</v>
-      </c>
       <c r="AC39" s="6">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="AD39" s="6">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30">
+        <v>4</v>
+      </c>
+      <c r="AE39" s="6">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -5499,34 +5751,18 @@
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="6">
-        <v>1</v>
-      </c>
-      <c r="J40" s="6">
-        <v>3</v>
-      </c>
-      <c r="K40" s="6">
-        <v>73</v>
-      </c>
-      <c r="L40" s="6">
-        <v>118</v>
-      </c>
-      <c r="M40" s="6">
-        <v>55</v>
-      </c>
-      <c r="N40" s="6">
-        <v>15</v>
-      </c>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
-      <c r="S40" s="6">
-        <v>2</v>
-      </c>
-      <c r="T40" s="6">
-        <v>1</v>
-      </c>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
@@ -5535,74 +5771,73 @@
       <c r="Z40" s="6"/>
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
-      <c r="AC40" s="6"/>
+      <c r="AC40" s="6">
+        <v>207</v>
+      </c>
       <c r="AD40" s="6">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30">
+        <v>178</v>
+      </c>
+      <c r="AE40" s="6">
+        <f>SUM(AC40:AD40)</f>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B41" s="6"/>
-      <c r="C41" s="6">
-        <v>1</v>
-      </c>
+      <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="6">
-        <v>107</v>
-      </c>
-      <c r="I41" s="6">
-        <v>52</v>
-      </c>
-      <c r="J41" s="6">
-        <v>30</v>
-      </c>
-      <c r="K41" s="6">
-        <v>24</v>
-      </c>
-      <c r="L41" s="6">
-        <v>29</v>
-      </c>
-      <c r="M41" s="6">
-        <v>19</v>
-      </c>
-      <c r="N41" s="6">
-        <v>26</v>
-      </c>
-      <c r="O41" s="6">
-        <v>34</v>
-      </c>
-      <c r="P41" s="6">
-        <v>25</v>
-      </c>
-      <c r="Q41" s="6">
-        <v>2</v>
-      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
-      <c r="S41" s="6">
-        <v>8</v>
-      </c>
+      <c r="S41" s="6"/>
       <c r="T41" s="6"/>
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6"/>
-      <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
-      <c r="AA41" s="6"/>
-      <c r="AB41" s="6"/>
-      <c r="AC41" s="6"/>
+      <c r="W41" s="6">
+        <v>1</v>
+      </c>
+      <c r="X41" s="6">
+        <v>16</v>
+      </c>
+      <c r="Y41" s="6">
+        <v>16</v>
+      </c>
+      <c r="Z41" s="6">
+        <v>42</v>
+      </c>
+      <c r="AA41" s="6">
+        <v>27</v>
+      </c>
+      <c r="AB41" s="6">
+        <v>19</v>
+      </c>
+      <c r="AC41" s="6">
+        <v>9</v>
+      </c>
       <c r="AD41" s="6">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30">
+        <v>3</v>
+      </c>
+      <c r="AE41" s="6">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
       <c r="A42" s="2" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -5612,33 +5847,33 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J42" s="6">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="K42" s="6">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="L42" s="6">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="M42" s="6">
+        <v>55</v>
+      </c>
+      <c r="N42" s="6">
         <v>15</v>
       </c>
-      <c r="N42" s="6">
-        <v>28</v>
-      </c>
-      <c r="O42" s="6">
-        <v>33</v>
-      </c>
-      <c r="P42" s="6">
-        <v>19</v>
-      </c>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
+      <c r="S42" s="6">
+        <v>2</v>
+      </c>
+      <c r="T42" s="6">
+        <v>1</v>
+      </c>
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
@@ -5648,63 +5883,75 @@
       <c r="AA42" s="6"/>
       <c r="AB42" s="6"/>
       <c r="AC42" s="6"/>
-      <c r="AD42" s="6">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30">
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31">
       <c r="A43" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
+      <c r="C43" s="6">
+        <v>1</v>
+      </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
+      <c r="H43" s="6">
+        <v>107</v>
+      </c>
+      <c r="I43" s="6">
+        <v>52</v>
+      </c>
+      <c r="J43" s="6">
+        <v>30</v>
+      </c>
+      <c r="K43" s="6">
+        <v>24</v>
+      </c>
+      <c r="L43" s="6">
+        <v>29</v>
+      </c>
+      <c r="M43" s="6">
+        <v>19</v>
+      </c>
+      <c r="N43" s="6">
+        <v>26</v>
+      </c>
+      <c r="O43" s="6">
+        <v>34</v>
+      </c>
+      <c r="P43" s="6">
+        <v>25</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>2</v>
+      </c>
       <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
+      <c r="S43" s="6">
+        <v>8</v>
+      </c>
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
-      <c r="W43" s="6">
-        <v>215</v>
-      </c>
-      <c r="X43" s="6">
-        <v>67</v>
-      </c>
-      <c r="Y43" s="6">
-        <v>51</v>
-      </c>
-      <c r="Z43" s="6">
-        <v>177</v>
-      </c>
-      <c r="AA43" s="6">
-        <v>80</v>
-      </c>
-      <c r="AB43" s="6">
-        <v>162</v>
-      </c>
-      <c r="AC43" s="6">
-        <v>63</v>
-      </c>
-      <c r="AD43" s="6">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30">
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31">
       <c r="A44" s="2" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -5713,112 +5960,104 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
+      <c r="I44" s="6">
+        <v>7</v>
+      </c>
+      <c r="J44" s="6">
+        <v>40</v>
+      </c>
+      <c r="K44" s="6">
+        <v>46</v>
+      </c>
+      <c r="L44" s="6">
+        <v>45</v>
+      </c>
+      <c r="M44" s="6">
+        <v>15</v>
+      </c>
+      <c r="N44" s="6">
+        <v>28</v>
+      </c>
+      <c r="O44" s="6">
+        <v>33</v>
+      </c>
+      <c r="P44" s="6">
+        <v>19</v>
+      </c>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
-      <c r="S44" s="6">
-        <v>2</v>
-      </c>
-      <c r="T44" s="6">
-        <v>68</v>
-      </c>
-      <c r="U44" s="6">
-        <v>20</v>
-      </c>
-      <c r="V44" s="6">
-        <v>10</v>
-      </c>
-      <c r="W44" s="6">
-        <v>3</v>
-      </c>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
       <c r="X44" s="6"/>
-      <c r="Y44" s="6">
-        <v>2</v>
-      </c>
-      <c r="Z44" s="6">
-        <v>4</v>
-      </c>
-      <c r="AA44" s="6">
-        <v>7</v>
-      </c>
-      <c r="AB44" s="6">
-        <v>12</v>
-      </c>
-      <c r="AC44" s="6">
-        <v>5</v>
-      </c>
-      <c r="AD44" s="6">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30">
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="6">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31">
       <c r="A45" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="6">
-        <v>130</v>
-      </c>
-      <c r="C45" s="6">
-        <v>128</v>
-      </c>
-      <c r="D45" s="6">
-        <v>126</v>
-      </c>
-      <c r="E45" s="6">
-        <v>98</v>
-      </c>
-      <c r="F45" s="6">
-        <v>131</v>
-      </c>
-      <c r="G45" s="6">
-        <v>113</v>
-      </c>
-      <c r="H45" s="6">
-        <v>74</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
-      <c r="M45" s="6">
-        <v>1</v>
-      </c>
-      <c r="N45" s="6">
-        <v>1</v>
-      </c>
-      <c r="O45" s="6">
-        <v>1</v>
-      </c>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
       <c r="P45" s="6"/>
-      <c r="Q45" s="6">
-        <v>1</v>
-      </c>
+      <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="6"/>
-      <c r="AB45" s="6"/>
-      <c r="AC45" s="6"/>
+      <c r="W45" s="6">
+        <v>215</v>
+      </c>
+      <c r="X45" s="6">
+        <v>67</v>
+      </c>
+      <c r="Y45" s="6">
+        <v>51</v>
+      </c>
+      <c r="Z45" s="6">
+        <v>177</v>
+      </c>
+      <c r="AA45" s="6">
+        <v>80</v>
+      </c>
+      <c r="AB45" s="6">
+        <v>162</v>
+      </c>
+      <c r="AC45" s="6">
+        <v>145</v>
+      </c>
       <c r="AD45" s="6">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30">
+        <v>92</v>
+      </c>
+      <c r="AE45" s="6">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31">
       <c r="A46" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -5838,46 +6077,85 @@
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
       <c r="S46" s="6">
-        <v>109</v>
-      </c>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="T46" s="6">
+        <v>68</v>
+      </c>
+      <c r="U46" s="6">
+        <v>20</v>
+      </c>
+      <c r="V46" s="6">
+        <v>10</v>
+      </c>
+      <c r="W46" s="6">
+        <v>3</v>
+      </c>
       <c r="X46" s="6"/>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
-      <c r="AA46" s="6"/>
-      <c r="AB46" s="6"/>
-      <c r="AC46" s="6"/>
-      <c r="AD46" s="6">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30">
+      <c r="Y46" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z46" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA46" s="6">
+        <v>7</v>
+      </c>
+      <c r="AB46" s="6">
+        <v>12</v>
+      </c>
+      <c r="AC46" s="6">
+        <v>5</v>
+      </c>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="6">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31">
       <c r="A47" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="B47" s="6">
+        <v>130</v>
+      </c>
+      <c r="C47" s="6">
+        <v>128</v>
+      </c>
+      <c r="D47" s="6">
+        <v>126</v>
+      </c>
+      <c r="E47" s="6">
+        <v>98</v>
+      </c>
+      <c r="F47" s="6">
+        <v>131</v>
+      </c>
+      <c r="G47" s="6">
+        <v>113</v>
+      </c>
+      <c r="H47" s="6">
+        <v>74</v>
+      </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
+      <c r="M47" s="6">
+        <v>1</v>
+      </c>
+      <c r="N47" s="6">
+        <v>1</v>
+      </c>
+      <c r="O47" s="6">
+        <v>1</v>
+      </c>
       <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
+      <c r="Q47" s="6">
+        <v>1</v>
+      </c>
       <c r="R47" s="6"/>
-      <c r="S47" s="6">
-        <v>11</v>
-      </c>
+      <c r="S47" s="6"/>
       <c r="T47" s="6"/>
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
@@ -5888,13 +6166,14 @@
       <c r="AA47" s="6"/>
       <c r="AB47" s="6"/>
       <c r="AC47" s="6"/>
-      <c r="AD47" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30">
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="6">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31">
       <c r="A48" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -5913,7 +6192,9 @@
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
+      <c r="S48" s="6">
+        <v>109</v>
+      </c>
       <c r="T48" s="6"/>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
@@ -5923,16 +6204,15 @@
       <c r="Z48" s="6"/>
       <c r="AA48" s="6"/>
       <c r="AB48" s="6"/>
-      <c r="AC48" s="6">
-        <v>65</v>
-      </c>
-      <c r="AD48" s="6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30">
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31">
       <c r="A49" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -5951,32 +6231,27 @@
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6">
-        <v>99</v>
-      </c>
-      <c r="U49" s="6">
-        <v>20</v>
-      </c>
-      <c r="V49" s="6">
-        <v>9</v>
-      </c>
-      <c r="W49" s="6">
-        <v>1</v>
-      </c>
+      <c r="S49" s="6">
+        <v>11</v>
+      </c>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
       <c r="X49" s="6"/>
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
       <c r="AA49" s="6"/>
       <c r="AB49" s="6"/>
       <c r="AC49" s="6"/>
-      <c r="AD49" s="6">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30">
+      <c r="AD49" s="6"/>
+      <c r="AE49" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31">
       <c r="A50" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -5996,9 +6271,7 @@
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
-      <c r="T50" s="6">
-        <v>2</v>
-      </c>
+      <c r="T50" s="6"/>
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
       <c r="W50" s="6"/>
@@ -6007,14 +6280,19 @@
       <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
       <c r="AB50" s="6"/>
-      <c r="AC50" s="6"/>
+      <c r="AC50" s="6">
+        <v>100</v>
+      </c>
       <c r="AD50" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30">
-      <c r="A51" s="4" t="s">
-        <v>53</v>
+        <v>27</v>
+      </c>
+      <c r="AE50" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31">
+      <c r="A51" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -6034,37 +6312,32 @@
       <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
+      <c r="T51" s="6">
+        <v>99</v>
+      </c>
+      <c r="U51" s="6">
+        <v>20</v>
+      </c>
+      <c r="V51" s="6">
+        <v>9</v>
+      </c>
       <c r="W51" s="6">
-        <v>14</v>
-      </c>
-      <c r="X51" s="6">
-        <v>21</v>
-      </c>
-      <c r="Y51" s="6">
-        <v>20</v>
-      </c>
-      <c r="Z51" s="6">
+        <v>1</v>
+      </c>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6"/>
+      <c r="AC51" s="6"/>
+      <c r="AD51" s="6"/>
+      <c r="AE51" s="6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31">
+      <c r="A52" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="AA51" s="6">
-        <v>57</v>
-      </c>
-      <c r="AB51" s="6">
-        <v>49</v>
-      </c>
-      <c r="AC51" s="6">
-        <v>15</v>
-      </c>
-      <c r="AD51" s="6">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30">
-      <c r="A52" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -6083,15 +6356,11 @@
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
-      <c r="S52" s="6">
-        <v>30</v>
-      </c>
+      <c r="S52" s="6"/>
       <c r="T52" s="6">
-        <v>35</v>
-      </c>
-      <c r="U52" s="6">
-        <v>8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="U52" s="6"/>
       <c r="V52" s="6"/>
       <c r="W52" s="6"/>
       <c r="X52" s="6"/>
@@ -6100,13 +6369,14 @@
       <c r="AA52" s="6"/>
       <c r="AB52" s="6"/>
       <c r="AC52" s="6"/>
-      <c r="AD52" s="6">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30">
-      <c r="A53" s="2" t="s">
-        <v>47</v>
+      <c r="AD52" s="6"/>
+      <c r="AE52" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31">
+      <c r="A53" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -6129,26 +6399,35 @@
       <c r="T53" s="6"/>
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
-      <c r="W53" s="6"/>
-      <c r="X53" s="6"/>
-      <c r="Y53" s="6"/>
-      <c r="Z53" s="6"/>
+      <c r="W53" s="6">
+        <v>14</v>
+      </c>
+      <c r="X53" s="6">
+        <v>21</v>
+      </c>
+      <c r="Y53" s="6">
+        <v>20</v>
+      </c>
+      <c r="Z53" s="6">
+        <v>45</v>
+      </c>
       <c r="AA53" s="6">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="AB53" s="6">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="AC53" s="6">
-        <v>21</v>
-      </c>
-      <c r="AD53" s="6">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30">
+        <v>18</v>
+      </c>
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31">
       <c r="A54" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -6168,12 +6447,14 @@
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
       <c r="S54" s="6">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="T54" s="6">
-        <v>1</v>
-      </c>
-      <c r="U54" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="U54" s="6">
+        <v>8</v>
+      </c>
       <c r="V54" s="6"/>
       <c r="W54" s="6"/>
       <c r="X54" s="6"/>
@@ -6182,13 +6463,14 @@
       <c r="AA54" s="6"/>
       <c r="AB54" s="6"/>
       <c r="AC54" s="6"/>
-      <c r="AD54" s="6">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30">
+      <c r="AD54" s="6"/>
+      <c r="AE54" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -6215,20 +6497,23 @@
       <c r="X55" s="6"/>
       <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
-      <c r="AA55" s="6"/>
+      <c r="AA55" s="6">
+        <v>4</v>
+      </c>
       <c r="AB55" s="6">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="AC55" s="6">
-        <v>5</v>
-      </c>
-      <c r="AD55" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30">
+        <v>35</v>
+      </c>
+      <c r="AD55" s="6"/>
+      <c r="AE55" s="6">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31">
       <c r="A56" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -6247,42 +6532,29 @@
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
-      <c r="U56" s="6">
-        <v>12</v>
-      </c>
-      <c r="V56" s="6">
-        <v>26</v>
-      </c>
-      <c r="W56" s="6">
-        <v>30</v>
-      </c>
-      <c r="X56" s="6">
-        <v>24</v>
-      </c>
-      <c r="Y56" s="6">
-        <v>30</v>
-      </c>
-      <c r="Z56" s="6">
-        <v>37</v>
-      </c>
-      <c r="AA56" s="6">
-        <v>17</v>
-      </c>
-      <c r="AB56" s="6">
-        <v>28</v>
-      </c>
-      <c r="AC56" s="6">
-        <v>16</v>
-      </c>
-      <c r="AD56" s="6">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30">
+      <c r="S56" s="6">
+        <v>38</v>
+      </c>
+      <c r="T56" s="6">
+        <v>1</v>
+      </c>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="6"/>
+      <c r="AD56" s="6"/>
+      <c r="AE56" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31">
       <c r="A57" s="2" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -6291,33 +6563,15 @@
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
-      <c r="I57" s="6">
-        <v>18</v>
-      </c>
-      <c r="J57" s="6">
-        <v>54</v>
-      </c>
-      <c r="K57" s="6">
-        <v>33</v>
-      </c>
-      <c r="L57" s="6">
-        <v>17</v>
-      </c>
-      <c r="M57" s="6">
-        <v>11</v>
-      </c>
-      <c r="N57" s="6">
-        <v>11</v>
-      </c>
-      <c r="O57" s="6">
-        <v>37</v>
-      </c>
-      <c r="P57" s="6">
-        <v>13</v>
-      </c>
-      <c r="Q57" s="6">
-        <v>2</v>
-      </c>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
       <c r="R57" s="6"/>
       <c r="S57" s="6"/>
       <c r="T57" s="6"/>
@@ -6328,15 +6582,22 @@
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
       <c r="AA57" s="6"/>
-      <c r="AB57" s="6"/>
-      <c r="AC57" s="6"/>
+      <c r="AB57" s="6">
+        <v>7</v>
+      </c>
+      <c r="AC57" s="6">
+        <v>15</v>
+      </c>
       <c r="AD57" s="6">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30">
+        <v>9</v>
+      </c>
+      <c r="AE57" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31">
       <c r="A58" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -6352,27 +6613,138 @@
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
-      <c r="P58" s="6">
-        <v>63</v>
-      </c>
-      <c r="Q58" s="6">
-        <v>26</v>
-      </c>
-      <c r="R58" s="6">
-        <v>15</v>
-      </c>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
       <c r="S58" s="6"/>
       <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="6"/>
-      <c r="Y58" s="6"/>
-      <c r="Z58" s="6"/>
-      <c r="AA58" s="6"/>
-      <c r="AB58" s="6"/>
-      <c r="AC58" s="6"/>
-      <c r="AD58" s="6">
+      <c r="U58" s="6">
+        <v>12</v>
+      </c>
+      <c r="V58" s="6">
+        <v>26</v>
+      </c>
+      <c r="W58" s="6">
+        <v>30</v>
+      </c>
+      <c r="X58" s="6">
+        <v>24</v>
+      </c>
+      <c r="Y58" s="6">
+        <v>30</v>
+      </c>
+      <c r="Z58" s="6">
+        <v>37</v>
+      </c>
+      <c r="AA58" s="6">
+        <v>17</v>
+      </c>
+      <c r="AB58" s="6">
+        <v>28</v>
+      </c>
+      <c r="AC58" s="6">
+        <v>16</v>
+      </c>
+      <c r="AD58" s="6"/>
+      <c r="AE58" s="6">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31">
+      <c r="A59" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6">
+        <v>18</v>
+      </c>
+      <c r="J59" s="6">
+        <v>54</v>
+      </c>
+      <c r="K59" s="6">
+        <v>33</v>
+      </c>
+      <c r="L59" s="6">
+        <v>17</v>
+      </c>
+      <c r="M59" s="6">
+        <v>11</v>
+      </c>
+      <c r="N59" s="6">
+        <v>11</v>
+      </c>
+      <c r="O59" s="6">
+        <v>37</v>
+      </c>
+      <c r="P59" s="6">
+        <v>13</v>
+      </c>
+      <c r="Q59" s="6">
+        <v>2</v>
+      </c>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+      <c r="AA59" s="6"/>
+      <c r="AB59" s="6"/>
+      <c r="AC59" s="6"/>
+      <c r="AD59" s="6"/>
+      <c r="AE59" s="6">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31">
+      <c r="A60" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6">
+        <v>63</v>
+      </c>
+      <c r="Q60" s="6">
+        <v>26</v>
+      </c>
+      <c r="R60" s="6">
+        <v>15</v>
+      </c>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
+      <c r="AA60" s="6"/>
+      <c r="AB60" s="6"/>
+      <c r="AC60" s="6"/>
+      <c r="AD60" s="6"/>
+      <c r="AE60" s="6">
         <v>104</v>
       </c>
     </row>

--- a/data/houseinfo.xlsx
+++ b/data/houseinfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban25/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDF0D25-A5C2-1842-AEC3-E771F01AAD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3068C1-46E0-7D4A-8CFE-892F0386C5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="-23300" windowWidth="40560" windowHeight="11420" xr2:uid="{3AB5D77B-1579-2648-A897-7F84A01250C3}"/>
+    <workbookView xWindow="7760" yWindow="-23280" windowWidth="40560" windowHeight="11420" activeTab="1" xr2:uid="{3AB5D77B-1579-2648-A897-7F84A01250C3}"/>
   </bookViews>
   <sheets>
     <sheet name="price" sheetId="1" r:id="rId1"/>
@@ -779,11 +779,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD3E85E-DF5C-744F-9031-69DF85D73821}">
   <dimension ref="A1:AE60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D31" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE37" sqref="AE37"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1282,7 +1282,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3">
-        <v>21.945123966942148</v>
+        <v>21.945123966942099</v>
       </c>
       <c r="M10" s="3">
         <v>21.738585858585861</v>
@@ -3769,11 +3769,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A291CE-127F-CA4C-9089-A163ECEBC382}">
   <dimension ref="A1:AE60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG42" sqref="AG42"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/data/houseinfo.xlsx
+++ b/data/houseinfo.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban25/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3068C1-46E0-7D4A-8CFE-892F0386C5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F43A7D-07A0-4F4D-AA29-96E1B23D1651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7760" yWindow="-23280" windowWidth="40560" windowHeight="11420" activeTab="1" xr2:uid="{3AB5D77B-1579-2648-A897-7F84A01250C3}"/>
+    <workbookView xWindow="-1680" yWindow="-23880" windowWidth="33780" windowHeight="16360" activeTab="3" xr2:uid="{3AB5D77B-1579-2648-A897-7F84A01250C3}"/>
   </bookViews>
   <sheets>
     <sheet name="price" sheetId="1" r:id="rId1"/>
     <sheet name="quantity" sheetId="2" r:id="rId2"/>
+    <sheet name="chart" sheetId="4" r:id="rId3"/>
+    <sheet name="工作表3" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="93">
   <si>
     <t>大亮泊</t>
   </si>
@@ -352,6 +354,10 @@
     <t>溫沙堡</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>頤昌筑岳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -386,7 +392,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,6 +403,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -423,7 +435,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -441,6 +453,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -780,10 +804,10 @@
   <dimension ref="A1:AE60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1614,7 +1638,7 @@
         <v>45.3</v>
       </c>
       <c r="AD16" s="3">
-        <v>44.4</v>
+        <v>44.6</v>
       </c>
       <c r="AE16" s="3">
         <v>35.228405895884805</v>
@@ -1664,7 +1688,9 @@
       <c r="AC17" s="3">
         <v>36.299999999999997</v>
       </c>
-      <c r="AD17" s="3"/>
+      <c r="AD17" s="3">
+        <v>33.9</v>
+      </c>
       <c r="AE17" s="3">
         <v>34.850789210789223</v>
       </c>
@@ -1800,7 +1826,7 @@
         <v>37.9</v>
       </c>
       <c r="AD20" s="3">
-        <v>38.299999999999997</v>
+        <v>39.4</v>
       </c>
       <c r="AE20" s="3">
         <v>37.702936639118462</v>
@@ -2645,11 +2671,11 @@
         <v>46.3</v>
       </c>
       <c r="AD37" s="3">
-        <v>46.9</v>
+        <v>46.7</v>
       </c>
       <c r="AE37" s="3">
         <f>AVERAGE(AC37:AD37)</f>
-        <v>46.599999999999994</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -2695,7 +2721,7 @@
         <v>37.6</v>
       </c>
       <c r="AD38" s="3">
-        <v>38.700000000000003</v>
+        <v>38.6</v>
       </c>
       <c r="AE38" s="3">
         <v>37.506535093129379</v>
@@ -2785,11 +2811,11 @@
         <v>45.4</v>
       </c>
       <c r="AD40" s="3">
-        <v>45.7</v>
+        <v>45.8</v>
       </c>
       <c r="AE40" s="3">
         <f>AVERAGE(AC40:AD40)</f>
-        <v>45.55</v>
+        <v>45.599999999999994</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -3261,7 +3287,7 @@
     </row>
     <row r="50" spans="1:31">
       <c r="A50" s="2" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -3294,7 +3320,7 @@
         <v>45.5</v>
       </c>
       <c r="AD50" s="3">
-        <v>47.2</v>
+        <v>47.9</v>
       </c>
       <c r="AE50" s="3">
         <v>45.284638270820096</v>
@@ -3599,7 +3625,7 @@
         <v>42.2</v>
       </c>
       <c r="AD57" s="3">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="AE57" s="3">
         <v>41.237603305785122</v>
@@ -3653,9 +3679,11 @@
         <v>43.242337662337668</v>
       </c>
       <c r="AC58" s="3">
-        <v>42.721487603305789</v>
-      </c>
-      <c r="AD58" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>45.3</v>
+      </c>
       <c r="AE58" s="3">
         <v>39.020940646130732</v>
       </c>
@@ -3769,11 +3797,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A291CE-127F-CA4C-9089-A163ECEBC382}">
   <dimension ref="A1:AE60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
+      <selection pane="bottomRight" sqref="A1:AE60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4105,7 +4133,7 @@
         <v>37</v>
       </c>
       <c r="AD6" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AE6" s="6">
         <v>139</v>
@@ -4206,7 +4234,7 @@
         <v>4</v>
       </c>
       <c r="AD8" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE8" s="6">
         <v>307</v>
@@ -4604,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="AD16" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE16" s="6">
         <v>97</v>
@@ -4654,7 +4682,9 @@
       <c r="AC17" s="6">
         <v>27</v>
       </c>
-      <c r="AD17" s="6"/>
+      <c r="AD17" s="6">
+        <v>1</v>
+      </c>
       <c r="AE17" s="6">
         <v>273</v>
       </c>
@@ -4790,7 +4820,7 @@
         <v>34</v>
       </c>
       <c r="AD20" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE20" s="6">
         <v>60</v>
@@ -4931,7 +4961,7 @@
         <v>14</v>
       </c>
       <c r="AD23" s="6">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AE23" s="6">
         <v>250</v>
@@ -5635,11 +5665,11 @@
         <v>86</v>
       </c>
       <c r="AD37" s="6">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AE37" s="6">
         <f>SUM(AC37:AD37)</f>
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -5685,7 +5715,7 @@
         <v>22</v>
       </c>
       <c r="AD38" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE38" s="6">
         <v>67</v>
@@ -5775,11 +5805,11 @@
         <v>207</v>
       </c>
       <c r="AD40" s="6">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="AE40" s="6">
         <f>SUM(AC40:AD40)</f>
-        <v>385</v>
+        <v>412</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -6049,7 +6079,7 @@
         <v>145</v>
       </c>
       <c r="AD45" s="6">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="AE45" s="6">
         <v>815</v>
@@ -6284,7 +6314,7 @@
         <v>100</v>
       </c>
       <c r="AD50" s="6">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AE50" s="6">
         <v>65</v>
@@ -6589,13 +6619,13 @@
         <v>15</v>
       </c>
       <c r="AD57" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE57" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:31" ht="17" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>50</v>
       </c>
@@ -6643,9 +6673,11 @@
         <v>28</v>
       </c>
       <c r="AC58" s="6">
-        <v>16</v>
-      </c>
-      <c r="AD58" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="AD58" s="6">
+        <v>31</v>
+      </c>
       <c r="AE58" s="6">
         <v>220</v>
       </c>
@@ -6752,4 +6784,7612 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5BE22F-39F6-3248-A126-B93A7D12E335}">
+  <dimension ref="A1:BJ60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:62">
+      <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="BG1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ1" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3">
+        <v>32.963864205969465</v>
+      </c>
+      <c r="U2" s="3">
+        <v>35.56116829451539</v>
+      </c>
+      <c r="V2" s="3">
+        <v>37.144319179253351</v>
+      </c>
+      <c r="W2" s="3">
+        <v>37.907862376179594</v>
+      </c>
+      <c r="X2" s="3">
+        <v>36.704376572044559</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>38.13992727272727</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>37.643120280634989</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>39.130766758494012</v>
+      </c>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3">
+        <v>35.904182445862489</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6">
+        <v>399</v>
+      </c>
+      <c r="AZ2" s="6">
+        <v>176</v>
+      </c>
+      <c r="BA2" s="6">
+        <v>145</v>
+      </c>
+      <c r="BB2" s="6">
+        <v>141</v>
+      </c>
+      <c r="BC2" s="6">
+        <v>92</v>
+      </c>
+      <c r="BD2" s="6">
+        <v>100</v>
+      </c>
+      <c r="BE2" s="6">
+        <v>139</v>
+      </c>
+      <c r="BF2" s="6">
+        <v>72</v>
+      </c>
+      <c r="BG2" s="6"/>
+      <c r="BH2" s="6"/>
+      <c r="BI2" s="6"/>
+      <c r="BJ2" s="6">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3">
+        <v>35.591321973948254</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>39.354238488783942</v>
+      </c>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3">
+        <v>35.696683636363652</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="6"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="6"/>
+      <c r="BA3" s="6"/>
+      <c r="BB3" s="6"/>
+      <c r="BC3" s="6"/>
+      <c r="BD3" s="6"/>
+      <c r="BE3" s="6">
+        <v>243</v>
+      </c>
+      <c r="BF3" s="6">
+        <v>7</v>
+      </c>
+      <c r="BG3" s="6"/>
+      <c r="BH3" s="6"/>
+      <c r="BI3" s="6"/>
+      <c r="BJ3" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3">
+        <v>31.594159779614333</v>
+      </c>
+      <c r="T4" s="3">
+        <v>31.011900826446283</v>
+      </c>
+      <c r="U4" s="3">
+        <v>31.011900826446283</v>
+      </c>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3">
+        <v>36.052561983471072</v>
+      </c>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3">
+        <v>31.868650137741053</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="6"/>
+      <c r="AX4" s="6">
+        <v>9</v>
+      </c>
+      <c r="AY4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="6">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="6"/>
+      <c r="BB4" s="6"/>
+      <c r="BC4" s="6">
+        <v>1</v>
+      </c>
+      <c r="BD4" s="6"/>
+      <c r="BE4" s="6"/>
+      <c r="BF4" s="6"/>
+      <c r="BG4" s="6"/>
+      <c r="BH4" s="6"/>
+      <c r="BI4" s="6"/>
+      <c r="BJ4" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3">
+        <v>37.073623841723027</v>
+      </c>
+      <c r="X5" s="3">
+        <v>37.856376350921806</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>37.983561232156269</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>37.447625344352609</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>38.013145357316482</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>37.366508264462809</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>39.4</v>
+      </c>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3">
+        <v>37.466137219423906</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="6"/>
+      <c r="AW5" s="6"/>
+      <c r="AX5" s="6"/>
+      <c r="AY5" s="6"/>
+      <c r="AZ5" s="6"/>
+      <c r="BA5" s="6"/>
+      <c r="BB5" s="6">
+        <v>66</v>
+      </c>
+      <c r="BC5" s="6">
+        <v>26</v>
+      </c>
+      <c r="BD5" s="6">
+        <v>11</v>
+      </c>
+      <c r="BE5" s="6">
+        <v>30</v>
+      </c>
+      <c r="BF5" s="6">
+        <v>17</v>
+      </c>
+      <c r="BG5" s="6">
+        <v>16</v>
+      </c>
+      <c r="BH5" s="6">
+        <v>4</v>
+      </c>
+      <c r="BI5" s="6"/>
+      <c r="BJ5" s="6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3">
+        <v>36.560126141800758</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>37.315048835462058</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>39</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>41.6</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>37.028158630120686</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6"/>
+      <c r="AV6" s="6"/>
+      <c r="AW6" s="6"/>
+      <c r="AX6" s="6"/>
+      <c r="AY6" s="6"/>
+      <c r="AZ6" s="6"/>
+      <c r="BA6" s="6"/>
+      <c r="BB6" s="6"/>
+      <c r="BC6" s="6"/>
+      <c r="BD6" s="6"/>
+      <c r="BE6" s="6"/>
+      <c r="BF6" s="6">
+        <v>76</v>
+      </c>
+      <c r="BG6" s="6">
+        <v>44</v>
+      </c>
+      <c r="BH6" s="6">
+        <v>37</v>
+      </c>
+      <c r="BI6" s="6">
+        <v>12</v>
+      </c>
+      <c r="BJ6" s="6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3">
+        <v>39.586667994291261</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>40.353774993335115</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>39.928906729634008</v>
+      </c>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3">
+        <v>39.966782451997794</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6">
+        <v>249</v>
+      </c>
+      <c r="BG7" s="6">
+        <v>248</v>
+      </c>
+      <c r="BH7" s="6">
+        <v>35</v>
+      </c>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:62">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3">
+        <v>29.532640120210367</v>
+      </c>
+      <c r="T8" s="3">
+        <v>31.247321341759847</v>
+      </c>
+      <c r="U8" s="3">
+        <v>33.100734618916448</v>
+      </c>
+      <c r="V8" s="3">
+        <v>34.760346320346329</v>
+      </c>
+      <c r="W8" s="3">
+        <v>35.506662866913658</v>
+      </c>
+      <c r="X8" s="3">
+        <v>35.525330578512403</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>36.127578818487905</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>35.044297520661154</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>35.901818181818186</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>37.9</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>39</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>32.74410423452769</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6">
+        <v>55</v>
+      </c>
+      <c r="AY8" s="6">
+        <v>102</v>
+      </c>
+      <c r="AZ8" s="6">
+        <v>36</v>
+      </c>
+      <c r="BA8" s="6">
+        <v>21</v>
+      </c>
+      <c r="BB8" s="6">
+        <v>29</v>
+      </c>
+      <c r="BC8" s="6">
+        <v>24</v>
+      </c>
+      <c r="BD8" s="6">
+        <v>27</v>
+      </c>
+      <c r="BE8" s="6">
+        <v>6</v>
+      </c>
+      <c r="BF8" s="6">
+        <v>7</v>
+      </c>
+      <c r="BH8" s="6">
+        <v>4</v>
+      </c>
+      <c r="BI8" s="6">
+        <v>16</v>
+      </c>
+      <c r="BJ8" s="6">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:62">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3">
+        <v>39.916861361314886</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>41.411693190355848</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>41.6</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>48.2</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>40.992203069657613</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="6"/>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="6"/>
+      <c r="AS9" s="6"/>
+      <c r="AT9" s="6"/>
+      <c r="AU9" s="6"/>
+      <c r="AV9" s="6"/>
+      <c r="AW9" s="6"/>
+      <c r="AX9" s="6"/>
+      <c r="AY9" s="6"/>
+      <c r="AZ9" s="6"/>
+      <c r="BA9" s="6"/>
+      <c r="BB9" s="6"/>
+      <c r="BC9" s="6"/>
+      <c r="BD9" s="6"/>
+      <c r="BE9" s="6"/>
+      <c r="BF9" s="6">
+        <v>89</v>
+      </c>
+      <c r="BG9" s="6">
+        <v>242</v>
+      </c>
+      <c r="BH9" s="6">
+        <v>46</v>
+      </c>
+      <c r="BI9" s="6">
+        <v>1</v>
+      </c>
+      <c r="BJ9" s="6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:62">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3">
+        <v>21.945123966942099</v>
+      </c>
+      <c r="M10" s="3">
+        <v>21.738585858585861</v>
+      </c>
+      <c r="N10" s="3">
+        <v>22.297090909090912</v>
+      </c>
+      <c r="O10" s="3">
+        <v>22.216709241172051</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3">
+        <v>22.857752066115705</v>
+      </c>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3">
+        <v>22.265387205387199</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="6"/>
+      <c r="AP10" s="6"/>
+      <c r="AQ10" s="6">
+        <v>4</v>
+      </c>
+      <c r="AR10" s="6">
+        <v>9</v>
+      </c>
+      <c r="AS10" s="6">
+        <v>20</v>
+      </c>
+      <c r="AT10" s="6">
+        <v>11</v>
+      </c>
+      <c r="AU10" s="6"/>
+      <c r="AV10" s="6"/>
+      <c r="AW10" s="6"/>
+      <c r="AX10" s="6">
+        <v>10</v>
+      </c>
+      <c r="AY10" s="6"/>
+      <c r="AZ10" s="6"/>
+      <c r="BA10" s="6"/>
+      <c r="BB10" s="6"/>
+      <c r="BC10" s="6"/>
+      <c r="BD10" s="6"/>
+      <c r="BE10" s="6"/>
+      <c r="BF10" s="6"/>
+      <c r="BG10" s="6"/>
+      <c r="BH10" s="6"/>
+      <c r="BI10" s="6"/>
+      <c r="BJ10" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:62">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3">
+        <v>25.884691298006807</v>
+      </c>
+      <c r="T11" s="3">
+        <v>27.923336183148091</v>
+      </c>
+      <c r="U11" s="3">
+        <v>32.438264462809919</v>
+      </c>
+      <c r="V11" s="3">
+        <v>33.013623314484562</v>
+      </c>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3">
+        <v>28.489045441172522</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="6"/>
+      <c r="AQ11" s="6"/>
+      <c r="AR11" s="6"/>
+      <c r="AS11" s="6"/>
+      <c r="AT11" s="6"/>
+      <c r="AU11" s="6"/>
+      <c r="AV11" s="6"/>
+      <c r="AW11" s="6"/>
+      <c r="AX11" s="6">
+        <v>68</v>
+      </c>
+      <c r="AY11" s="6">
+        <v>174</v>
+      </c>
+      <c r="AZ11" s="6">
+        <v>48</v>
+      </c>
+      <c r="BA11" s="6">
+        <v>19</v>
+      </c>
+      <c r="BB11" s="6"/>
+      <c r="BC11" s="6"/>
+      <c r="BD11" s="6"/>
+      <c r="BE11" s="6"/>
+      <c r="BF11" s="6"/>
+      <c r="BG11" s="6"/>
+      <c r="BH11" s="6"/>
+      <c r="BI11" s="6"/>
+      <c r="BJ11" s="6">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:62">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3">
+        <v>24.647804163615447</v>
+      </c>
+      <c r="T12" s="3">
+        <v>27.330371090584993</v>
+      </c>
+      <c r="U12" s="3">
+        <v>30.984545454545451</v>
+      </c>
+      <c r="V12" s="3">
+        <v>32.014876033057853</v>
+      </c>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3">
+        <v>26.688831467726732</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="6"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="6"/>
+      <c r="AT12" s="6"/>
+      <c r="AU12" s="6"/>
+      <c r="AV12" s="6"/>
+      <c r="AW12" s="6"/>
+      <c r="AX12" s="6">
+        <v>79</v>
+      </c>
+      <c r="AY12" s="6">
+        <v>51</v>
+      </c>
+      <c r="AZ12" s="6">
+        <v>20</v>
+      </c>
+      <c r="BA12" s="6">
+        <v>8</v>
+      </c>
+      <c r="BB12" s="6"/>
+      <c r="BC12" s="6"/>
+      <c r="BD12" s="6"/>
+      <c r="BE12" s="6"/>
+      <c r="BF12" s="6"/>
+      <c r="BG12" s="6"/>
+      <c r="BH12" s="6"/>
+      <c r="BI12" s="6"/>
+      <c r="BJ12" s="6">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:62">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3">
+        <v>26.300127929355803</v>
+      </c>
+      <c r="U13" s="3">
+        <v>30.784335960023057</v>
+      </c>
+      <c r="V13" s="3">
+        <v>34.101230486685033</v>
+      </c>
+      <c r="W13" s="3">
+        <v>32.648801652892558</v>
+      </c>
+      <c r="X13" s="3">
+        <v>31.981720232629325</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>31.723565525383709</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>33.525747558226897</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>36.823884297520664</v>
+      </c>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3">
+        <v>29.263330863493852</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="6"/>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="6"/>
+      <c r="AV13" s="6"/>
+      <c r="AW13" s="6"/>
+      <c r="AX13" s="6"/>
+      <c r="AY13" s="6">
+        <v>292</v>
+      </c>
+      <c r="AZ13" s="6">
+        <v>86</v>
+      </c>
+      <c r="BA13" s="6">
+        <v>27</v>
+      </c>
+      <c r="BB13" s="6">
+        <v>72</v>
+      </c>
+      <c r="BC13" s="6">
+        <v>27</v>
+      </c>
+      <c r="BD13" s="6">
+        <v>28</v>
+      </c>
+      <c r="BE13" s="6">
+        <v>44</v>
+      </c>
+      <c r="BF13" s="6">
+        <v>4</v>
+      </c>
+      <c r="BG13" s="6"/>
+      <c r="BH13" s="6"/>
+      <c r="BI13" s="6"/>
+      <c r="BJ13" s="6">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="14" spans="1:62">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
+        <v>22.628099173553721</v>
+      </c>
+      <c r="K14" s="3">
+        <v>23.758692712246432</v>
+      </c>
+      <c r="L14" s="3">
+        <v>22.622100145843461</v>
+      </c>
+      <c r="M14" s="3">
+        <v>22.455909090909081</v>
+      </c>
+      <c r="N14" s="3">
+        <v>22.545075193063269</v>
+      </c>
+      <c r="O14" s="3">
+        <v>22.242122314049585</v>
+      </c>
+      <c r="P14" s="3">
+        <v>20.931487603305783</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3">
+        <v>22.457519404204508</v>
+      </c>
+      <c r="AF14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6">
+        <v>2</v>
+      </c>
+      <c r="AP14" s="6">
+        <v>22</v>
+      </c>
+      <c r="AQ14" s="6">
+        <v>34</v>
+      </c>
+      <c r="AR14" s="6">
+        <v>32</v>
+      </c>
+      <c r="AS14" s="6">
+        <v>61</v>
+      </c>
+      <c r="AT14" s="6">
+        <v>100</v>
+      </c>
+      <c r="AU14" s="6">
+        <v>12</v>
+      </c>
+      <c r="AV14" s="6"/>
+      <c r="AW14" s="6"/>
+      <c r="AX14" s="6"/>
+      <c r="AY14" s="6"/>
+      <c r="AZ14" s="6"/>
+      <c r="BA14" s="6"/>
+      <c r="BB14" s="6"/>
+      <c r="BC14" s="6"/>
+      <c r="BD14" s="6"/>
+      <c r="BE14" s="6"/>
+      <c r="BF14" s="6"/>
+      <c r="BG14" s="6"/>
+      <c r="BH14" s="6"/>
+      <c r="BI14" s="6"/>
+      <c r="BJ14" s="6">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:62">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3">
+        <v>21.574469167196444</v>
+      </c>
+      <c r="K15" s="3">
+        <v>21.530798898071627</v>
+      </c>
+      <c r="L15" s="3">
+        <v>21.895182124273035</v>
+      </c>
+      <c r="M15" s="3">
+        <v>21.743198833252308</v>
+      </c>
+      <c r="N15" s="3">
+        <v>21.776788665879572</v>
+      </c>
+      <c r="O15" s="3">
+        <v>21.513071625344352</v>
+      </c>
+      <c r="P15" s="3">
+        <v>21.807091442282061</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>21.807122464312542</v>
+      </c>
+      <c r="R15" s="3">
+        <v>22.022644628099172</v>
+      </c>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3">
+        <v>21.177107438016527</v>
+      </c>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3">
+        <v>21.695264027838189</v>
+      </c>
+      <c r="AF15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6">
+        <v>13</v>
+      </c>
+      <c r="AP15" s="6">
+        <v>36</v>
+      </c>
+      <c r="AQ15" s="6">
+        <v>27</v>
+      </c>
+      <c r="AR15" s="6">
+        <v>17</v>
+      </c>
+      <c r="AS15" s="6">
+        <v>14</v>
+      </c>
+      <c r="AT15" s="6">
+        <v>24</v>
+      </c>
+      <c r="AU15" s="6">
+        <v>31</v>
+      </c>
+      <c r="AV15" s="6">
+        <v>22</v>
+      </c>
+      <c r="AW15" s="6">
+        <v>2</v>
+      </c>
+      <c r="AX15" s="6"/>
+      <c r="AY15" s="6">
+        <v>4</v>
+      </c>
+      <c r="AZ15" s="6"/>
+      <c r="BA15" s="6"/>
+      <c r="BB15" s="6"/>
+      <c r="BC15" s="6"/>
+      <c r="BD15" s="6"/>
+      <c r="BE15" s="6"/>
+      <c r="BF15" s="6"/>
+      <c r="BG15" s="6"/>
+      <c r="BH15" s="6"/>
+      <c r="BI15" s="6"/>
+      <c r="BJ15" s="6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:62">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3">
+        <v>31.338946871310501</v>
+      </c>
+      <c r="T16" s="3">
+        <v>36.100203432930705</v>
+      </c>
+      <c r="U16" s="3">
+        <v>37.292654545454546</v>
+      </c>
+      <c r="V16" s="3">
+        <v>40.73115702479339</v>
+      </c>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3">
+        <v>41.043801652892569</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>41.022975206611576</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>40.266446280991737</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>45.3</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>44.6</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>35.228405895884805</v>
+      </c>
+      <c r="AF16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="6"/>
+      <c r="AQ16" s="6"/>
+      <c r="AR16" s="6"/>
+      <c r="AS16" s="6"/>
+      <c r="AT16" s="6"/>
+      <c r="AU16" s="6"/>
+      <c r="AV16" s="6"/>
+      <c r="AW16" s="6"/>
+      <c r="AX16" s="6">
+        <v>35</v>
+      </c>
+      <c r="AY16" s="6">
+        <v>26</v>
+      </c>
+      <c r="AZ16" s="6">
+        <v>25</v>
+      </c>
+      <c r="BA16" s="6">
+        <v>4</v>
+      </c>
+      <c r="BB16" s="6"/>
+      <c r="BC16" s="6"/>
+      <c r="BD16" s="6"/>
+      <c r="BE16" s="6">
+        <v>2</v>
+      </c>
+      <c r="BF16" s="6">
+        <v>4</v>
+      </c>
+      <c r="BG16" s="6">
+        <v>1</v>
+      </c>
+      <c r="BH16" s="6">
+        <v>1</v>
+      </c>
+      <c r="BI16" s="6">
+        <v>5</v>
+      </c>
+      <c r="BJ16" s="6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:62">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3">
+        <v>34.114528925619837</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>33.843129945489721</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>34.862265435099665</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>35.229044239183274</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>35.440150262960181</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>33.9</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>34.850789210789223</v>
+      </c>
+      <c r="AF17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
+      <c r="AP17" s="6"/>
+      <c r="AQ17" s="6"/>
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="6"/>
+      <c r="AT17" s="6"/>
+      <c r="AU17" s="6"/>
+      <c r="AV17" s="6"/>
+      <c r="AW17" s="6"/>
+      <c r="AX17" s="6"/>
+      <c r="AY17" s="6"/>
+      <c r="AZ17" s="6"/>
+      <c r="BA17" s="6"/>
+      <c r="BB17" s="6"/>
+      <c r="BC17" s="6">
+        <v>20</v>
+      </c>
+      <c r="BD17" s="6">
+        <v>47</v>
+      </c>
+      <c r="BE17" s="6">
+        <v>68</v>
+      </c>
+      <c r="BF17" s="6">
+        <v>85</v>
+      </c>
+      <c r="BG17" s="6">
+        <v>44</v>
+      </c>
+      <c r="BH17" s="6">
+        <v>27</v>
+      </c>
+      <c r="BI17" s="6">
+        <v>1</v>
+      </c>
+      <c r="BJ17" s="6">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:62">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3">
+        <v>23.17853443526171</v>
+      </c>
+      <c r="K18" s="3">
+        <v>22.877454545454551</v>
+      </c>
+      <c r="L18" s="3">
+        <v>22.265732231404957</v>
+      </c>
+      <c r="M18" s="3">
+        <v>22.29454545454546</v>
+      </c>
+      <c r="N18" s="3">
+        <v>21.197685950413224</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3">
+        <v>22.576262850231807</v>
+      </c>
+      <c r="AF18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6">
+        <v>15</v>
+      </c>
+      <c r="AP18" s="6">
+        <v>20</v>
+      </c>
+      <c r="AQ18" s="6">
+        <v>25</v>
+      </c>
+      <c r="AR18" s="6">
+        <v>21</v>
+      </c>
+      <c r="AS18" s="6">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="6"/>
+      <c r="AV18" s="6"/>
+      <c r="AW18" s="6"/>
+      <c r="AX18" s="6"/>
+      <c r="AY18" s="6"/>
+      <c r="AZ18" s="6"/>
+      <c r="BA18" s="6"/>
+      <c r="BB18" s="6"/>
+      <c r="BC18" s="6"/>
+      <c r="BD18" s="6"/>
+      <c r="BE18" s="6"/>
+      <c r="BF18" s="6"/>
+      <c r="BG18" s="6"/>
+      <c r="BH18" s="6"/>
+      <c r="BI18" s="6"/>
+      <c r="BJ18" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:62">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3">
+        <v>29.33541004450095</v>
+      </c>
+      <c r="T19" s="3">
+        <v>31.274809917355377</v>
+      </c>
+      <c r="U19" s="3">
+        <v>32.991286894923256</v>
+      </c>
+      <c r="V19" s="3">
+        <v>30.459684447783626</v>
+      </c>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3">
+        <v>31.125576081672339</v>
+      </c>
+      <c r="AF19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
+      <c r="AN19" s="6"/>
+      <c r="AO19" s="6"/>
+      <c r="AP19" s="6"/>
+      <c r="AQ19" s="6"/>
+      <c r="AR19" s="6"/>
+      <c r="AS19" s="6"/>
+      <c r="AT19" s="6"/>
+      <c r="AU19" s="6"/>
+      <c r="AV19" s="6"/>
+      <c r="AW19" s="6"/>
+      <c r="AX19" s="6">
+        <v>13</v>
+      </c>
+      <c r="AY19" s="6">
+        <v>30</v>
+      </c>
+      <c r="AZ19" s="6">
+        <v>14</v>
+      </c>
+      <c r="BA19" s="6">
+        <v>11</v>
+      </c>
+      <c r="BB19" s="6"/>
+      <c r="BC19" s="6"/>
+      <c r="BD19" s="6"/>
+      <c r="BE19" s="6"/>
+      <c r="BF19" s="6"/>
+      <c r="BG19" s="6"/>
+      <c r="BH19" s="6"/>
+      <c r="BI19" s="6"/>
+      <c r="BJ19" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:62">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3">
+        <v>37.171900826446283</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>38.195930464519805</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>37.9</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>39.4</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>37.702936639118462</v>
+      </c>
+      <c r="AF20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="6"/>
+      <c r="AO20" s="6"/>
+      <c r="AP20" s="6"/>
+      <c r="AQ20" s="6"/>
+      <c r="AR20" s="6"/>
+      <c r="AS20" s="6"/>
+      <c r="AT20" s="6"/>
+      <c r="AU20" s="6"/>
+      <c r="AV20" s="6"/>
+      <c r="AW20" s="6"/>
+      <c r="AX20" s="6"/>
+      <c r="AY20" s="6"/>
+      <c r="AZ20" s="6"/>
+      <c r="BA20" s="6"/>
+      <c r="BB20" s="6"/>
+      <c r="BC20" s="6"/>
+      <c r="BD20" s="6"/>
+      <c r="BE20" s="6"/>
+      <c r="BF20" s="6">
+        <v>15</v>
+      </c>
+      <c r="BG20" s="6">
+        <v>29</v>
+      </c>
+      <c r="BH20" s="6">
+        <v>34</v>
+      </c>
+      <c r="BI20" s="6">
+        <v>15</v>
+      </c>
+      <c r="BJ20" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:62">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3">
+        <v>25.963365214968885</v>
+      </c>
+      <c r="T21" s="3">
+        <v>27.572184179456897</v>
+      </c>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3">
+        <v>26.534612528446516</v>
+      </c>
+      <c r="AF21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+      <c r="AN21" s="6"/>
+      <c r="AO21" s="6"/>
+      <c r="AP21" s="6"/>
+      <c r="AQ21" s="6"/>
+      <c r="AR21" s="6"/>
+      <c r="AS21" s="6"/>
+      <c r="AT21" s="6"/>
+      <c r="AU21" s="6"/>
+      <c r="AV21" s="6"/>
+      <c r="AW21" s="6"/>
+      <c r="AX21" s="6">
+        <v>89</v>
+      </c>
+      <c r="AY21" s="6">
+        <v>49</v>
+      </c>
+      <c r="AZ21" s="6"/>
+      <c r="BA21" s="6"/>
+      <c r="BB21" s="6"/>
+      <c r="BC21" s="6"/>
+      <c r="BD21" s="6"/>
+      <c r="BE21" s="6"/>
+      <c r="BF21" s="6"/>
+      <c r="BG21" s="6"/>
+      <c r="BH21" s="6"/>
+      <c r="BI21" s="6"/>
+      <c r="BJ21" s="6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:62">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3">
+        <v>28.794953168044078</v>
+      </c>
+      <c r="T22" s="3">
+        <v>29.320779220779226</v>
+      </c>
+      <c r="U22" s="3">
+        <v>28.594876033057854</v>
+      </c>
+      <c r="V22" s="3">
+        <v>26.545454545454547</v>
+      </c>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3">
+        <v>28.903608815426999</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="6"/>
+      <c r="AO22" s="6"/>
+      <c r="AP22" s="6"/>
+      <c r="AQ22" s="6"/>
+      <c r="AR22" s="6"/>
+      <c r="AS22" s="6"/>
+      <c r="AT22" s="6"/>
+      <c r="AU22" s="6"/>
+      <c r="AV22" s="6"/>
+      <c r="AW22" s="6"/>
+      <c r="AX22" s="6">
+        <v>15</v>
+      </c>
+      <c r="AY22" s="6">
+        <v>14</v>
+      </c>
+      <c r="AZ22" s="6">
+        <v>6</v>
+      </c>
+      <c r="BA22" s="6">
+        <v>1</v>
+      </c>
+      <c r="BB22" s="6"/>
+      <c r="BC22" s="6"/>
+      <c r="BD22" s="6"/>
+      <c r="BE22" s="6"/>
+      <c r="BF22" s="6"/>
+      <c r="BG22" s="6"/>
+      <c r="BH22" s="6"/>
+      <c r="BI22" s="6"/>
+      <c r="BJ22" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:62">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3">
+        <v>37.991912632821723</v>
+      </c>
+      <c r="W23" s="3">
+        <v>38.424204357625847</v>
+      </c>
+      <c r="X23" s="3">
+        <v>38.713844942935843</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>38.854120425029521</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>39.801725619834713</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>39.308561983471087</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>38.132834224598938</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>37.1</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>37.5</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>38.822184462809929</v>
+      </c>
+      <c r="AF23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+      <c r="AN23" s="6"/>
+      <c r="AO23" s="6"/>
+      <c r="AP23" s="6"/>
+      <c r="AQ23" s="6"/>
+      <c r="AR23" s="6"/>
+      <c r="AS23" s="6"/>
+      <c r="AT23" s="6"/>
+      <c r="AU23" s="6"/>
+      <c r="AV23" s="6"/>
+      <c r="AW23" s="6"/>
+      <c r="AX23" s="6"/>
+      <c r="AY23" s="6"/>
+      <c r="AZ23" s="6"/>
+      <c r="BA23" s="6">
+        <v>28</v>
+      </c>
+      <c r="BB23" s="6">
+        <v>55</v>
+      </c>
+      <c r="BC23" s="6">
+        <v>21</v>
+      </c>
+      <c r="BD23" s="6">
+        <v>28</v>
+      </c>
+      <c r="BE23" s="6">
+        <v>50</v>
+      </c>
+      <c r="BF23" s="6">
+        <v>45</v>
+      </c>
+      <c r="BG23" s="6">
+        <v>17</v>
+      </c>
+      <c r="BH23" s="6">
+        <v>14</v>
+      </c>
+      <c r="BI23" s="6">
+        <v>28</v>
+      </c>
+      <c r="BJ23" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:62">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3">
+        <v>27.048545454545451</v>
+      </c>
+      <c r="T24" s="3">
+        <v>26.970842975206608</v>
+      </c>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3">
+        <v>27.03300495867769</v>
+      </c>
+      <c r="AF24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="6"/>
+      <c r="AN24" s="6"/>
+      <c r="AO24" s="6"/>
+      <c r="AP24" s="6"/>
+      <c r="AQ24" s="6"/>
+      <c r="AR24" s="6"/>
+      <c r="AS24" s="6"/>
+      <c r="AT24" s="6"/>
+      <c r="AU24" s="6"/>
+      <c r="AV24" s="6"/>
+      <c r="AW24" s="6"/>
+      <c r="AX24" s="6">
+        <v>20</v>
+      </c>
+      <c r="AY24" s="6">
+        <v>5</v>
+      </c>
+      <c r="AZ24" s="6"/>
+      <c r="BA24" s="6"/>
+      <c r="BB24" s="6"/>
+      <c r="BC24" s="6"/>
+      <c r="BD24" s="6"/>
+      <c r="BE24" s="6"/>
+      <c r="BF24" s="6"/>
+      <c r="BG24" s="6"/>
+      <c r="BH24" s="6"/>
+      <c r="BI24" s="6"/>
+      <c r="BJ24" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:62">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3">
+        <v>27.681493725130082</v>
+      </c>
+      <c r="T25" s="3">
+        <v>30.160850933578192</v>
+      </c>
+      <c r="U25" s="3">
+        <v>32.562946460653976</v>
+      </c>
+      <c r="V25" s="3">
+        <v>33.057581879400068</v>
+      </c>
+      <c r="W25" s="3">
+        <v>34.095165289256194</v>
+      </c>
+      <c r="X25" s="3">
+        <v>33.853640713353634</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>34.222909090909091</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>33.774545454545461</v>
+      </c>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3">
+        <v>31.015537190082657</v>
+      </c>
+      <c r="AF25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="6"/>
+      <c r="AN25" s="6"/>
+      <c r="AO25" s="6"/>
+      <c r="AP25" s="6"/>
+      <c r="AQ25" s="6"/>
+      <c r="AR25" s="6"/>
+      <c r="AS25" s="6"/>
+      <c r="AT25" s="6"/>
+      <c r="AU25" s="6"/>
+      <c r="AV25" s="6"/>
+      <c r="AW25" s="6"/>
+      <c r="AX25" s="6">
+        <v>54</v>
+      </c>
+      <c r="AY25" s="6">
+        <v>54</v>
+      </c>
+      <c r="AZ25" s="6">
+        <v>23</v>
+      </c>
+      <c r="BA25" s="6">
+        <v>27</v>
+      </c>
+      <c r="BB25" s="6">
+        <v>8</v>
+      </c>
+      <c r="BC25" s="6">
+        <v>19</v>
+      </c>
+      <c r="BD25" s="6">
+        <v>10</v>
+      </c>
+      <c r="BE25" s="6">
+        <v>9</v>
+      </c>
+      <c r="BF25" s="6"/>
+      <c r="BG25" s="6"/>
+      <c r="BH25" s="6"/>
+      <c r="BI25" s="6"/>
+      <c r="BJ25" s="6">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:62">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3">
+        <v>34.2038406537283</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>34.771215714456822</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>35.718299881936261</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3">
+        <v>34.721159491797209</v>
+      </c>
+      <c r="AF26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="6"/>
+      <c r="AN26" s="6"/>
+      <c r="AO26" s="6"/>
+      <c r="AP26" s="6"/>
+      <c r="AQ26" s="6"/>
+      <c r="AR26" s="6"/>
+      <c r="AS26" s="6"/>
+      <c r="AT26" s="6"/>
+      <c r="AU26" s="6"/>
+      <c r="AV26" s="6"/>
+      <c r="AW26" s="6"/>
+      <c r="AX26" s="6"/>
+      <c r="AY26" s="6"/>
+      <c r="AZ26" s="6"/>
+      <c r="BA26" s="6"/>
+      <c r="BB26" s="6"/>
+      <c r="BC26" s="6"/>
+      <c r="BD26" s="6"/>
+      <c r="BE26" s="6">
+        <v>89</v>
+      </c>
+      <c r="BF26" s="6">
+        <v>69</v>
+      </c>
+      <c r="BG26" s="6">
+        <v>42</v>
+      </c>
+      <c r="BH26" s="6">
+        <v>3</v>
+      </c>
+      <c r="BI26" s="6"/>
+      <c r="BJ26" s="6">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:62">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3">
+        <v>24.717293388429749</v>
+      </c>
+      <c r="T27" s="3">
+        <v>25.919386068476982</v>
+      </c>
+      <c r="U27" s="3">
+        <v>30.453936494127891</v>
+      </c>
+      <c r="V27" s="3">
+        <v>30.983057851239671</v>
+      </c>
+      <c r="W27" s="3">
+        <v>32.044297520661154</v>
+      </c>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3">
+        <v>26.994137741046831</v>
+      </c>
+      <c r="AF27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="6"/>
+      <c r="AN27" s="6"/>
+      <c r="AO27" s="6"/>
+      <c r="AP27" s="6"/>
+      <c r="AQ27" s="6"/>
+      <c r="AR27" s="6"/>
+      <c r="AS27" s="6"/>
+      <c r="AT27" s="6"/>
+      <c r="AU27" s="6"/>
+      <c r="AV27" s="6"/>
+      <c r="AW27" s="6"/>
+      <c r="AX27" s="6">
+        <v>32</v>
+      </c>
+      <c r="AY27" s="6">
+        <v>77</v>
+      </c>
+      <c r="AZ27" s="6">
+        <v>19</v>
+      </c>
+      <c r="BA27" s="6">
+        <v>20</v>
+      </c>
+      <c r="BB27" s="6">
+        <v>2</v>
+      </c>
+      <c r="BC27" s="6"/>
+      <c r="BD27" s="6"/>
+      <c r="BE27" s="6"/>
+      <c r="BF27" s="6"/>
+      <c r="BG27" s="6"/>
+      <c r="BH27" s="6"/>
+      <c r="BI27" s="6"/>
+      <c r="BJ27" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:62">
+      <c r="A28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3">
+        <v>24.074624879252983</v>
+      </c>
+      <c r="K28" s="3">
+        <v>23.76557162534435</v>
+      </c>
+      <c r="L28" s="3">
+        <v>24.459504132231405</v>
+      </c>
+      <c r="M28" s="3">
+        <v>23.957685950413218</v>
+      </c>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3">
+        <v>24.018188258022981</v>
+      </c>
+      <c r="AF28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="6"/>
+      <c r="AN28" s="6"/>
+      <c r="AO28" s="6">
+        <v>77</v>
+      </c>
+      <c r="AP28" s="6">
+        <v>48</v>
+      </c>
+      <c r="AQ28" s="6">
+        <v>19</v>
+      </c>
+      <c r="AR28" s="6">
+        <v>10</v>
+      </c>
+      <c r="AS28" s="6"/>
+      <c r="AT28" s="6"/>
+      <c r="AU28" s="6"/>
+      <c r="AV28" s="6"/>
+      <c r="AW28" s="6"/>
+      <c r="AX28" s="6"/>
+      <c r="AY28" s="6"/>
+      <c r="AZ28" s="6"/>
+      <c r="BA28" s="6"/>
+      <c r="BB28" s="6"/>
+      <c r="BC28" s="6"/>
+      <c r="BD28" s="6"/>
+      <c r="BE28" s="6"/>
+      <c r="BF28" s="6"/>
+      <c r="BG28" s="6"/>
+      <c r="BH28" s="6"/>
+      <c r="BI28" s="6"/>
+      <c r="BJ28" s="6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:62">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3">
+        <v>22.931167620258535</v>
+      </c>
+      <c r="G29" s="3">
+        <v>23.275538270404592</v>
+      </c>
+      <c r="H29" s="3">
+        <v>24.047128997484741</v>
+      </c>
+      <c r="I29" s="3">
+        <v>24.689064810787308</v>
+      </c>
+      <c r="J29" s="3">
+        <v>24.810429116338216</v>
+      </c>
+      <c r="K29" s="3">
+        <v>25.226289691170081</v>
+      </c>
+      <c r="L29" s="3">
+        <v>25.588544735896516</v>
+      </c>
+      <c r="M29" s="3">
+        <v>25.453125911521639</v>
+      </c>
+      <c r="N29" s="3">
+        <v>24.982075298438936</v>
+      </c>
+      <c r="O29" s="3">
+        <v>24.662689706987226</v>
+      </c>
+      <c r="P29" s="3">
+        <v>24.991633820724733</v>
+      </c>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3">
+        <v>25.62710743801653</v>
+      </c>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3">
+        <v>24.101257730830341</v>
+      </c>
+      <c r="AF29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6">
+        <v>156</v>
+      </c>
+      <c r="AL29" s="6">
+        <v>153</v>
+      </c>
+      <c r="AM29" s="6">
+        <v>92</v>
+      </c>
+      <c r="AN29" s="6">
+        <v>95</v>
+      </c>
+      <c r="AO29" s="6">
+        <v>104</v>
+      </c>
+      <c r="AP29" s="6">
+        <v>57</v>
+      </c>
+      <c r="AQ29" s="6">
+        <v>46</v>
+      </c>
+      <c r="AR29" s="6">
+        <v>17</v>
+      </c>
+      <c r="AS29" s="6">
+        <v>9</v>
+      </c>
+      <c r="AT29" s="6">
+        <v>11</v>
+      </c>
+      <c r="AU29" s="6">
+        <v>13</v>
+      </c>
+      <c r="AV29" s="6"/>
+      <c r="AW29" s="6">
+        <v>2</v>
+      </c>
+      <c r="AX29" s="6"/>
+      <c r="AY29" s="6"/>
+      <c r="AZ29" s="6"/>
+      <c r="BA29" s="6"/>
+      <c r="BB29" s="6"/>
+      <c r="BC29" s="6"/>
+      <c r="BD29" s="6"/>
+      <c r="BE29" s="6"/>
+      <c r="BF29" s="6"/>
+      <c r="BG29" s="6"/>
+      <c r="BH29" s="6"/>
+      <c r="BI29" s="6"/>
+      <c r="BJ29" s="6">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="30" spans="1:62">
+      <c r="A30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3">
+        <v>28.090656295576078</v>
+      </c>
+      <c r="I30" s="3">
+        <v>27.118989898989895</v>
+      </c>
+      <c r="J30" s="3">
+        <v>27.157494949494946</v>
+      </c>
+      <c r="K30" s="3">
+        <v>27.491435950413219</v>
+      </c>
+      <c r="L30" s="3">
+        <v>27.301454545454543</v>
+      </c>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3">
+        <v>24.611932310114124</v>
+      </c>
+      <c r="T30" s="3">
+        <v>25.664649658641757</v>
+      </c>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3">
+        <v>26.82194778362134</v>
+      </c>
+      <c r="AF30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="6"/>
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="6">
+        <v>17</v>
+      </c>
+      <c r="AN30" s="6">
+        <v>18</v>
+      </c>
+      <c r="AO30" s="6">
+        <v>45</v>
+      </c>
+      <c r="AP30" s="6">
+        <v>32</v>
+      </c>
+      <c r="AQ30" s="6">
+        <v>20</v>
+      </c>
+      <c r="AR30" s="6"/>
+      <c r="AS30" s="6"/>
+      <c r="AT30" s="6"/>
+      <c r="AU30" s="6"/>
+      <c r="AV30" s="6"/>
+      <c r="AW30" s="6"/>
+      <c r="AX30" s="6">
+        <v>21</v>
+      </c>
+      <c r="AY30" s="6">
+        <v>23</v>
+      </c>
+      <c r="AZ30" s="6"/>
+      <c r="BA30" s="6"/>
+      <c r="BB30" s="6"/>
+      <c r="BC30" s="6"/>
+      <c r="BD30" s="6"/>
+      <c r="BE30" s="6"/>
+      <c r="BF30" s="6"/>
+      <c r="BG30" s="6"/>
+      <c r="BH30" s="6"/>
+      <c r="BI30" s="6"/>
+      <c r="BJ30" s="6">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:62">
+      <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3">
+        <v>33.113719008264461</v>
+      </c>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3">
+        <v>32.502076194315656</v>
+      </c>
+      <c r="T31" s="3">
+        <v>34.689026629935711</v>
+      </c>
+      <c r="U31" s="3">
+        <v>38.960851875397346</v>
+      </c>
+      <c r="V31" s="3">
+        <v>41.404132231404958</v>
+      </c>
+      <c r="W31" s="3">
+        <v>41.165516528925615</v>
+      </c>
+      <c r="X31" s="3">
+        <v>41.567537190082646</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>41.530807374443739</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>41.720962989579576</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>42.113657505285424</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>43.634311294765837</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>46.6</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>48.7</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>39.157040661157033</v>
+      </c>
+      <c r="AF31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="6"/>
+      <c r="AN31" s="6"/>
+      <c r="AO31" s="6"/>
+      <c r="AP31" s="6"/>
+      <c r="AQ31" s="6"/>
+      <c r="AR31" s="6"/>
+      <c r="AS31" s="6"/>
+      <c r="AT31" s="6">
+        <v>1</v>
+      </c>
+      <c r="AU31" s="6"/>
+      <c r="AV31" s="6"/>
+      <c r="AW31" s="6"/>
+      <c r="AX31" s="6">
+        <v>41</v>
+      </c>
+      <c r="AY31" s="6">
+        <v>36</v>
+      </c>
+      <c r="AZ31" s="6">
+        <v>26</v>
+      </c>
+      <c r="BA31" s="6">
+        <v>16</v>
+      </c>
+      <c r="BB31" s="6">
+        <v>16</v>
+      </c>
+      <c r="BC31" s="6">
+        <v>5</v>
+      </c>
+      <c r="BD31" s="6">
+        <v>13</v>
+      </c>
+      <c r="BE31" s="6">
+        <v>23</v>
+      </c>
+      <c r="BF31" s="6">
+        <v>43</v>
+      </c>
+      <c r="BG31" s="6">
+        <v>24</v>
+      </c>
+      <c r="BH31" s="6">
+        <v>19</v>
+      </c>
+      <c r="BI31" s="6">
+        <v>2</v>
+      </c>
+      <c r="BJ31" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:62">
+      <c r="A32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3">
+        <v>31.79126328217237</v>
+      </c>
+      <c r="T32" s="3">
+        <v>34.217460555972956</v>
+      </c>
+      <c r="U32" s="3">
+        <v>37.852892561983474</v>
+      </c>
+      <c r="V32" s="3">
+        <v>40.757685950413226</v>
+      </c>
+      <c r="W32" s="3">
+        <v>39.661074380165289</v>
+      </c>
+      <c r="X32" s="3">
+        <v>40.364033057851245</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>40.283884297520665</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>40.169445100354196</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>40.291164108618659</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>40.705280321643954</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>43</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>44.7</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>39.198998864125969</v>
+      </c>
+      <c r="AF32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="6"/>
+      <c r="AI32" s="6"/>
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="6"/>
+      <c r="AN32" s="6"/>
+      <c r="AO32" s="6"/>
+      <c r="AP32" s="6"/>
+      <c r="AQ32" s="6"/>
+      <c r="AR32" s="6"/>
+      <c r="AS32" s="6"/>
+      <c r="AT32" s="6"/>
+      <c r="AU32" s="6"/>
+      <c r="AV32" s="6"/>
+      <c r="AW32" s="6"/>
+      <c r="AX32" s="6">
+        <v>14</v>
+      </c>
+      <c r="AY32" s="6">
+        <v>22</v>
+      </c>
+      <c r="AZ32" s="6">
+        <v>13</v>
+      </c>
+      <c r="BA32" s="6">
+        <v>3</v>
+      </c>
+      <c r="BB32" s="6">
+        <v>4</v>
+      </c>
+      <c r="BC32" s="6">
+        <v>5</v>
+      </c>
+      <c r="BD32" s="6">
+        <v>4</v>
+      </c>
+      <c r="BE32" s="6">
+        <v>21</v>
+      </c>
+      <c r="BF32" s="6">
+        <v>35</v>
+      </c>
+      <c r="BG32" s="6">
+        <v>74</v>
+      </c>
+      <c r="BH32" s="6">
+        <v>53</v>
+      </c>
+      <c r="BI32" s="6">
+        <v>9</v>
+      </c>
+      <c r="BJ32" s="6">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:62">
+      <c r="A33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3">
+        <v>45.155151515151516</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>45.232303970973604</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>44.7</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>46.3</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>45.217067508589487</v>
+      </c>
+      <c r="AF33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG33" s="6"/>
+      <c r="AH33" s="6"/>
+      <c r="AI33" s="6"/>
+      <c r="AJ33" s="6"/>
+      <c r="AK33" s="6"/>
+      <c r="AL33" s="6"/>
+      <c r="AM33" s="6"/>
+      <c r="AN33" s="6"/>
+      <c r="AO33" s="6"/>
+      <c r="AP33" s="6"/>
+      <c r="AQ33" s="6"/>
+      <c r="AR33" s="6"/>
+      <c r="AS33" s="6"/>
+      <c r="AT33" s="6"/>
+      <c r="AU33" s="6"/>
+      <c r="AV33" s="6"/>
+      <c r="AW33" s="6"/>
+      <c r="AX33" s="6"/>
+      <c r="AY33" s="6"/>
+      <c r="AZ33" s="6"/>
+      <c r="BA33" s="6"/>
+      <c r="BB33" s="6"/>
+      <c r="BC33" s="6"/>
+      <c r="BD33" s="6"/>
+      <c r="BE33" s="6"/>
+      <c r="BF33" s="6">
+        <v>3</v>
+      </c>
+      <c r="BG33" s="6">
+        <v>82</v>
+      </c>
+      <c r="BH33" s="6">
+        <v>18</v>
+      </c>
+      <c r="BI33" s="6">
+        <v>11</v>
+      </c>
+      <c r="BJ33" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:62">
+      <c r="A34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3">
+        <v>32.835371900826445</v>
+      </c>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3">
+        <v>39.627685950413223</v>
+      </c>
+      <c r="V34" s="3">
+        <v>32.603856749311291</v>
+      </c>
+      <c r="W34" s="3">
+        <v>32.72757631978412</v>
+      </c>
+      <c r="X34" s="3">
+        <v>33.564683195592288</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>32.045068870523416</v>
+      </c>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3">
+        <v>32.845619834710746</v>
+      </c>
+      <c r="AF34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG34" s="6"/>
+      <c r="AH34" s="6"/>
+      <c r="AI34" s="6"/>
+      <c r="AJ34" s="6"/>
+      <c r="AK34" s="6"/>
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="6"/>
+      <c r="AN34" s="6"/>
+      <c r="AO34" s="6"/>
+      <c r="AP34" s="6"/>
+      <c r="AQ34" s="6"/>
+      <c r="AR34" s="6"/>
+      <c r="AS34" s="6"/>
+      <c r="AT34" s="6"/>
+      <c r="AU34" s="6"/>
+      <c r="AV34" s="6"/>
+      <c r="AW34" s="6"/>
+      <c r="AX34" s="6">
+        <v>1</v>
+      </c>
+      <c r="AY34" s="6"/>
+      <c r="AZ34" s="6">
+        <v>4</v>
+      </c>
+      <c r="BA34" s="6">
+        <v>114</v>
+      </c>
+      <c r="BB34" s="6">
+        <v>49</v>
+      </c>
+      <c r="BC34" s="6">
+        <v>12</v>
+      </c>
+      <c r="BD34" s="6">
+        <v>3</v>
+      </c>
+      <c r="BE34" s="6"/>
+      <c r="BF34" s="6"/>
+      <c r="BG34" s="6"/>
+      <c r="BH34" s="6"/>
+      <c r="BI34" s="6"/>
+      <c r="BJ34" s="6">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:62">
+      <c r="A35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3">
+        <v>35.088117539026626</v>
+      </c>
+      <c r="T35" s="3">
+        <v>38.385578512396691</v>
+      </c>
+      <c r="U35" s="3">
+        <v>40.790454545454544</v>
+      </c>
+      <c r="V35" s="3">
+        <v>44.647206611570255</v>
+      </c>
+      <c r="W35" s="3">
+        <v>45.664573002754821</v>
+      </c>
+      <c r="X35" s="3">
+        <v>45.000247933884303</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>44.819008264462809</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>45.472207792207804</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>45.752632821723729</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>45.787582644628102</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>46.5</v>
+      </c>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3">
+        <v>41.867984861357861</v>
+      </c>
+      <c r="AF35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="6"/>
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="6"/>
+      <c r="AN35" s="6"/>
+      <c r="AO35" s="6"/>
+      <c r="AP35" s="6"/>
+      <c r="AQ35" s="6"/>
+      <c r="AR35" s="6"/>
+      <c r="AS35" s="6"/>
+      <c r="AT35" s="6"/>
+      <c r="AU35" s="6"/>
+      <c r="AV35" s="6"/>
+      <c r="AW35" s="6"/>
+      <c r="AX35" s="6">
+        <v>18</v>
+      </c>
+      <c r="AY35" s="6">
+        <v>24</v>
+      </c>
+      <c r="AZ35" s="6">
+        <v>8</v>
+      </c>
+      <c r="BA35" s="6">
+        <v>5</v>
+      </c>
+      <c r="BB35" s="6">
+        <v>3</v>
+      </c>
+      <c r="BC35" s="6">
+        <v>4</v>
+      </c>
+      <c r="BD35" s="6">
+        <v>2</v>
+      </c>
+      <c r="BE35" s="6">
+        <v>7</v>
+      </c>
+      <c r="BF35" s="6">
+        <v>14</v>
+      </c>
+      <c r="BG35" s="6">
+        <v>16</v>
+      </c>
+      <c r="BH35" s="6">
+        <v>9</v>
+      </c>
+      <c r="BI35" s="6"/>
+      <c r="BJ35" s="6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:62">
+      <c r="A36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3">
+        <v>24.360462809917358</v>
+      </c>
+      <c r="T36" s="3">
+        <v>25.978984651711929</v>
+      </c>
+      <c r="U36" s="3">
+        <v>25.878181818181819</v>
+      </c>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3">
+        <v>25.631087603305783</v>
+      </c>
+      <c r="AF36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="6"/>
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="6"/>
+      <c r="AL36" s="6"/>
+      <c r="AM36" s="6"/>
+      <c r="AN36" s="6"/>
+      <c r="AO36" s="6"/>
+      <c r="AP36" s="6"/>
+      <c r="AQ36" s="6"/>
+      <c r="AR36" s="6"/>
+      <c r="AS36" s="6"/>
+      <c r="AT36" s="6"/>
+      <c r="AU36" s="6"/>
+      <c r="AV36" s="6"/>
+      <c r="AW36" s="6"/>
+      <c r="AX36" s="6">
+        <v>5</v>
+      </c>
+      <c r="AY36" s="6">
+        <v>14</v>
+      </c>
+      <c r="AZ36" s="6">
+        <v>6</v>
+      </c>
+      <c r="BA36" s="6"/>
+      <c r="BB36" s="6"/>
+      <c r="BC36" s="6"/>
+      <c r="BD36" s="6"/>
+      <c r="BE36" s="6"/>
+      <c r="BF36" s="6"/>
+      <c r="BG36" s="6"/>
+      <c r="BH36" s="6"/>
+      <c r="BI36" s="6"/>
+      <c r="BJ36" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:62">
+      <c r="A37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3">
+        <v>46.3</v>
+      </c>
+      <c r="AD37" s="3">
+        <v>46.7</v>
+      </c>
+      <c r="AE37" s="3">
+        <f>AVERAGE(AC37:AD37)</f>
+        <v>46.5</v>
+      </c>
+      <c r="AF37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG37" s="6"/>
+      <c r="AH37" s="6"/>
+      <c r="AI37" s="6"/>
+      <c r="AJ37" s="6"/>
+      <c r="AK37" s="6"/>
+      <c r="AL37" s="6"/>
+      <c r="AM37" s="6"/>
+      <c r="AN37" s="6"/>
+      <c r="AO37" s="6"/>
+      <c r="AP37" s="6"/>
+      <c r="AQ37" s="6"/>
+      <c r="AR37" s="6"/>
+      <c r="AS37" s="6"/>
+      <c r="AT37" s="6"/>
+      <c r="AU37" s="6"/>
+      <c r="AV37" s="6"/>
+      <c r="AW37" s="6"/>
+      <c r="AX37" s="6"/>
+      <c r="AY37" s="6"/>
+      <c r="AZ37" s="6"/>
+      <c r="BA37" s="6"/>
+      <c r="BB37" s="6"/>
+      <c r="BC37" s="6"/>
+      <c r="BD37" s="6"/>
+      <c r="BE37" s="6"/>
+      <c r="BF37" s="6"/>
+      <c r="BG37" s="6"/>
+      <c r="BH37" s="6">
+        <v>86</v>
+      </c>
+      <c r="BI37" s="6">
+        <v>54</v>
+      </c>
+      <c r="BJ37" s="6">
+        <f>SUM(BH37:BI37)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:62">
+      <c r="A38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3">
+        <v>36.834214876033059</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>37.243801652892564</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>37.855305785123974</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>37.721057851239671</v>
+      </c>
+      <c r="AC38" s="3">
+        <v>37.6</v>
+      </c>
+      <c r="AD38" s="3">
+        <v>38.6</v>
+      </c>
+      <c r="AE38" s="3">
+        <v>37.506535093129379</v>
+      </c>
+      <c r="AF38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG38" s="6"/>
+      <c r="AH38" s="6"/>
+      <c r="AI38" s="6"/>
+      <c r="AJ38" s="6"/>
+      <c r="AK38" s="6"/>
+      <c r="AL38" s="6"/>
+      <c r="AM38" s="6"/>
+      <c r="AN38" s="6"/>
+      <c r="AO38" s="6"/>
+      <c r="AP38" s="6"/>
+      <c r="AQ38" s="6"/>
+      <c r="AR38" s="6"/>
+      <c r="AS38" s="6"/>
+      <c r="AT38" s="6"/>
+      <c r="AU38" s="6"/>
+      <c r="AV38" s="6"/>
+      <c r="AW38" s="6"/>
+      <c r="AX38" s="6"/>
+      <c r="AY38" s="6"/>
+      <c r="AZ38" s="6"/>
+      <c r="BA38" s="6"/>
+      <c r="BB38" s="6"/>
+      <c r="BC38" s="6"/>
+      <c r="BD38" s="6">
+        <v>4</v>
+      </c>
+      <c r="BE38" s="6">
+        <v>20</v>
+      </c>
+      <c r="BF38" s="6">
+        <v>20</v>
+      </c>
+      <c r="BG38" s="6">
+        <v>15</v>
+      </c>
+      <c r="BH38" s="6">
+        <v>22</v>
+      </c>
+      <c r="BI38" s="6">
+        <v>12</v>
+      </c>
+      <c r="BJ38" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:62">
+      <c r="A39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3">
+        <v>43.387423643550143</v>
+      </c>
+      <c r="Z39" s="3">
+        <v>43.809247498912562</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>41.649076741440375</v>
+      </c>
+      <c r="AB39" s="3">
+        <v>41.423471074380167</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>40.4</v>
+      </c>
+      <c r="AD39" s="3">
+        <v>39.5</v>
+      </c>
+      <c r="AE39" s="3">
+        <v>42.759530482692526</v>
+      </c>
+      <c r="AF39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG39" s="6"/>
+      <c r="AH39" s="6"/>
+      <c r="AI39" s="6"/>
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="6"/>
+      <c r="AM39" s="6"/>
+      <c r="AN39" s="6"/>
+      <c r="AO39" s="6"/>
+      <c r="AP39" s="6"/>
+      <c r="AQ39" s="6"/>
+      <c r="AR39" s="6"/>
+      <c r="AS39" s="6"/>
+      <c r="AT39" s="6"/>
+      <c r="AU39" s="6"/>
+      <c r="AV39" s="6"/>
+      <c r="AW39" s="6"/>
+      <c r="AX39" s="6"/>
+      <c r="AY39" s="6"/>
+      <c r="AZ39" s="6"/>
+      <c r="BA39" s="6"/>
+      <c r="BB39" s="6"/>
+      <c r="BC39" s="6"/>
+      <c r="BD39" s="6">
+        <v>46</v>
+      </c>
+      <c r="BE39" s="6">
+        <v>76</v>
+      </c>
+      <c r="BF39" s="6">
+        <v>35</v>
+      </c>
+      <c r="BG39" s="6">
+        <v>42</v>
+      </c>
+      <c r="BH39" s="6">
+        <v>32</v>
+      </c>
+      <c r="BI39" s="6">
+        <v>4</v>
+      </c>
+      <c r="BJ39" s="6">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:62">
+      <c r="A40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3">
+        <v>45.4</v>
+      </c>
+      <c r="AD40" s="3">
+        <v>45.8</v>
+      </c>
+      <c r="AE40" s="3">
+        <f>AVERAGE(AC40:AD40)</f>
+        <v>45.599999999999994</v>
+      </c>
+      <c r="AF40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG40" s="6"/>
+      <c r="AH40" s="6"/>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="6"/>
+      <c r="AL40" s="6"/>
+      <c r="AM40" s="6"/>
+      <c r="AN40" s="6"/>
+      <c r="AO40" s="6"/>
+      <c r="AP40" s="6"/>
+      <c r="AQ40" s="6"/>
+      <c r="AR40" s="6"/>
+      <c r="AS40" s="6"/>
+      <c r="AT40" s="6"/>
+      <c r="AU40" s="6"/>
+      <c r="AV40" s="6"/>
+      <c r="AW40" s="6"/>
+      <c r="AX40" s="6"/>
+      <c r="AY40" s="6"/>
+      <c r="AZ40" s="6"/>
+      <c r="BA40" s="6"/>
+      <c r="BB40" s="6"/>
+      <c r="BC40" s="6"/>
+      <c r="BD40" s="6"/>
+      <c r="BE40" s="6"/>
+      <c r="BF40" s="6"/>
+      <c r="BG40" s="6"/>
+      <c r="BH40" s="6">
+        <v>207</v>
+      </c>
+      <c r="BI40" s="6">
+        <v>205</v>
+      </c>
+      <c r="BJ40" s="6">
+        <f>SUM(BH40:BI40)</f>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="41" spans="1:62">
+      <c r="A41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3">
+        <v>34.736859504132234</v>
+      </c>
+      <c r="X41" s="3">
+        <v>34.037045454545456</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>34.425454545454549</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>35.669106650924839</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>35.770456075910616</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>36.507785993910396</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>38.9</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>36.9</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>35.579191919191913</v>
+      </c>
+      <c r="AF41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG41" s="6"/>
+      <c r="AH41" s="6"/>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="6"/>
+      <c r="AL41" s="6"/>
+      <c r="AM41" s="6"/>
+      <c r="AN41" s="6"/>
+      <c r="AO41" s="6"/>
+      <c r="AP41" s="6"/>
+      <c r="AQ41" s="6"/>
+      <c r="AR41" s="6"/>
+      <c r="AS41" s="6"/>
+      <c r="AT41" s="6"/>
+      <c r="AU41" s="6"/>
+      <c r="AV41" s="6"/>
+      <c r="AW41" s="6"/>
+      <c r="AX41" s="6"/>
+      <c r="AY41" s="6"/>
+      <c r="AZ41" s="6"/>
+      <c r="BA41" s="6"/>
+      <c r="BB41" s="6">
+        <v>1</v>
+      </c>
+      <c r="BC41" s="6">
+        <v>16</v>
+      </c>
+      <c r="BD41" s="6">
+        <v>16</v>
+      </c>
+      <c r="BE41" s="6">
+        <v>42</v>
+      </c>
+      <c r="BF41" s="6">
+        <v>27</v>
+      </c>
+      <c r="BG41" s="6">
+        <v>19</v>
+      </c>
+      <c r="BH41" s="6">
+        <v>9</v>
+      </c>
+      <c r="BI41" s="6">
+        <v>3</v>
+      </c>
+      <c r="BJ41" s="6">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:62">
+      <c r="A42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3">
+        <v>30.862148760330577</v>
+      </c>
+      <c r="J42" s="3">
+        <v>32.144793388429754</v>
+      </c>
+      <c r="K42" s="3">
+        <v>33.03500056605909</v>
+      </c>
+      <c r="L42" s="3">
+        <v>34.135147779801088</v>
+      </c>
+      <c r="M42" s="3">
+        <v>32.31922464312548</v>
+      </c>
+      <c r="N42" s="3">
+        <v>28.653730027548207</v>
+      </c>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3">
+        <v>21.190082644628099</v>
+      </c>
+      <c r="T42" s="3">
+        <v>22.257851239669421</v>
+      </c>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3">
+        <v>32.98059824842727</v>
+      </c>
+      <c r="AF42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG42" s="6"/>
+      <c r="AH42" s="6"/>
+      <c r="AI42" s="6"/>
+      <c r="AJ42" s="6"/>
+      <c r="AK42" s="6"/>
+      <c r="AL42" s="6"/>
+      <c r="AM42" s="6"/>
+      <c r="AN42" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO42" s="6">
+        <v>3</v>
+      </c>
+      <c r="AP42" s="6">
+        <v>73</v>
+      </c>
+      <c r="AQ42" s="6">
+        <v>118</v>
+      </c>
+      <c r="AR42" s="6">
+        <v>55</v>
+      </c>
+      <c r="AS42" s="6">
+        <v>15</v>
+      </c>
+      <c r="AT42" s="6"/>
+      <c r="AU42" s="6"/>
+      <c r="AV42" s="6"/>
+      <c r="AW42" s="6"/>
+      <c r="AX42" s="6">
+        <v>2</v>
+      </c>
+      <c r="AY42" s="6">
+        <v>1</v>
+      </c>
+      <c r="AZ42" s="6"/>
+      <c r="BA42" s="6"/>
+      <c r="BB42" s="6"/>
+      <c r="BC42" s="6"/>
+      <c r="BD42" s="6"/>
+      <c r="BE42" s="6"/>
+      <c r="BF42" s="6"/>
+      <c r="BG42" s="6"/>
+      <c r="BH42" s="6"/>
+      <c r="BI42" s="6"/>
+      <c r="BJ42" s="6">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:62">
+      <c r="A43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3">
+        <v>23.241652892561984</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3">
+        <v>25.000624082799099</v>
+      </c>
+      <c r="I43" s="3">
+        <v>25.242714558169112</v>
+      </c>
+      <c r="J43" s="3">
+        <v>25.155096418732782</v>
+      </c>
+      <c r="K43" s="3">
+        <v>24.828044077134987</v>
+      </c>
+      <c r="L43" s="3">
+        <v>25.219310344827583</v>
+      </c>
+      <c r="M43" s="3">
+        <v>24.881339712918663</v>
+      </c>
+      <c r="N43" s="3">
+        <v>25.389930069930067</v>
+      </c>
+      <c r="O43" s="3">
+        <v>25.619037433155075</v>
+      </c>
+      <c r="P43" s="3">
+        <v>26.312780165289254</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>25.922975206611568</v>
+      </c>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3">
+        <v>28.12136363636364</v>
+      </c>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3">
+        <v>25.297991064194271</v>
+      </c>
+      <c r="AF43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG43" s="6"/>
+      <c r="AH43" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI43" s="6"/>
+      <c r="AJ43" s="6"/>
+      <c r="AK43" s="6"/>
+      <c r="AL43" s="6"/>
+      <c r="AM43" s="6">
+        <v>107</v>
+      </c>
+      <c r="AN43" s="6">
+        <v>52</v>
+      </c>
+      <c r="AO43" s="6">
+        <v>30</v>
+      </c>
+      <c r="AP43" s="6">
+        <v>24</v>
+      </c>
+      <c r="AQ43" s="6">
+        <v>29</v>
+      </c>
+      <c r="AR43" s="6">
+        <v>19</v>
+      </c>
+      <c r="AS43" s="6">
+        <v>26</v>
+      </c>
+      <c r="AT43" s="6">
+        <v>34</v>
+      </c>
+      <c r="AU43" s="6">
+        <v>25</v>
+      </c>
+      <c r="AV43" s="6">
+        <v>2</v>
+      </c>
+      <c r="AW43" s="6"/>
+      <c r="AX43" s="6">
+        <v>8</v>
+      </c>
+      <c r="AY43" s="6"/>
+      <c r="AZ43" s="6"/>
+      <c r="BA43" s="6"/>
+      <c r="BB43" s="6"/>
+      <c r="BC43" s="6"/>
+      <c r="BD43" s="6"/>
+      <c r="BE43" s="6"/>
+      <c r="BF43" s="6"/>
+      <c r="BG43" s="6"/>
+      <c r="BH43" s="6"/>
+      <c r="BI43" s="6"/>
+      <c r="BJ43" s="6">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="44" spans="1:62">
+      <c r="A44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3">
+        <v>24.170106257378983</v>
+      </c>
+      <c r="J44" s="3">
+        <v>24.060140495867767</v>
+      </c>
+      <c r="K44" s="3">
+        <v>24.032684153790875</v>
+      </c>
+      <c r="L44" s="3">
+        <v>24.350582185491273</v>
+      </c>
+      <c r="M44" s="3">
+        <v>24.168639118457303</v>
+      </c>
+      <c r="N44" s="3">
+        <v>24.160153482880759</v>
+      </c>
+      <c r="O44" s="3">
+        <v>25.021397445529676</v>
+      </c>
+      <c r="P44" s="3">
+        <v>25.395319704219229</v>
+      </c>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3">
+        <v>24.378142092008638</v>
+      </c>
+      <c r="AF44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG44" s="6"/>
+      <c r="AH44" s="6"/>
+      <c r="AI44" s="6"/>
+      <c r="AJ44" s="6"/>
+      <c r="AK44" s="6"/>
+      <c r="AL44" s="6"/>
+      <c r="AM44" s="6"/>
+      <c r="AN44" s="6">
+        <v>7</v>
+      </c>
+      <c r="AO44" s="6">
+        <v>40</v>
+      </c>
+      <c r="AP44" s="6">
+        <v>46</v>
+      </c>
+      <c r="AQ44" s="6">
+        <v>45</v>
+      </c>
+      <c r="AR44" s="6">
+        <v>15</v>
+      </c>
+      <c r="AS44" s="6">
+        <v>28</v>
+      </c>
+      <c r="AT44" s="6">
+        <v>33</v>
+      </c>
+      <c r="AU44" s="6">
+        <v>19</v>
+      </c>
+      <c r="AV44" s="6"/>
+      <c r="AW44" s="6"/>
+      <c r="AX44" s="6"/>
+      <c r="AY44" s="6"/>
+      <c r="AZ44" s="6"/>
+      <c r="BA44" s="6"/>
+      <c r="BB44" s="6"/>
+      <c r="BC44" s="6"/>
+      <c r="BD44" s="6"/>
+      <c r="BE44" s="6"/>
+      <c r="BF44" s="6"/>
+      <c r="BG44" s="6"/>
+      <c r="BH44" s="6"/>
+      <c r="BI44" s="6"/>
+      <c r="BJ44" s="6">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:62">
+      <c r="A45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3">
+        <v>38.307193542187186</v>
+      </c>
+      <c r="X45" s="3">
+        <v>39.026623905267066</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>38.824910063198821</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>39.891727132651638</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>41.99315289256198</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>42.620132639526574</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>43.2</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>41.7</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>40.418343254068866</v>
+      </c>
+      <c r="AF45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG45" s="6"/>
+      <c r="AH45" s="6"/>
+      <c r="AI45" s="6"/>
+      <c r="AJ45" s="6"/>
+      <c r="AK45" s="6"/>
+      <c r="AL45" s="6"/>
+      <c r="AM45" s="6"/>
+      <c r="AN45" s="6"/>
+      <c r="AO45" s="6"/>
+      <c r="AP45" s="6"/>
+      <c r="AQ45" s="6"/>
+      <c r="AR45" s="6"/>
+      <c r="AS45" s="6"/>
+      <c r="AT45" s="6"/>
+      <c r="AU45" s="6"/>
+      <c r="AV45" s="6"/>
+      <c r="AW45" s="6"/>
+      <c r="AX45" s="6"/>
+      <c r="AY45" s="6"/>
+      <c r="AZ45" s="6"/>
+      <c r="BA45" s="6"/>
+      <c r="BB45" s="6">
+        <v>215</v>
+      </c>
+      <c r="BC45" s="6">
+        <v>67</v>
+      </c>
+      <c r="BD45" s="6">
+        <v>51</v>
+      </c>
+      <c r="BE45" s="6">
+        <v>177</v>
+      </c>
+      <c r="BF45" s="6">
+        <v>80</v>
+      </c>
+      <c r="BG45" s="6">
+        <v>162</v>
+      </c>
+      <c r="BH45" s="6">
+        <v>145</v>
+      </c>
+      <c r="BI45" s="6">
+        <v>101</v>
+      </c>
+      <c r="BJ45" s="6">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="46" spans="1:62">
+      <c r="A46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3">
+        <v>30.763801652892564</v>
+      </c>
+      <c r="T46" s="3">
+        <v>31.255658726300446</v>
+      </c>
+      <c r="U46" s="3">
+        <v>33.107190082644635</v>
+      </c>
+      <c r="V46" s="3">
+        <v>35.445685950413221</v>
+      </c>
+      <c r="W46" s="3">
+        <v>35.633608815427003</v>
+      </c>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3">
+        <v>35.685289256198345</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>34.921239669421489</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>36.14413223140496</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>35.08793388429752</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>35.703933884297527</v>
+      </c>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3">
+        <v>32.887618219101476</v>
+      </c>
+      <c r="AF46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG46" s="6"/>
+      <c r="AH46" s="6"/>
+      <c r="AI46" s="6"/>
+      <c r="AJ46" s="6"/>
+      <c r="AK46" s="6"/>
+      <c r="AL46" s="6"/>
+      <c r="AM46" s="6"/>
+      <c r="AN46" s="6"/>
+      <c r="AO46" s="6"/>
+      <c r="AP46" s="6"/>
+      <c r="AQ46" s="6"/>
+      <c r="AR46" s="6"/>
+      <c r="AS46" s="6"/>
+      <c r="AT46" s="6"/>
+      <c r="AU46" s="6"/>
+      <c r="AV46" s="6"/>
+      <c r="AW46" s="6"/>
+      <c r="AX46" s="6">
+        <v>2</v>
+      </c>
+      <c r="AY46" s="6">
+        <v>68</v>
+      </c>
+      <c r="AZ46" s="6">
+        <v>20</v>
+      </c>
+      <c r="BA46" s="6">
+        <v>10</v>
+      </c>
+      <c r="BB46" s="6">
+        <v>3</v>
+      </c>
+      <c r="BC46" s="6"/>
+      <c r="BD46" s="6">
+        <v>2</v>
+      </c>
+      <c r="BE46" s="6">
+        <v>4</v>
+      </c>
+      <c r="BF46" s="6">
+        <v>7</v>
+      </c>
+      <c r="BG46" s="6">
+        <v>12</v>
+      </c>
+      <c r="BH46" s="6">
+        <v>5</v>
+      </c>
+      <c r="BI46" s="6"/>
+      <c r="BJ46" s="6">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:62">
+      <c r="A47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="3">
+        <v>29.909403687221864</v>
+      </c>
+      <c r="C47" s="3">
+        <v>29.884488636363624</v>
+      </c>
+      <c r="D47" s="3">
+        <v>30.378404827495743</v>
+      </c>
+      <c r="E47" s="3">
+        <v>30.697321639399558</v>
+      </c>
+      <c r="F47" s="3">
+        <v>30.795757996340942</v>
+      </c>
+      <c r="G47" s="3">
+        <v>30.669269362978131</v>
+      </c>
+      <c r="H47" s="3">
+        <v>31.475724815724831</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3">
+        <v>31.673719008264463</v>
+      </c>
+      <c r="N47" s="3">
+        <v>32.688264462809919</v>
+      </c>
+      <c r="O47" s="3">
+        <v>31.390082644628098</v>
+      </c>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3">
+        <v>33.913719008264465</v>
+      </c>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3">
+        <v>30.482829242218632</v>
+      </c>
+      <c r="AF47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG47" s="6">
+        <v>130</v>
+      </c>
+      <c r="AH47" s="6">
+        <v>128</v>
+      </c>
+      <c r="AI47" s="6">
+        <v>126</v>
+      </c>
+      <c r="AJ47" s="6">
+        <v>98</v>
+      </c>
+      <c r="AK47" s="6">
+        <v>131</v>
+      </c>
+      <c r="AL47" s="6">
+        <v>113</v>
+      </c>
+      <c r="AM47" s="6">
+        <v>74</v>
+      </c>
+      <c r="AN47" s="6"/>
+      <c r="AO47" s="6"/>
+      <c r="AP47" s="6"/>
+      <c r="AQ47" s="6"/>
+      <c r="AR47" s="6">
+        <v>1</v>
+      </c>
+      <c r="AS47" s="6">
+        <v>1</v>
+      </c>
+      <c r="AT47" s="6">
+        <v>1</v>
+      </c>
+      <c r="AU47" s="6"/>
+      <c r="AV47" s="6">
+        <v>1</v>
+      </c>
+      <c r="AW47" s="6"/>
+      <c r="AX47" s="6"/>
+      <c r="AY47" s="6"/>
+      <c r="AZ47" s="6"/>
+      <c r="BA47" s="6"/>
+      <c r="BB47" s="6"/>
+      <c r="BC47" s="6"/>
+      <c r="BD47" s="6"/>
+      <c r="BE47" s="6"/>
+      <c r="BF47" s="6"/>
+      <c r="BG47" s="6"/>
+      <c r="BH47" s="6"/>
+      <c r="BI47" s="6"/>
+      <c r="BJ47" s="6">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="48" spans="1:62">
+      <c r="A48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3">
+        <v>30.089404807036168</v>
+      </c>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3">
+        <v>30.089404807036168</v>
+      </c>
+      <c r="AF48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG48" s="6"/>
+      <c r="AH48" s="6"/>
+      <c r="AI48" s="6"/>
+      <c r="AJ48" s="6"/>
+      <c r="AK48" s="6"/>
+      <c r="AL48" s="6"/>
+      <c r="AM48" s="6"/>
+      <c r="AN48" s="6"/>
+      <c r="AO48" s="6"/>
+      <c r="AP48" s="6"/>
+      <c r="AQ48" s="6"/>
+      <c r="AR48" s="6"/>
+      <c r="AS48" s="6"/>
+      <c r="AT48" s="6"/>
+      <c r="AU48" s="6"/>
+      <c r="AV48" s="6"/>
+      <c r="AW48" s="6"/>
+      <c r="AX48" s="6">
+        <v>109</v>
+      </c>
+      <c r="AY48" s="6"/>
+      <c r="AZ48" s="6"/>
+      <c r="BA48" s="6"/>
+      <c r="BB48" s="6"/>
+      <c r="BC48" s="6"/>
+      <c r="BD48" s="6"/>
+      <c r="BE48" s="6"/>
+      <c r="BF48" s="6"/>
+      <c r="BG48" s="6"/>
+      <c r="BH48" s="6"/>
+      <c r="BI48" s="6"/>
+      <c r="BJ48" s="6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:62">
+      <c r="A49" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3">
+        <v>23.109902329075883</v>
+      </c>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3">
+        <v>23.109902329075883</v>
+      </c>
+      <c r="AF49" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG49" s="6"/>
+      <c r="AH49" s="6"/>
+      <c r="AI49" s="6"/>
+      <c r="AJ49" s="6"/>
+      <c r="AK49" s="6"/>
+      <c r="AL49" s="6"/>
+      <c r="AM49" s="6"/>
+      <c r="AN49" s="6"/>
+      <c r="AO49" s="6"/>
+      <c r="AP49" s="6"/>
+      <c r="AQ49" s="6"/>
+      <c r="AR49" s="6"/>
+      <c r="AS49" s="6"/>
+      <c r="AT49" s="6"/>
+      <c r="AU49" s="6"/>
+      <c r="AV49" s="6"/>
+      <c r="AW49" s="6"/>
+      <c r="AX49" s="6">
+        <v>11</v>
+      </c>
+      <c r="AY49" s="6"/>
+      <c r="AZ49" s="6"/>
+      <c r="BA49" s="6"/>
+      <c r="BB49" s="6"/>
+      <c r="BC49" s="6"/>
+      <c r="BD49" s="6"/>
+      <c r="BE49" s="6"/>
+      <c r="BF49" s="6"/>
+      <c r="BG49" s="6"/>
+      <c r="BH49" s="6"/>
+      <c r="BI49" s="6"/>
+      <c r="BJ49" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:62">
+      <c r="A50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="3">
+        <v>45.5</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>47.9</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>45.284638270820096</v>
+      </c>
+      <c r="AF50" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG50" s="6"/>
+      <c r="AH50" s="6"/>
+      <c r="AI50" s="6"/>
+      <c r="AJ50" s="6"/>
+      <c r="AK50" s="6"/>
+      <c r="AL50" s="6"/>
+      <c r="AM50" s="6"/>
+      <c r="AN50" s="6"/>
+      <c r="AO50" s="6"/>
+      <c r="AP50" s="6"/>
+      <c r="AQ50" s="6"/>
+      <c r="AR50" s="6"/>
+      <c r="AS50" s="6"/>
+      <c r="AT50" s="6"/>
+      <c r="AU50" s="6"/>
+      <c r="AV50" s="6"/>
+      <c r="AW50" s="6"/>
+      <c r="AX50" s="6"/>
+      <c r="AY50" s="6"/>
+      <c r="AZ50" s="6"/>
+      <c r="BA50" s="6"/>
+      <c r="BB50" s="6"/>
+      <c r="BC50" s="6"/>
+      <c r="BD50" s="6"/>
+      <c r="BE50" s="6"/>
+      <c r="BF50" s="6"/>
+      <c r="BG50" s="6"/>
+      <c r="BH50" s="6">
+        <v>100</v>
+      </c>
+      <c r="BI50" s="6">
+        <v>35</v>
+      </c>
+      <c r="BJ50" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:62">
+      <c r="A51" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3">
+        <v>32.760914934468651</v>
+      </c>
+      <c r="U51" s="3">
+        <v>36.494198347107435</v>
+      </c>
+      <c r="V51" s="3">
+        <v>35.372966023875122</v>
+      </c>
+      <c r="W51" s="3">
+        <v>35.519669421487606</v>
+      </c>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="3"/>
+      <c r="AC51" s="3"/>
+      <c r="AD51" s="3"/>
+      <c r="AE51" s="3">
+        <v>33.543340380549672</v>
+      </c>
+      <c r="AF51" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG51" s="6"/>
+      <c r="AH51" s="6"/>
+      <c r="AI51" s="6"/>
+      <c r="AJ51" s="6"/>
+      <c r="AK51" s="6"/>
+      <c r="AL51" s="6"/>
+      <c r="AM51" s="6"/>
+      <c r="AN51" s="6"/>
+      <c r="AO51" s="6"/>
+      <c r="AP51" s="6"/>
+      <c r="AQ51" s="6"/>
+      <c r="AR51" s="6"/>
+      <c r="AS51" s="6"/>
+      <c r="AT51" s="6"/>
+      <c r="AU51" s="6"/>
+      <c r="AV51" s="6"/>
+      <c r="AW51" s="6"/>
+      <c r="AX51" s="6"/>
+      <c r="AY51" s="6">
+        <v>99</v>
+      </c>
+      <c r="AZ51" s="6">
+        <v>20</v>
+      </c>
+      <c r="BA51" s="6">
+        <v>9</v>
+      </c>
+      <c r="BB51" s="6">
+        <v>1</v>
+      </c>
+      <c r="BC51" s="6"/>
+      <c r="BD51" s="6"/>
+      <c r="BE51" s="6"/>
+      <c r="BF51" s="6"/>
+      <c r="BG51" s="6"/>
+      <c r="BH51" s="6"/>
+      <c r="BI51" s="6"/>
+      <c r="BJ51" s="6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:62">
+      <c r="A52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3">
+        <v>27.261487603305788</v>
+      </c>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3"/>
+      <c r="AC52" s="3"/>
+      <c r="AD52" s="3"/>
+      <c r="AE52" s="3">
+        <v>27.261487603305788</v>
+      </c>
+      <c r="AF52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG52" s="6"/>
+      <c r="AH52" s="6"/>
+      <c r="AI52" s="6"/>
+      <c r="AJ52" s="6"/>
+      <c r="AK52" s="6"/>
+      <c r="AL52" s="6"/>
+      <c r="AM52" s="6"/>
+      <c r="AN52" s="6"/>
+      <c r="AO52" s="6"/>
+      <c r="AP52" s="6"/>
+      <c r="AQ52" s="6"/>
+      <c r="AR52" s="6"/>
+      <c r="AS52" s="6"/>
+      <c r="AT52" s="6"/>
+      <c r="AU52" s="6"/>
+      <c r="AV52" s="6"/>
+      <c r="AW52" s="6"/>
+      <c r="AX52" s="6"/>
+      <c r="AY52" s="6">
+        <v>2</v>
+      </c>
+      <c r="AZ52" s="6"/>
+      <c r="BA52" s="6"/>
+      <c r="BB52" s="6"/>
+      <c r="BC52" s="6"/>
+      <c r="BD52" s="6"/>
+      <c r="BE52" s="6"/>
+      <c r="BF52" s="6"/>
+      <c r="BG52" s="6"/>
+      <c r="BH52" s="6"/>
+      <c r="BI52" s="6"/>
+      <c r="BJ52" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:62">
+      <c r="A53" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3">
+        <v>35.994380165289257</v>
+      </c>
+      <c r="X53" s="3">
+        <v>35.451176702085796</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>34.811504132231406</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>35.429340679522497</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>35.691587646802958</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>36.311148591668086</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="3">
+        <v>35.731784151677246</v>
+      </c>
+      <c r="AF53" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG53" s="6"/>
+      <c r="AH53" s="6"/>
+      <c r="AI53" s="6"/>
+      <c r="AJ53" s="6"/>
+      <c r="AK53" s="6"/>
+      <c r="AL53" s="6"/>
+      <c r="AM53" s="6"/>
+      <c r="AN53" s="6"/>
+      <c r="AO53" s="6"/>
+      <c r="AP53" s="6"/>
+      <c r="AQ53" s="6"/>
+      <c r="AR53" s="6"/>
+      <c r="AS53" s="6"/>
+      <c r="AT53" s="6"/>
+      <c r="AU53" s="6"/>
+      <c r="AV53" s="6"/>
+      <c r="AW53" s="6"/>
+      <c r="AX53" s="6"/>
+      <c r="AY53" s="6"/>
+      <c r="AZ53" s="6"/>
+      <c r="BA53" s="6"/>
+      <c r="BB53" s="6">
+        <v>14</v>
+      </c>
+      <c r="BC53" s="6">
+        <v>21</v>
+      </c>
+      <c r="BD53" s="6">
+        <v>20</v>
+      </c>
+      <c r="BE53" s="6">
+        <v>45</v>
+      </c>
+      <c r="BF53" s="6">
+        <v>57</v>
+      </c>
+      <c r="BG53" s="6">
+        <v>49</v>
+      </c>
+      <c r="BH53" s="6">
+        <v>18</v>
+      </c>
+      <c r="BI53" s="6"/>
+      <c r="BJ53" s="6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:62">
+      <c r="A54" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3">
+        <v>26.823779614325083</v>
+      </c>
+      <c r="T54" s="3">
+        <v>28.416122786304605</v>
+      </c>
+      <c r="U54" s="3">
+        <v>30.210702479338845</v>
+      </c>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="3"/>
+      <c r="AD54" s="3"/>
+      <c r="AE54" s="3">
+        <v>27.958401449111292</v>
+      </c>
+      <c r="AF54" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG54" s="6"/>
+      <c r="AH54" s="6"/>
+      <c r="AI54" s="6"/>
+      <c r="AJ54" s="6"/>
+      <c r="AK54" s="6"/>
+      <c r="AL54" s="6"/>
+      <c r="AM54" s="6"/>
+      <c r="AN54" s="6"/>
+      <c r="AO54" s="6"/>
+      <c r="AP54" s="6"/>
+      <c r="AQ54" s="6"/>
+      <c r="AR54" s="6"/>
+      <c r="AS54" s="6"/>
+      <c r="AT54" s="6"/>
+      <c r="AU54" s="6"/>
+      <c r="AV54" s="6"/>
+      <c r="AW54" s="6"/>
+      <c r="AX54" s="6">
+        <v>30</v>
+      </c>
+      <c r="AY54" s="6">
+        <v>35</v>
+      </c>
+      <c r="AZ54" s="6">
+        <v>8</v>
+      </c>
+      <c r="BA54" s="6"/>
+      <c r="BB54" s="6"/>
+      <c r="BC54" s="6"/>
+      <c r="BD54" s="6"/>
+      <c r="BE54" s="6"/>
+      <c r="BF54" s="6"/>
+      <c r="BG54" s="6"/>
+      <c r="BH54" s="6"/>
+      <c r="BI54" s="6"/>
+      <c r="BJ54" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:62">
+      <c r="A55" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3">
+        <v>37.465867768595039</v>
+      </c>
+      <c r="AB55" s="3">
+        <v>37.898291309154104</v>
+      </c>
+      <c r="AC55" s="3">
+        <v>40.9</v>
+      </c>
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3">
+        <v>38.220372354917821</v>
+      </c>
+      <c r="AF55" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG55" s="6"/>
+      <c r="AH55" s="6"/>
+      <c r="AI55" s="6"/>
+      <c r="AJ55" s="6"/>
+      <c r="AK55" s="6"/>
+      <c r="AL55" s="6"/>
+      <c r="AM55" s="6"/>
+      <c r="AN55" s="6"/>
+      <c r="AO55" s="6"/>
+      <c r="AP55" s="6"/>
+      <c r="AQ55" s="6"/>
+      <c r="AR55" s="6"/>
+      <c r="AS55" s="6"/>
+      <c r="AT55" s="6"/>
+      <c r="AU55" s="6"/>
+      <c r="AV55" s="6"/>
+      <c r="AW55" s="6"/>
+      <c r="AX55" s="6"/>
+      <c r="AY55" s="6"/>
+      <c r="AZ55" s="6"/>
+      <c r="BA55" s="6"/>
+      <c r="BB55" s="6"/>
+      <c r="BC55" s="6"/>
+      <c r="BD55" s="6"/>
+      <c r="BE55" s="6"/>
+      <c r="BF55" s="6">
+        <v>4</v>
+      </c>
+      <c r="BG55" s="6">
+        <v>157</v>
+      </c>
+      <c r="BH55" s="6">
+        <v>35</v>
+      </c>
+      <c r="BI55" s="6"/>
+      <c r="BJ55" s="6">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:62">
+      <c r="A56" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3">
+        <v>24.98822096563724</v>
+      </c>
+      <c r="T56" s="3">
+        <v>24.832066115702478</v>
+      </c>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3">
+        <v>24.98421699512609</v>
+      </c>
+      <c r="AF56" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG56" s="6"/>
+      <c r="AH56" s="6"/>
+      <c r="AI56" s="6"/>
+      <c r="AJ56" s="6"/>
+      <c r="AK56" s="6"/>
+      <c r="AL56" s="6"/>
+      <c r="AM56" s="6"/>
+      <c r="AN56" s="6"/>
+      <c r="AO56" s="6"/>
+      <c r="AP56" s="6"/>
+      <c r="AQ56" s="6"/>
+      <c r="AR56" s="6"/>
+      <c r="AS56" s="6"/>
+      <c r="AT56" s="6"/>
+      <c r="AU56" s="6"/>
+      <c r="AV56" s="6"/>
+      <c r="AW56" s="6"/>
+      <c r="AX56" s="6">
+        <v>38</v>
+      </c>
+      <c r="AY56" s="6">
+        <v>1</v>
+      </c>
+      <c r="AZ56" s="6"/>
+      <c r="BA56" s="6"/>
+      <c r="BB56" s="6"/>
+      <c r="BC56" s="6"/>
+      <c r="BD56" s="6"/>
+      <c r="BE56" s="6"/>
+      <c r="BF56" s="6"/>
+      <c r="BG56" s="6"/>
+      <c r="BH56" s="6"/>
+      <c r="BI56" s="6"/>
+      <c r="BJ56" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:62">
+      <c r="A57" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3">
+        <v>41.468146399055492</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>42.2</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>44.3</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>41.237603305785122</v>
+      </c>
+      <c r="AF57" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG57" s="6"/>
+      <c r="AH57" s="6"/>
+      <c r="AI57" s="6"/>
+      <c r="AJ57" s="6"/>
+      <c r="AK57" s="6"/>
+      <c r="AL57" s="6"/>
+      <c r="AM57" s="6"/>
+      <c r="AN57" s="6"/>
+      <c r="AO57" s="6"/>
+      <c r="AP57" s="6"/>
+      <c r="AQ57" s="6"/>
+      <c r="AR57" s="6"/>
+      <c r="AS57" s="6"/>
+      <c r="AT57" s="6"/>
+      <c r="AU57" s="6"/>
+      <c r="AV57" s="6"/>
+      <c r="AW57" s="6"/>
+      <c r="AX57" s="6"/>
+      <c r="AY57" s="6"/>
+      <c r="AZ57" s="6"/>
+      <c r="BA57" s="6"/>
+      <c r="BB57" s="6"/>
+      <c r="BC57" s="6"/>
+      <c r="BD57" s="6"/>
+      <c r="BE57" s="6"/>
+      <c r="BF57" s="6"/>
+      <c r="BG57" s="6">
+        <v>7</v>
+      </c>
+      <c r="BH57" s="6">
+        <v>15</v>
+      </c>
+      <c r="BI57" s="6">
+        <v>10</v>
+      </c>
+      <c r="BJ57" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:62">
+      <c r="A58" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3">
+        <v>36.777245179063364</v>
+      </c>
+      <c r="V58" s="3">
+        <v>36.737736808645906</v>
+      </c>
+      <c r="W58" s="3">
+        <v>36.893013774104688</v>
+      </c>
+      <c r="X58" s="3">
+        <v>36.994159779614328</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>38.187702479338846</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>38.845744918472192</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>42.129158969372874</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>43.242337662337668</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>44</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>45.3</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>39.020940646130732</v>
+      </c>
+      <c r="AF58" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG58" s="6"/>
+      <c r="AH58" s="6"/>
+      <c r="AI58" s="6"/>
+      <c r="AJ58" s="6"/>
+      <c r="AK58" s="6"/>
+      <c r="AL58" s="6"/>
+      <c r="AM58" s="6"/>
+      <c r="AN58" s="6"/>
+      <c r="AO58" s="6"/>
+      <c r="AP58" s="6"/>
+      <c r="AQ58" s="6"/>
+      <c r="AR58" s="6"/>
+      <c r="AS58" s="6"/>
+      <c r="AT58" s="6"/>
+      <c r="AU58" s="6"/>
+      <c r="AV58" s="6"/>
+      <c r="AW58" s="6"/>
+      <c r="AX58" s="6"/>
+      <c r="AY58" s="6"/>
+      <c r="AZ58" s="6">
+        <v>12</v>
+      </c>
+      <c r="BA58" s="6">
+        <v>26</v>
+      </c>
+      <c r="BB58" s="6">
+        <v>30</v>
+      </c>
+      <c r="BC58" s="6">
+        <v>24</v>
+      </c>
+      <c r="BD58" s="6">
+        <v>30</v>
+      </c>
+      <c r="BE58" s="6">
+        <v>37</v>
+      </c>
+      <c r="BF58" s="6">
+        <v>17</v>
+      </c>
+      <c r="BG58" s="6">
+        <v>28</v>
+      </c>
+      <c r="BH58" s="6">
+        <v>36</v>
+      </c>
+      <c r="BI58" s="6">
+        <v>31</v>
+      </c>
+      <c r="BJ58" s="6">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" spans="1:62">
+      <c r="A59" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3">
+        <v>21.958567493112948</v>
+      </c>
+      <c r="J59" s="3">
+        <v>21.839810223446587</v>
+      </c>
+      <c r="K59" s="3">
+        <v>22.307367893814174</v>
+      </c>
+      <c r="L59" s="3">
+        <v>22.671949440933393</v>
+      </c>
+      <c r="M59" s="3">
+        <v>22.233929376408717</v>
+      </c>
+      <c r="N59" s="3">
+        <v>22.456318557475583</v>
+      </c>
+      <c r="O59" s="3">
+        <v>22.133401831583647</v>
+      </c>
+      <c r="P59" s="3">
+        <v>22.864005085823269</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>23.216363636363639</v>
+      </c>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+      <c r="AB59" s="3"/>
+      <c r="AC59" s="3"/>
+      <c r="AD59" s="3"/>
+      <c r="AE59" s="3">
+        <v>22.195732838589976</v>
+      </c>
+      <c r="AF59" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG59" s="6"/>
+      <c r="AH59" s="6"/>
+      <c r="AI59" s="6"/>
+      <c r="AJ59" s="6"/>
+      <c r="AK59" s="6"/>
+      <c r="AL59" s="6"/>
+      <c r="AM59" s="6"/>
+      <c r="AN59" s="6">
+        <v>18</v>
+      </c>
+      <c r="AO59" s="6">
+        <v>54</v>
+      </c>
+      <c r="AP59" s="6">
+        <v>33</v>
+      </c>
+      <c r="AQ59" s="6">
+        <v>17</v>
+      </c>
+      <c r="AR59" s="6">
+        <v>11</v>
+      </c>
+      <c r="AS59" s="6">
+        <v>11</v>
+      </c>
+      <c r="AT59" s="6">
+        <v>37</v>
+      </c>
+      <c r="AU59" s="6">
+        <v>13</v>
+      </c>
+      <c r="AV59" s="6">
+        <v>2</v>
+      </c>
+      <c r="AW59" s="6"/>
+      <c r="AX59" s="6"/>
+      <c r="AY59" s="6"/>
+      <c r="AZ59" s="6"/>
+      <c r="BA59" s="6"/>
+      <c r="BB59" s="6"/>
+      <c r="BC59" s="6"/>
+      <c r="BD59" s="6"/>
+      <c r="BE59" s="6"/>
+      <c r="BF59" s="6"/>
+      <c r="BG59" s="6"/>
+      <c r="BH59" s="6"/>
+      <c r="BI59" s="6"/>
+      <c r="BJ59" s="6">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:62">
+      <c r="A60" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3">
+        <v>26.072443919716651</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>26.074939605848691</v>
+      </c>
+      <c r="R60" s="3">
+        <v>26.476716253443524</v>
+      </c>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="3"/>
+      <c r="AB60" s="3"/>
+      <c r="AC60" s="3"/>
+      <c r="AD60" s="3"/>
+      <c r="AE60" s="3">
+        <v>26.131376350921819</v>
+      </c>
+      <c r="AF60" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG60" s="6"/>
+      <c r="AH60" s="6"/>
+      <c r="AI60" s="6"/>
+      <c r="AJ60" s="6"/>
+      <c r="AK60" s="6"/>
+      <c r="AL60" s="6"/>
+      <c r="AM60" s="6"/>
+      <c r="AN60" s="6"/>
+      <c r="AO60" s="6"/>
+      <c r="AP60" s="6"/>
+      <c r="AQ60" s="6"/>
+      <c r="AR60" s="6"/>
+      <c r="AS60" s="6"/>
+      <c r="AT60" s="6"/>
+      <c r="AU60" s="6">
+        <v>63</v>
+      </c>
+      <c r="AV60" s="6">
+        <v>26</v>
+      </c>
+      <c r="AW60" s="6">
+        <v>15</v>
+      </c>
+      <c r="AX60" s="6"/>
+      <c r="AY60" s="6"/>
+      <c r="AZ60" s="6"/>
+      <c r="BA60" s="6"/>
+      <c r="BB60" s="6"/>
+      <c r="BC60" s="6"/>
+      <c r="BD60" s="6"/>
+      <c r="BE60" s="6"/>
+      <c r="BF60" s="6"/>
+      <c r="BG60" s="6"/>
+      <c r="BH60" s="6"/>
+      <c r="BI60" s="6"/>
+      <c r="BJ60" s="6">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52011BDE-E8FC-F440-8860-07D55CCCB93A}">
+  <dimension ref="A1:AB27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28">
+      <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3">
+        <v>37.073623841723027</v>
+      </c>
+      <c r="G2" s="3">
+        <v>37.856376350921806</v>
+      </c>
+      <c r="H2" s="3">
+        <v>37.983561232156269</v>
+      </c>
+      <c r="I2" s="3">
+        <v>37.447625344352609</v>
+      </c>
+      <c r="J2" s="3">
+        <v>38.013145357316482</v>
+      </c>
+      <c r="K2" s="3">
+        <v>37.366508264462809</v>
+      </c>
+      <c r="L2" s="3">
+        <v>39.4</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3">
+        <v>37.466137219423906</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6">
+        <v>66</v>
+      </c>
+      <c r="U2" s="6">
+        <v>26</v>
+      </c>
+      <c r="V2" s="6">
+        <v>11</v>
+      </c>
+      <c r="W2" s="6">
+        <v>30</v>
+      </c>
+      <c r="X2" s="6">
+        <v>17</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>16</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3">
+        <v>36.560126141800758</v>
+      </c>
+      <c r="K3" s="3">
+        <v>37.315048835462058</v>
+      </c>
+      <c r="L3" s="3">
+        <v>39</v>
+      </c>
+      <c r="M3" s="3">
+        <v>41.6</v>
+      </c>
+      <c r="N3" s="3">
+        <v>37.028158630120686</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6">
+        <v>76</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>44</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>37</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>12</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
+        <v>39.586667994291261</v>
+      </c>
+      <c r="K4" s="3">
+        <v>40.353774993335115</v>
+      </c>
+      <c r="L4" s="3">
+        <v>39.928906729634008</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3">
+        <v>39.966782451997794</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6">
+        <v>249</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>248</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>35</v>
+      </c>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" s="9" customFormat="1">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8">
+        <v>29.532640120210367</v>
+      </c>
+      <c r="C5" s="8">
+        <v>31.247321341759847</v>
+      </c>
+      <c r="D5" s="8">
+        <v>33.100734618916448</v>
+      </c>
+      <c r="E5" s="8">
+        <v>34.760346320346329</v>
+      </c>
+      <c r="F5" s="8">
+        <v>35.506662866913658</v>
+      </c>
+      <c r="G5" s="8">
+        <v>35.525330578512403</v>
+      </c>
+      <c r="H5" s="8">
+        <v>36.127578818487905</v>
+      </c>
+      <c r="I5" s="8">
+        <v>35.044297520661154</v>
+      </c>
+      <c r="J5" s="8">
+        <v>35.901818181818186</v>
+      </c>
+      <c r="L5" s="8">
+        <v>37.9</v>
+      </c>
+      <c r="M5" s="8">
+        <v>39</v>
+      </c>
+      <c r="N5" s="8">
+        <v>32.74410423452769</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="10">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>102</v>
+      </c>
+      <c r="R5" s="10">
+        <v>36</v>
+      </c>
+      <c r="S5" s="10">
+        <v>21</v>
+      </c>
+      <c r="T5" s="10">
+        <v>29</v>
+      </c>
+      <c r="U5" s="10">
+        <v>24</v>
+      </c>
+      <c r="V5" s="10">
+        <v>27</v>
+      </c>
+      <c r="W5" s="10">
+        <v>6</v>
+      </c>
+      <c r="X5" s="10">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="10">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>16</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
+        <v>39.916861361314886</v>
+      </c>
+      <c r="K6" s="3">
+        <v>41.411693190355848</v>
+      </c>
+      <c r="L6" s="3">
+        <v>41.6</v>
+      </c>
+      <c r="M6" s="3">
+        <v>48.2</v>
+      </c>
+      <c r="N6" s="3">
+        <v>40.992203069657613</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6">
+        <v>89</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>242</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>46</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
+        <v>31.338946871310501</v>
+      </c>
+      <c r="C7" s="3">
+        <v>36.100203432930705</v>
+      </c>
+      <c r="D7" s="3">
+        <v>37.292654545454546</v>
+      </c>
+      <c r="E7" s="3">
+        <v>40.73115702479339</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3">
+        <v>41.043801652892569</v>
+      </c>
+      <c r="J7" s="3">
+        <v>41.022975206611576</v>
+      </c>
+      <c r="K7" s="3">
+        <v>40.266446280991737</v>
+      </c>
+      <c r="L7" s="3">
+        <v>45.3</v>
+      </c>
+      <c r="M7" s="3">
+        <v>44.6</v>
+      </c>
+      <c r="N7" s="3">
+        <v>35.228405895884805</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="6">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>26</v>
+      </c>
+      <c r="R7" s="6">
+        <v>25</v>
+      </c>
+      <c r="S7" s="6">
+        <v>4</v>
+      </c>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6">
+        <v>2</v>
+      </c>
+      <c r="X7" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>34.114528925619837</v>
+      </c>
+      <c r="H8" s="3">
+        <v>33.843129945489721</v>
+      </c>
+      <c r="I8" s="3">
+        <v>34.862265435099665</v>
+      </c>
+      <c r="J8" s="3">
+        <v>35.229044239183274</v>
+      </c>
+      <c r="K8" s="3">
+        <v>35.440150262960181</v>
+      </c>
+      <c r="L8" s="3">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="M8" s="3">
+        <v>33.9</v>
+      </c>
+      <c r="N8" s="3">
+        <v>34.850789210789223</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6">
+        <v>20</v>
+      </c>
+      <c r="V8" s="6">
+        <v>47</v>
+      </c>
+      <c r="W8" s="6">
+        <v>68</v>
+      </c>
+      <c r="X8" s="6">
+        <v>85</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>44</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>27</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
+        <v>37.171900826446283</v>
+      </c>
+      <c r="K9" s="3">
+        <v>38.195930464519805</v>
+      </c>
+      <c r="L9" s="3">
+        <v>37.9</v>
+      </c>
+      <c r="M9" s="3">
+        <v>39.4</v>
+      </c>
+      <c r="N9" s="3">
+        <v>37.702936639118462</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6">
+        <v>15</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>29</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>34</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>15</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
+        <v>37.991912632821723</v>
+      </c>
+      <c r="F10" s="3">
+        <v>38.424204357625847</v>
+      </c>
+      <c r="G10" s="3">
+        <v>38.713844942935843</v>
+      </c>
+      <c r="H10" s="3">
+        <v>38.854120425029521</v>
+      </c>
+      <c r="I10" s="3">
+        <v>39.801725619834713</v>
+      </c>
+      <c r="J10" s="3">
+        <v>39.308561983471087</v>
+      </c>
+      <c r="K10" s="3">
+        <v>38.132834224598938</v>
+      </c>
+      <c r="L10" s="3">
+        <v>37.1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>37.5</v>
+      </c>
+      <c r="N10" s="3">
+        <v>38.822184462809929</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6">
+        <v>28</v>
+      </c>
+      <c r="T10" s="6">
+        <v>55</v>
+      </c>
+      <c r="U10" s="6">
+        <v>21</v>
+      </c>
+      <c r="V10" s="6">
+        <v>28</v>
+      </c>
+      <c r="W10" s="6">
+        <v>50</v>
+      </c>
+      <c r="X10" s="6">
+        <v>45</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>17</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>14</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>28</v>
+      </c>
+      <c r="AB10" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
+        <v>34.2038406537283</v>
+      </c>
+      <c r="J11" s="3">
+        <v>34.771215714456822</v>
+      </c>
+      <c r="K11" s="3">
+        <v>35.718299881936261</v>
+      </c>
+      <c r="L11" s="3">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3">
+        <v>34.721159491797209</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6">
+        <v>89</v>
+      </c>
+      <c r="X11" s="6">
+        <v>69</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>42</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3">
+        <v>32.502076194315656</v>
+      </c>
+      <c r="C12" s="3">
+        <v>34.689026629935711</v>
+      </c>
+      <c r="D12" s="3">
+        <v>38.960851875397346</v>
+      </c>
+      <c r="E12" s="3">
+        <v>41.404132231404958</v>
+      </c>
+      <c r="F12" s="3">
+        <v>41.165516528925615</v>
+      </c>
+      <c r="G12" s="3">
+        <v>41.567537190082646</v>
+      </c>
+      <c r="H12" s="3">
+        <v>41.530807374443739</v>
+      </c>
+      <c r="I12" s="3">
+        <v>41.720962989579576</v>
+      </c>
+      <c r="J12" s="3">
+        <v>42.113657505285424</v>
+      </c>
+      <c r="K12" s="3">
+        <v>43.634311294765837</v>
+      </c>
+      <c r="L12" s="3">
+        <v>46.6</v>
+      </c>
+      <c r="M12" s="3">
+        <v>48.7</v>
+      </c>
+      <c r="N12" s="3">
+        <v>39.157040661157033</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="6">
+        <v>41</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>36</v>
+      </c>
+      <c r="R12" s="6">
+        <v>26</v>
+      </c>
+      <c r="S12" s="6">
+        <v>16</v>
+      </c>
+      <c r="T12" s="6">
+        <v>16</v>
+      </c>
+      <c r="U12" s="6">
+        <v>5</v>
+      </c>
+      <c r="V12" s="6">
+        <v>13</v>
+      </c>
+      <c r="W12" s="6">
+        <v>23</v>
+      </c>
+      <c r="X12" s="6">
+        <v>43</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>24</v>
+      </c>
+      <c r="Z12" s="6">
+        <v>19</v>
+      </c>
+      <c r="AA12" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3">
+        <v>31.79126328217237</v>
+      </c>
+      <c r="C13" s="3">
+        <v>34.217460555972956</v>
+      </c>
+      <c r="D13" s="3">
+        <v>37.852892561983474</v>
+      </c>
+      <c r="E13" s="3">
+        <v>40.757685950413226</v>
+      </c>
+      <c r="F13" s="3">
+        <v>39.661074380165289</v>
+      </c>
+      <c r="G13" s="3">
+        <v>40.364033057851245</v>
+      </c>
+      <c r="H13" s="3">
+        <v>40.283884297520665</v>
+      </c>
+      <c r="I13" s="3">
+        <v>40.169445100354196</v>
+      </c>
+      <c r="J13" s="3">
+        <v>40.291164108618659</v>
+      </c>
+      <c r="K13" s="3">
+        <v>40.705280321643954</v>
+      </c>
+      <c r="L13" s="3">
+        <v>43</v>
+      </c>
+      <c r="M13" s="3">
+        <v>44.7</v>
+      </c>
+      <c r="N13" s="3">
+        <v>39.198998864125969</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="6">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>22</v>
+      </c>
+      <c r="R13" s="6">
+        <v>13</v>
+      </c>
+      <c r="S13" s="6">
+        <v>3</v>
+      </c>
+      <c r="T13" s="6">
+        <v>4</v>
+      </c>
+      <c r="U13" s="6">
+        <v>5</v>
+      </c>
+      <c r="V13" s="6">
+        <v>4</v>
+      </c>
+      <c r="W13" s="6">
+        <v>21</v>
+      </c>
+      <c r="X13" s="6">
+        <v>35</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>74</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>53</v>
+      </c>
+      <c r="AA13" s="6">
+        <v>9</v>
+      </c>
+      <c r="AB13" s="6">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
+        <v>45.155151515151516</v>
+      </c>
+      <c r="K14" s="3">
+        <v>45.232303970973604</v>
+      </c>
+      <c r="L14" s="3">
+        <v>44.7</v>
+      </c>
+      <c r="M14" s="3">
+        <v>46.3</v>
+      </c>
+      <c r="N14" s="3">
+        <v>45.217067508589487</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>82</v>
+      </c>
+      <c r="Z14" s="6">
+        <v>18</v>
+      </c>
+      <c r="AA14" s="6">
+        <v>11</v>
+      </c>
+      <c r="AB14" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3">
+        <v>35.088117539026626</v>
+      </c>
+      <c r="C15" s="3">
+        <v>38.385578512396691</v>
+      </c>
+      <c r="D15" s="3">
+        <v>40.790454545454544</v>
+      </c>
+      <c r="E15" s="3">
+        <v>44.647206611570255</v>
+      </c>
+      <c r="F15" s="3">
+        <v>45.664573002754821</v>
+      </c>
+      <c r="G15" s="3">
+        <v>45.000247933884303</v>
+      </c>
+      <c r="H15" s="3">
+        <v>44.819008264462809</v>
+      </c>
+      <c r="I15" s="3">
+        <v>45.472207792207804</v>
+      </c>
+      <c r="J15" s="3">
+        <v>45.752632821723729</v>
+      </c>
+      <c r="K15" s="3">
+        <v>45.787582644628102</v>
+      </c>
+      <c r="L15" s="3">
+        <v>46.5</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3">
+        <v>41.867984861357861</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="6">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>24</v>
+      </c>
+      <c r="R15" s="6">
+        <v>8</v>
+      </c>
+      <c r="S15" s="6">
+        <v>5</v>
+      </c>
+      <c r="T15" s="6">
+        <v>3</v>
+      </c>
+      <c r="U15" s="6">
+        <v>4</v>
+      </c>
+      <c r="V15" s="6">
+        <v>2</v>
+      </c>
+      <c r="W15" s="6">
+        <v>7</v>
+      </c>
+      <c r="X15" s="6">
+        <v>14</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>16</v>
+      </c>
+      <c r="Z15" s="6">
+        <v>9</v>
+      </c>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" s="9" customFormat="1">
+      <c r="A16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8">
+        <v>46.3</v>
+      </c>
+      <c r="M16" s="8">
+        <v>46.7</v>
+      </c>
+      <c r="N16" s="8">
+        <f>AVERAGE(L16:M16)</f>
+        <v>46.5</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10">
+        <v>86</v>
+      </c>
+      <c r="AA16" s="10">
+        <v>54</v>
+      </c>
+      <c r="AB16" s="10">
+        <f>SUM(Z16:AA16)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
+        <v>36.834214876033059</v>
+      </c>
+      <c r="I17" s="3">
+        <v>37.243801652892564</v>
+      </c>
+      <c r="J17" s="3">
+        <v>37.855305785123974</v>
+      </c>
+      <c r="K17" s="3">
+        <v>37.721057851239671</v>
+      </c>
+      <c r="L17" s="3">
+        <v>37.6</v>
+      </c>
+      <c r="M17" s="3">
+        <v>38.6</v>
+      </c>
+      <c r="N17" s="3">
+        <v>37.506535093129379</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6">
+        <v>4</v>
+      </c>
+      <c r="W17" s="6">
+        <v>20</v>
+      </c>
+      <c r="X17" s="6">
+        <v>20</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>15</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>22</v>
+      </c>
+      <c r="AA17" s="6">
+        <v>12</v>
+      </c>
+      <c r="AB17" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <v>43.387423643550143</v>
+      </c>
+      <c r="I18" s="3">
+        <v>43.809247498912562</v>
+      </c>
+      <c r="J18" s="3">
+        <v>41.649076741440375</v>
+      </c>
+      <c r="K18" s="3">
+        <v>41.423471074380167</v>
+      </c>
+      <c r="L18" s="3">
+        <v>40.4</v>
+      </c>
+      <c r="M18" s="3">
+        <v>39.5</v>
+      </c>
+      <c r="N18" s="3">
+        <v>42.759530482692526</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6">
+        <v>46</v>
+      </c>
+      <c r="W18" s="6">
+        <v>76</v>
+      </c>
+      <c r="X18" s="6">
+        <v>35</v>
+      </c>
+      <c r="Y18" s="6">
+        <v>42</v>
+      </c>
+      <c r="Z18" s="6">
+        <v>32</v>
+      </c>
+      <c r="AA18" s="6">
+        <v>4</v>
+      </c>
+      <c r="AB18" s="6">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" s="9" customFormat="1">
+      <c r="A19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8">
+        <v>45.4</v>
+      </c>
+      <c r="M19" s="8">
+        <v>45.8</v>
+      </c>
+      <c r="N19" s="8">
+        <f>AVERAGE(L19:M19)</f>
+        <v>45.599999999999994</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10">
+        <v>207</v>
+      </c>
+      <c r="AA19" s="10">
+        <v>205</v>
+      </c>
+      <c r="AB19" s="10">
+        <f>SUM(Z19:AA19)</f>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3">
+        <v>34.736859504132234</v>
+      </c>
+      <c r="G20" s="3">
+        <v>34.037045454545456</v>
+      </c>
+      <c r="H20" s="3">
+        <v>34.425454545454549</v>
+      </c>
+      <c r="I20" s="3">
+        <v>35.669106650924839</v>
+      </c>
+      <c r="J20" s="3">
+        <v>35.770456075910616</v>
+      </c>
+      <c r="K20" s="3">
+        <v>36.507785993910396</v>
+      </c>
+      <c r="L20" s="3">
+        <v>38.9</v>
+      </c>
+      <c r="M20" s="3">
+        <v>36.9</v>
+      </c>
+      <c r="N20" s="3">
+        <v>35.579191919191913</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6">
+        <v>1</v>
+      </c>
+      <c r="U20" s="6">
+        <v>16</v>
+      </c>
+      <c r="V20" s="6">
+        <v>16</v>
+      </c>
+      <c r="W20" s="6">
+        <v>42</v>
+      </c>
+      <c r="X20" s="6">
+        <v>27</v>
+      </c>
+      <c r="Y20" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z20" s="6">
+        <v>9</v>
+      </c>
+      <c r="AA20" s="6">
+        <v>3</v>
+      </c>
+      <c r="AB20" s="6">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3">
+        <v>38.307193542187186</v>
+      </c>
+      <c r="G21" s="3">
+        <v>39.026623905267066</v>
+      </c>
+      <c r="H21" s="3">
+        <v>38.824910063198821</v>
+      </c>
+      <c r="I21" s="3">
+        <v>39.891727132651638</v>
+      </c>
+      <c r="J21" s="3">
+        <v>41.99315289256198</v>
+      </c>
+      <c r="K21" s="3">
+        <v>42.620132639526574</v>
+      </c>
+      <c r="L21" s="3">
+        <v>43.2</v>
+      </c>
+      <c r="M21" s="3">
+        <v>41.7</v>
+      </c>
+      <c r="N21" s="3">
+        <v>40.418343254068866</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6">
+        <v>215</v>
+      </c>
+      <c r="U21" s="6">
+        <v>67</v>
+      </c>
+      <c r="V21" s="6">
+        <v>51</v>
+      </c>
+      <c r="W21" s="6">
+        <v>177</v>
+      </c>
+      <c r="X21" s="6">
+        <v>80</v>
+      </c>
+      <c r="Y21" s="6">
+        <v>162</v>
+      </c>
+      <c r="Z21" s="6">
+        <v>145</v>
+      </c>
+      <c r="AA21" s="6">
+        <v>101</v>
+      </c>
+      <c r="AB21" s="6">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="3">
+        <v>30.763801652892564</v>
+      </c>
+      <c r="C22" s="3">
+        <v>31.255658726300446</v>
+      </c>
+      <c r="D22" s="3">
+        <v>33.107190082644635</v>
+      </c>
+      <c r="E22" s="3">
+        <v>35.445685950413221</v>
+      </c>
+      <c r="F22" s="3">
+        <v>35.633608815427003</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
+        <v>35.685289256198345</v>
+      </c>
+      <c r="I22" s="3">
+        <v>34.921239669421489</v>
+      </c>
+      <c r="J22" s="3">
+        <v>36.14413223140496</v>
+      </c>
+      <c r="K22" s="3">
+        <v>35.08793388429752</v>
+      </c>
+      <c r="L22" s="3">
+        <v>35.703933884297527</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3">
+        <v>32.887618219101476</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>68</v>
+      </c>
+      <c r="R22" s="6">
+        <v>20</v>
+      </c>
+      <c r="S22" s="6">
+        <v>10</v>
+      </c>
+      <c r="T22" s="6">
+        <v>3</v>
+      </c>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6">
+        <v>2</v>
+      </c>
+      <c r="W22" s="6">
+        <v>4</v>
+      </c>
+      <c r="X22" s="6">
+        <v>7</v>
+      </c>
+      <c r="Y22" s="6">
+        <v>12</v>
+      </c>
+      <c r="Z22" s="6">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" s="9" customFormat="1">
+      <c r="A23" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8">
+        <v>45.5</v>
+      </c>
+      <c r="M23" s="8">
+        <v>47.9</v>
+      </c>
+      <c r="N23" s="8">
+        <v>45.284638270820096</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10">
+        <v>100</v>
+      </c>
+      <c r="AA23" s="10">
+        <v>35</v>
+      </c>
+      <c r="AB23" s="10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3">
+        <v>35.994380165289257</v>
+      </c>
+      <c r="G24" s="3">
+        <v>35.451176702085796</v>
+      </c>
+      <c r="H24" s="3">
+        <v>34.811504132231406</v>
+      </c>
+      <c r="I24" s="3">
+        <v>35.429340679522497</v>
+      </c>
+      <c r="J24" s="3">
+        <v>35.691587646802958</v>
+      </c>
+      <c r="K24" s="3">
+        <v>36.311148591668086</v>
+      </c>
+      <c r="L24" s="3">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3">
+        <v>35.731784151677246</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6">
+        <v>14</v>
+      </c>
+      <c r="U24" s="6">
+        <v>21</v>
+      </c>
+      <c r="V24" s="6">
+        <v>20</v>
+      </c>
+      <c r="W24" s="6">
+        <v>45</v>
+      </c>
+      <c r="X24" s="6">
+        <v>57</v>
+      </c>
+      <c r="Y24" s="6">
+        <v>49</v>
+      </c>
+      <c r="Z24" s="6">
+        <v>18</v>
+      </c>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3">
+        <v>37.465867768595039</v>
+      </c>
+      <c r="K25" s="3">
+        <v>37.898291309154104</v>
+      </c>
+      <c r="L25" s="3">
+        <v>40.9</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3">
+        <v>38.220372354917821</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6">
+        <v>4</v>
+      </c>
+      <c r="Y25" s="6">
+        <v>157</v>
+      </c>
+      <c r="Z25" s="6">
+        <v>35</v>
+      </c>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3">
+        <v>41.468146399055492</v>
+      </c>
+      <c r="L26" s="3">
+        <v>42.2</v>
+      </c>
+      <c r="M26" s="3">
+        <v>44.3</v>
+      </c>
+      <c r="N26" s="3">
+        <v>41.237603305785122</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6">
+        <v>7</v>
+      </c>
+      <c r="Z26" s="6">
+        <v>15</v>
+      </c>
+      <c r="AA26" s="6">
+        <v>10</v>
+      </c>
+      <c r="AB26" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3">
+        <v>36.777245179063364</v>
+      </c>
+      <c r="E27" s="3">
+        <v>36.737736808645906</v>
+      </c>
+      <c r="F27" s="3">
+        <v>36.893013774104688</v>
+      </c>
+      <c r="G27" s="3">
+        <v>36.994159779614328</v>
+      </c>
+      <c r="H27" s="3">
+        <v>38.187702479338846</v>
+      </c>
+      <c r="I27" s="3">
+        <v>38.845744918472192</v>
+      </c>
+      <c r="J27" s="3">
+        <v>42.129158969372874</v>
+      </c>
+      <c r="K27" s="3">
+        <v>43.242337662337668</v>
+      </c>
+      <c r="L27" s="3">
+        <v>44</v>
+      </c>
+      <c r="M27" s="3">
+        <v>45.3</v>
+      </c>
+      <c r="N27" s="3">
+        <v>39.020940646130732</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6">
+        <v>12</v>
+      </c>
+      <c r="S27" s="6">
+        <v>26</v>
+      </c>
+      <c r="T27" s="6">
+        <v>30</v>
+      </c>
+      <c r="U27" s="6">
+        <v>24</v>
+      </c>
+      <c r="V27" s="6">
+        <v>30</v>
+      </c>
+      <c r="W27" s="6">
+        <v>37</v>
+      </c>
+      <c r="X27" s="6">
+        <v>17</v>
+      </c>
+      <c r="Y27" s="6">
+        <v>28</v>
+      </c>
+      <c r="Z27" s="6">
+        <v>36</v>
+      </c>
+      <c r="AA27" s="6">
+        <v>31</v>
+      </c>
+      <c r="AB27" s="6">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/houseinfo.xlsx
+++ b/data/houseinfo.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban25/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F43A7D-07A0-4F4D-AA29-96E1B23D1651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B0350B-537A-EF46-96AF-E35FFD354D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1680" yWindow="-23880" windowWidth="33780" windowHeight="16360" activeTab="3" xr2:uid="{3AB5D77B-1579-2648-A897-7F84A01250C3}"/>
+    <workbookView xWindow="2500" yWindow="-23780" windowWidth="17740" windowHeight="23100" activeTab="4" xr2:uid="{3AB5D77B-1579-2648-A897-7F84A01250C3}"/>
   </bookViews>
   <sheets>
     <sheet name="price" sheetId="1" r:id="rId1"/>
     <sheet name="quantity" sheetId="2" r:id="rId2"/>
     <sheet name="chart" sheetId="4" r:id="rId3"/>
     <sheet name="工作表3" sheetId="5" r:id="rId4"/>
+    <sheet name="工作表4" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="94">
   <si>
     <t>大亮泊</t>
   </si>
@@ -356,6 +357,10 @@
   </si>
   <si>
     <t>頤昌筑岳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>禾悅花園</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -12631,8 +12636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52011BDE-E8FC-F440-8860-07D55CCCB93A}">
   <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -14392,4 +14397,1849 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464F3C0F-4461-234C-B961-390ED54D0A8F}">
+  <dimension ref="A1:N61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3">
+        <v>37.073623841723027</v>
+      </c>
+      <c r="G2" s="3">
+        <v>37.856376350921806</v>
+      </c>
+      <c r="H2" s="3">
+        <v>37.983561232156269</v>
+      </c>
+      <c r="I2" s="3">
+        <v>37.447625344352609</v>
+      </c>
+      <c r="J2" s="3">
+        <v>38.013145357316482</v>
+      </c>
+      <c r="K2" s="3">
+        <v>37.366508264462809</v>
+      </c>
+      <c r="L2" s="3">
+        <v>39.4</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3">
+        <v>37.466137219423906</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3">
+        <v>36.560126141800758</v>
+      </c>
+      <c r="K3" s="3">
+        <v>37.315048835462058</v>
+      </c>
+      <c r="L3" s="3">
+        <v>39</v>
+      </c>
+      <c r="M3" s="3">
+        <v>41.6</v>
+      </c>
+      <c r="N3" s="3">
+        <v>37.028158630120686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
+        <v>39.586667994291261</v>
+      </c>
+      <c r="K4" s="3">
+        <v>40.353774993335115</v>
+      </c>
+      <c r="L4" s="3">
+        <v>39.928906729634008</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3">
+        <v>39.966782451997794</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="9" customFormat="1">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8">
+        <v>29.532640120210367</v>
+      </c>
+      <c r="C5" s="8">
+        <v>31.247321341759847</v>
+      </c>
+      <c r="D5" s="8">
+        <v>33.100734618916448</v>
+      </c>
+      <c r="E5" s="8">
+        <v>34.760346320346329</v>
+      </c>
+      <c r="F5" s="8">
+        <v>35.506662866913658</v>
+      </c>
+      <c r="G5" s="8">
+        <v>35.525330578512403</v>
+      </c>
+      <c r="H5" s="8">
+        <v>36.127578818487905</v>
+      </c>
+      <c r="I5" s="8">
+        <v>35.044297520661154</v>
+      </c>
+      <c r="J5" s="8">
+        <v>35.901818181818186</v>
+      </c>
+      <c r="L5" s="8">
+        <v>37.9</v>
+      </c>
+      <c r="M5" s="8">
+        <v>39</v>
+      </c>
+      <c r="N5" s="8">
+        <v>32.74410423452769</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
+        <v>39.916861361314886</v>
+      </c>
+      <c r="K6" s="3">
+        <v>41.411693190355848</v>
+      </c>
+      <c r="L6" s="3">
+        <v>41.6</v>
+      </c>
+      <c r="M6" s="3">
+        <v>48.2</v>
+      </c>
+      <c r="N6" s="3">
+        <v>40.992203069657613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="3">
+        <v>31.338946871310501</v>
+      </c>
+      <c r="C7" s="3">
+        <v>36.100203432930705</v>
+      </c>
+      <c r="D7" s="3">
+        <v>37.292654545454546</v>
+      </c>
+      <c r="E7" s="3">
+        <v>40.73115702479339</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3">
+        <v>41.043801652892569</v>
+      </c>
+      <c r="J7" s="3">
+        <v>41.022975206611576</v>
+      </c>
+      <c r="K7" s="3">
+        <v>40.266446280991737</v>
+      </c>
+      <c r="L7" s="3">
+        <v>45.3</v>
+      </c>
+      <c r="M7" s="3">
+        <v>44.6</v>
+      </c>
+      <c r="N7" s="3">
+        <v>35.228405895884805</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>34.114528925619837</v>
+      </c>
+      <c r="H8" s="3">
+        <v>33.843129945489721</v>
+      </c>
+      <c r="I8" s="3">
+        <v>34.862265435099665</v>
+      </c>
+      <c r="J8" s="3">
+        <v>35.229044239183274</v>
+      </c>
+      <c r="K8" s="3">
+        <v>35.440150262960181</v>
+      </c>
+      <c r="L8" s="3">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="M8" s="3">
+        <v>33.9</v>
+      </c>
+      <c r="N8" s="3">
+        <v>34.850789210789223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3">
+        <v>37.171900826446283</v>
+      </c>
+      <c r="K9" s="3">
+        <v>38.195930464519805</v>
+      </c>
+      <c r="L9" s="3">
+        <v>37.9</v>
+      </c>
+      <c r="M9" s="3">
+        <v>39.4</v>
+      </c>
+      <c r="N9" s="3">
+        <v>37.702936639118462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
+        <v>37.991912632821723</v>
+      </c>
+      <c r="F10" s="3">
+        <v>38.424204357625847</v>
+      </c>
+      <c r="G10" s="3">
+        <v>38.713844942935843</v>
+      </c>
+      <c r="H10" s="3">
+        <v>38.854120425029521</v>
+      </c>
+      <c r="I10" s="3">
+        <v>39.801725619834713</v>
+      </c>
+      <c r="J10" s="3">
+        <v>39.308561983471087</v>
+      </c>
+      <c r="K10" s="3">
+        <v>38.132834224598938</v>
+      </c>
+      <c r="L10" s="3">
+        <v>37.1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>37.5</v>
+      </c>
+      <c r="N10" s="3">
+        <v>38.822184462809929</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
+        <v>34.2038406537283</v>
+      </c>
+      <c r="J11" s="3">
+        <v>34.771215714456822</v>
+      </c>
+      <c r="K11" s="3">
+        <v>35.718299881936261</v>
+      </c>
+      <c r="L11" s="3">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3">
+        <v>34.721159491797209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3">
+        <v>32.502076194315656</v>
+      </c>
+      <c r="C12" s="3">
+        <v>34.689026629935711</v>
+      </c>
+      <c r="D12" s="3">
+        <v>38.960851875397346</v>
+      </c>
+      <c r="E12" s="3">
+        <v>41.404132231404958</v>
+      </c>
+      <c r="F12" s="3">
+        <v>41.165516528925615</v>
+      </c>
+      <c r="G12" s="3">
+        <v>41.567537190082646</v>
+      </c>
+      <c r="H12" s="3">
+        <v>41.530807374443739</v>
+      </c>
+      <c r="I12" s="3">
+        <v>41.720962989579576</v>
+      </c>
+      <c r="J12" s="3">
+        <v>42.113657505285424</v>
+      </c>
+      <c r="K12" s="3">
+        <v>43.634311294765837</v>
+      </c>
+      <c r="L12" s="3">
+        <v>46.6</v>
+      </c>
+      <c r="M12" s="3">
+        <v>48.7</v>
+      </c>
+      <c r="N12" s="3">
+        <v>39.157040661157033</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3">
+        <v>31.79126328217237</v>
+      </c>
+      <c r="C13" s="3">
+        <v>34.217460555972956</v>
+      </c>
+      <c r="D13" s="3">
+        <v>37.852892561983474</v>
+      </c>
+      <c r="E13" s="3">
+        <v>40.757685950413226</v>
+      </c>
+      <c r="F13" s="3">
+        <v>39.661074380165289</v>
+      </c>
+      <c r="G13" s="3">
+        <v>40.364033057851245</v>
+      </c>
+      <c r="H13" s="3">
+        <v>40.283884297520665</v>
+      </c>
+      <c r="I13" s="3">
+        <v>40.169445100354196</v>
+      </c>
+      <c r="J13" s="3">
+        <v>40.291164108618659</v>
+      </c>
+      <c r="K13" s="3">
+        <v>40.705280321643954</v>
+      </c>
+      <c r="L13" s="3">
+        <v>43</v>
+      </c>
+      <c r="M13" s="3">
+        <v>44.7</v>
+      </c>
+      <c r="N13" s="3">
+        <v>39.198998864125969</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3">
+        <v>45.155151515151516</v>
+      </c>
+      <c r="K14" s="3">
+        <v>45.232303970973604</v>
+      </c>
+      <c r="L14" s="3">
+        <v>44.7</v>
+      </c>
+      <c r="M14" s="3">
+        <v>46.3</v>
+      </c>
+      <c r="N14" s="3">
+        <v>45.217067508589487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3">
+        <v>35.088117539026626</v>
+      </c>
+      <c r="C15" s="3">
+        <v>38.385578512396691</v>
+      </c>
+      <c r="D15" s="3">
+        <v>40.790454545454544</v>
+      </c>
+      <c r="E15" s="3">
+        <v>44.647206611570255</v>
+      </c>
+      <c r="F15" s="3">
+        <v>45.664573002754821</v>
+      </c>
+      <c r="G15" s="3">
+        <v>45.000247933884303</v>
+      </c>
+      <c r="H15" s="3">
+        <v>44.819008264462809</v>
+      </c>
+      <c r="I15" s="3">
+        <v>45.472207792207804</v>
+      </c>
+      <c r="J15" s="3">
+        <v>45.752632821723729</v>
+      </c>
+      <c r="K15" s="3">
+        <v>45.787582644628102</v>
+      </c>
+      <c r="L15" s="3">
+        <v>46.5</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3">
+        <v>41.867984861357861</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="9" customFormat="1">
+      <c r="A16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8">
+        <v>46.3</v>
+      </c>
+      <c r="M16" s="8">
+        <v>46.7</v>
+      </c>
+      <c r="N16" s="8">
+        <f>AVERAGE(L16:M16)</f>
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
+        <v>36.834214876033059</v>
+      </c>
+      <c r="I17" s="3">
+        <v>37.243801652892564</v>
+      </c>
+      <c r="J17" s="3">
+        <v>37.855305785123974</v>
+      </c>
+      <c r="K17" s="3">
+        <v>37.721057851239671</v>
+      </c>
+      <c r="L17" s="3">
+        <v>37.6</v>
+      </c>
+      <c r="M17" s="3">
+        <v>38.6</v>
+      </c>
+      <c r="N17" s="3">
+        <v>37.506535093129379</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <v>43.387423643550143</v>
+      </c>
+      <c r="I18" s="3">
+        <v>43.809247498912562</v>
+      </c>
+      <c r="J18" s="3">
+        <v>41.649076741440375</v>
+      </c>
+      <c r="K18" s="3">
+        <v>41.423471074380167</v>
+      </c>
+      <c r="L18" s="3">
+        <v>40.4</v>
+      </c>
+      <c r="M18" s="3">
+        <v>39.5</v>
+      </c>
+      <c r="N18" s="3">
+        <v>42.759530482692526</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="9" customFormat="1">
+      <c r="A19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8">
+        <v>45.4</v>
+      </c>
+      <c r="M19" s="8">
+        <v>45.8</v>
+      </c>
+      <c r="N19" s="8">
+        <f>AVERAGE(L19:M19)</f>
+        <v>45.599999999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3">
+        <v>34.736859504132234</v>
+      </c>
+      <c r="G20" s="3">
+        <v>34.037045454545456</v>
+      </c>
+      <c r="H20" s="3">
+        <v>34.425454545454549</v>
+      </c>
+      <c r="I20" s="3">
+        <v>35.669106650924839</v>
+      </c>
+      <c r="J20" s="3">
+        <v>35.770456075910616</v>
+      </c>
+      <c r="K20" s="3">
+        <v>36.507785993910396</v>
+      </c>
+      <c r="L20" s="3">
+        <v>38.9</v>
+      </c>
+      <c r="M20" s="3">
+        <v>36.9</v>
+      </c>
+      <c r="N20" s="3">
+        <v>35.579191919191913</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3">
+        <v>38.307193542187186</v>
+      </c>
+      <c r="G21" s="3">
+        <v>39.026623905267066</v>
+      </c>
+      <c r="H21" s="3">
+        <v>38.824910063198821</v>
+      </c>
+      <c r="I21" s="3">
+        <v>39.891727132651638</v>
+      </c>
+      <c r="J21" s="3">
+        <v>41.99315289256198</v>
+      </c>
+      <c r="K21" s="3">
+        <v>42.620132639526574</v>
+      </c>
+      <c r="L21" s="3">
+        <v>43.2</v>
+      </c>
+      <c r="M21" s="3">
+        <v>41.7</v>
+      </c>
+      <c r="N21" s="3">
+        <v>40.418343254068866</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="3">
+        <v>30.763801652892564</v>
+      </c>
+      <c r="C22" s="3">
+        <v>31.255658726300446</v>
+      </c>
+      <c r="D22" s="3">
+        <v>33.107190082644635</v>
+      </c>
+      <c r="E22" s="3">
+        <v>35.445685950413221</v>
+      </c>
+      <c r="F22" s="3">
+        <v>35.633608815427003</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
+        <v>35.685289256198345</v>
+      </c>
+      <c r="I22" s="3">
+        <v>34.921239669421489</v>
+      </c>
+      <c r="J22" s="3">
+        <v>36.14413223140496</v>
+      </c>
+      <c r="K22" s="3">
+        <v>35.08793388429752</v>
+      </c>
+      <c r="L22" s="3">
+        <v>35.703933884297527</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3">
+        <v>32.887618219101476</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="9" customFormat="1">
+      <c r="A23" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8">
+        <v>45.5</v>
+      </c>
+      <c r="M23" s="8">
+        <v>47.9</v>
+      </c>
+      <c r="N23" s="8">
+        <v>45.284638270820096</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3">
+        <v>35.994380165289257</v>
+      </c>
+      <c r="G24" s="3">
+        <v>35.451176702085796</v>
+      </c>
+      <c r="H24" s="3">
+        <v>34.811504132231406</v>
+      </c>
+      <c r="I24" s="3">
+        <v>35.429340679522497</v>
+      </c>
+      <c r="J24" s="3">
+        <v>35.691587646802958</v>
+      </c>
+      <c r="K24" s="3">
+        <v>36.311148591668086</v>
+      </c>
+      <c r="L24" s="3">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3">
+        <v>35.731784151677246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3">
+        <v>37.465867768595039</v>
+      </c>
+      <c r="K25" s="3">
+        <v>37.898291309154104</v>
+      </c>
+      <c r="L25" s="3">
+        <v>40.9</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3">
+        <v>38.220372354917821</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3">
+        <v>41.468146399055492</v>
+      </c>
+      <c r="L26" s="3">
+        <v>42.2</v>
+      </c>
+      <c r="M26" s="3">
+        <v>44.3</v>
+      </c>
+      <c r="N26" s="3">
+        <v>41.237603305785122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3">
+        <v>36.777245179063364</v>
+      </c>
+      <c r="E27" s="3">
+        <v>36.737736808645906</v>
+      </c>
+      <c r="F27" s="3">
+        <v>36.893013774104688</v>
+      </c>
+      <c r="G27" s="3">
+        <v>36.994159779614328</v>
+      </c>
+      <c r="H27" s="3">
+        <v>38.187702479338846</v>
+      </c>
+      <c r="I27" s="3">
+        <v>38.845744918472192</v>
+      </c>
+      <c r="J27" s="3">
+        <v>42.129158969372874</v>
+      </c>
+      <c r="K27" s="3">
+        <v>43.242337662337668</v>
+      </c>
+      <c r="L27" s="3">
+        <v>44</v>
+      </c>
+      <c r="M27" s="3">
+        <v>45.3</v>
+      </c>
+      <c r="N27" s="3">
+        <v>39.020940646130732</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="L28" s="3">
+        <f>AVERAGE(L2:L27)</f>
+        <v>41.028186177458906</v>
+      </c>
+      <c r="M28" s="3">
+        <f>AVERAGE(M2:M27)</f>
+        <v>42.663157894736834</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6">
+        <v>66</v>
+      </c>
+      <c r="G35" s="6">
+        <v>26</v>
+      </c>
+      <c r="H35" s="6">
+        <v>11</v>
+      </c>
+      <c r="I35" s="6">
+        <v>30</v>
+      </c>
+      <c r="J35" s="6">
+        <v>17</v>
+      </c>
+      <c r="K35" s="6">
+        <v>16</v>
+      </c>
+      <c r="L35" s="6">
+        <v>4</v>
+      </c>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6">
+        <v>76</v>
+      </c>
+      <c r="K36" s="6">
+        <v>44</v>
+      </c>
+      <c r="L36" s="6">
+        <v>37</v>
+      </c>
+      <c r="M36" s="6">
+        <v>12</v>
+      </c>
+      <c r="N36" s="6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6">
+        <v>249</v>
+      </c>
+      <c r="K37" s="6">
+        <v>248</v>
+      </c>
+      <c r="L37" s="6">
+        <v>35</v>
+      </c>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="10">
+        <v>55</v>
+      </c>
+      <c r="C38" s="10">
+        <v>102</v>
+      </c>
+      <c r="D38" s="10">
+        <v>36</v>
+      </c>
+      <c r="E38" s="10">
+        <v>21</v>
+      </c>
+      <c r="F38" s="10">
+        <v>29</v>
+      </c>
+      <c r="G38" s="10">
+        <v>24</v>
+      </c>
+      <c r="H38" s="10">
+        <v>27</v>
+      </c>
+      <c r="I38" s="10">
+        <v>6</v>
+      </c>
+      <c r="J38" s="10">
+        <v>7</v>
+      </c>
+      <c r="K38" s="9"/>
+      <c r="L38" s="10">
+        <v>4</v>
+      </c>
+      <c r="M38" s="10">
+        <v>16</v>
+      </c>
+      <c r="N38" s="10">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6">
+        <v>89</v>
+      </c>
+      <c r="K39" s="6">
+        <v>242</v>
+      </c>
+      <c r="L39" s="6">
+        <v>46</v>
+      </c>
+      <c r="M39" s="6">
+        <v>1</v>
+      </c>
+      <c r="N39" s="6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="6">
+        <v>35</v>
+      </c>
+      <c r="C40" s="6">
+        <v>26</v>
+      </c>
+      <c r="D40" s="6">
+        <v>25</v>
+      </c>
+      <c r="E40" s="6">
+        <v>4</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6">
+        <v>2</v>
+      </c>
+      <c r="J40" s="6">
+        <v>4</v>
+      </c>
+      <c r="K40" s="6">
+        <v>1</v>
+      </c>
+      <c r="L40" s="6">
+        <v>1</v>
+      </c>
+      <c r="M40" s="6">
+        <v>5</v>
+      </c>
+      <c r="N40" s="6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6">
+        <v>20</v>
+      </c>
+      <c r="H41" s="6">
+        <v>47</v>
+      </c>
+      <c r="I41" s="6">
+        <v>68</v>
+      </c>
+      <c r="J41" s="6">
+        <v>85</v>
+      </c>
+      <c r="K41" s="6">
+        <v>44</v>
+      </c>
+      <c r="L41" s="6">
+        <v>27</v>
+      </c>
+      <c r="M41" s="6">
+        <v>1</v>
+      </c>
+      <c r="N41" s="6">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6">
+        <v>15</v>
+      </c>
+      <c r="K42" s="6">
+        <v>29</v>
+      </c>
+      <c r="L42" s="6">
+        <v>34</v>
+      </c>
+      <c r="M42" s="6">
+        <v>15</v>
+      </c>
+      <c r="N42" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6">
+        <v>28</v>
+      </c>
+      <c r="F43" s="6">
+        <v>55</v>
+      </c>
+      <c r="G43" s="6">
+        <v>21</v>
+      </c>
+      <c r="H43" s="6">
+        <v>28</v>
+      </c>
+      <c r="I43" s="6">
+        <v>50</v>
+      </c>
+      <c r="J43" s="6">
+        <v>45</v>
+      </c>
+      <c r="K43" s="6">
+        <v>17</v>
+      </c>
+      <c r="L43" s="6">
+        <v>14</v>
+      </c>
+      <c r="M43" s="6">
+        <v>28</v>
+      </c>
+      <c r="N43" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6">
+        <v>89</v>
+      </c>
+      <c r="J44" s="6">
+        <v>69</v>
+      </c>
+      <c r="K44" s="6">
+        <v>42</v>
+      </c>
+      <c r="L44" s="6">
+        <v>3</v>
+      </c>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="6">
+        <v>41</v>
+      </c>
+      <c r="C45" s="6">
+        <v>36</v>
+      </c>
+      <c r="D45" s="6">
+        <v>26</v>
+      </c>
+      <c r="E45" s="6">
+        <v>16</v>
+      </c>
+      <c r="F45" s="6">
+        <v>16</v>
+      </c>
+      <c r="G45" s="6">
+        <v>5</v>
+      </c>
+      <c r="H45" s="6">
+        <v>13</v>
+      </c>
+      <c r="I45" s="6">
+        <v>23</v>
+      </c>
+      <c r="J45" s="6">
+        <v>43</v>
+      </c>
+      <c r="K45" s="6">
+        <v>24</v>
+      </c>
+      <c r="L45" s="6">
+        <v>19</v>
+      </c>
+      <c r="M45" s="6">
+        <v>2</v>
+      </c>
+      <c r="N45" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="6">
+        <v>14</v>
+      </c>
+      <c r="C46" s="6">
+        <v>22</v>
+      </c>
+      <c r="D46" s="6">
+        <v>13</v>
+      </c>
+      <c r="E46" s="6">
+        <v>3</v>
+      </c>
+      <c r="F46" s="6">
+        <v>4</v>
+      </c>
+      <c r="G46" s="6">
+        <v>5</v>
+      </c>
+      <c r="H46" s="6">
+        <v>4</v>
+      </c>
+      <c r="I46" s="6">
+        <v>21</v>
+      </c>
+      <c r="J46" s="6">
+        <v>35</v>
+      </c>
+      <c r="K46" s="6">
+        <v>74</v>
+      </c>
+      <c r="L46" s="6">
+        <v>53</v>
+      </c>
+      <c r="M46" s="6">
+        <v>9</v>
+      </c>
+      <c r="N46" s="6">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6">
+        <v>3</v>
+      </c>
+      <c r="K47" s="6">
+        <v>82</v>
+      </c>
+      <c r="L47" s="6">
+        <v>18</v>
+      </c>
+      <c r="M47" s="6">
+        <v>11</v>
+      </c>
+      <c r="N47" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="6">
+        <v>18</v>
+      </c>
+      <c r="C48" s="6">
+        <v>24</v>
+      </c>
+      <c r="D48" s="6">
+        <v>8</v>
+      </c>
+      <c r="E48" s="6">
+        <v>5</v>
+      </c>
+      <c r="F48" s="6">
+        <v>3</v>
+      </c>
+      <c r="G48" s="6">
+        <v>4</v>
+      </c>
+      <c r="H48" s="6">
+        <v>2</v>
+      </c>
+      <c r="I48" s="6">
+        <v>7</v>
+      </c>
+      <c r="J48" s="6">
+        <v>14</v>
+      </c>
+      <c r="K48" s="6">
+        <v>16</v>
+      </c>
+      <c r="L48" s="6">
+        <v>9</v>
+      </c>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10">
+        <v>86</v>
+      </c>
+      <c r="M49" s="10">
+        <v>54</v>
+      </c>
+      <c r="N49" s="10">
+        <f>SUM(L49:M49)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6">
+        <v>4</v>
+      </c>
+      <c r="I50" s="6">
+        <v>20</v>
+      </c>
+      <c r="J50" s="6">
+        <v>20</v>
+      </c>
+      <c r="K50" s="6">
+        <v>15</v>
+      </c>
+      <c r="L50" s="6">
+        <v>22</v>
+      </c>
+      <c r="M50" s="6">
+        <v>12</v>
+      </c>
+      <c r="N50" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6">
+        <v>46</v>
+      </c>
+      <c r="I51" s="6">
+        <v>76</v>
+      </c>
+      <c r="J51" s="6">
+        <v>35</v>
+      </c>
+      <c r="K51" s="6">
+        <v>42</v>
+      </c>
+      <c r="L51" s="6">
+        <v>32</v>
+      </c>
+      <c r="M51" s="6">
+        <v>4</v>
+      </c>
+      <c r="N51" s="6">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10">
+        <v>207</v>
+      </c>
+      <c r="M52" s="10">
+        <v>205</v>
+      </c>
+      <c r="N52" s="10">
+        <f>SUM(L52:M52)</f>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6">
+        <v>1</v>
+      </c>
+      <c r="G53" s="6">
+        <v>16</v>
+      </c>
+      <c r="H53" s="6">
+        <v>16</v>
+      </c>
+      <c r="I53" s="6">
+        <v>42</v>
+      </c>
+      <c r="J53" s="6">
+        <v>27</v>
+      </c>
+      <c r="K53" s="6">
+        <v>19</v>
+      </c>
+      <c r="L53" s="6">
+        <v>9</v>
+      </c>
+      <c r="M53" s="6">
+        <v>3</v>
+      </c>
+      <c r="N53" s="6">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6">
+        <v>215</v>
+      </c>
+      <c r="G54" s="6">
+        <v>67</v>
+      </c>
+      <c r="H54" s="6">
+        <v>51</v>
+      </c>
+      <c r="I54" s="6">
+        <v>177</v>
+      </c>
+      <c r="J54" s="6">
+        <v>80</v>
+      </c>
+      <c r="K54" s="6">
+        <v>162</v>
+      </c>
+      <c r="L54" s="6">
+        <v>145</v>
+      </c>
+      <c r="M54" s="6">
+        <v>101</v>
+      </c>
+      <c r="N54" s="6">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="6">
+        <v>2</v>
+      </c>
+      <c r="C55" s="6">
+        <v>68</v>
+      </c>
+      <c r="D55" s="6">
+        <v>20</v>
+      </c>
+      <c r="E55" s="6">
+        <v>10</v>
+      </c>
+      <c r="F55" s="6">
+        <v>3</v>
+      </c>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6">
+        <v>2</v>
+      </c>
+      <c r="I55" s="6">
+        <v>4</v>
+      </c>
+      <c r="J55" s="6">
+        <v>7</v>
+      </c>
+      <c r="K55" s="6">
+        <v>12</v>
+      </c>
+      <c r="L55" s="6">
+        <v>5</v>
+      </c>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10">
+        <v>100</v>
+      </c>
+      <c r="M56" s="10">
+        <v>35</v>
+      </c>
+      <c r="N56" s="10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6">
+        <v>14</v>
+      </c>
+      <c r="G57" s="6">
+        <v>21</v>
+      </c>
+      <c r="H57" s="6">
+        <v>20</v>
+      </c>
+      <c r="I57" s="6">
+        <v>45</v>
+      </c>
+      <c r="J57" s="6">
+        <v>57</v>
+      </c>
+      <c r="K57" s="6">
+        <v>49</v>
+      </c>
+      <c r="L57" s="6">
+        <v>18</v>
+      </c>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6">
+        <v>4</v>
+      </c>
+      <c r="K58" s="6">
+        <v>157</v>
+      </c>
+      <c r="L58" s="6">
+        <v>35</v>
+      </c>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6">
+        <v>7</v>
+      </c>
+      <c r="L59" s="6">
+        <v>15</v>
+      </c>
+      <c r="M59" s="6">
+        <v>10</v>
+      </c>
+      <c r="N59" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6">
+        <v>12</v>
+      </c>
+      <c r="E60" s="6">
+        <v>26</v>
+      </c>
+      <c r="F60" s="6">
+        <v>30</v>
+      </c>
+      <c r="G60" s="6">
+        <v>24</v>
+      </c>
+      <c r="H60" s="6">
+        <v>30</v>
+      </c>
+      <c r="I60" s="6">
+        <v>37</v>
+      </c>
+      <c r="J60" s="6">
+        <v>17</v>
+      </c>
+      <c r="K60" s="6">
+        <v>28</v>
+      </c>
+      <c r="L60" s="6">
+        <v>36</v>
+      </c>
+      <c r="M60" s="6">
+        <v>31</v>
+      </c>
+      <c r="N60" s="6">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="L61" s="6">
+        <f>SUM(L35:L60)</f>
+        <v>1014</v>
+      </c>
+      <c r="M61" s="6">
+        <f>SUM(M35:M60)</f>
+        <v>555</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>